--- a/Documentation/Danske Personvogne.xlsx
+++ b/Documentation/Danske Personvogne.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\1993m\Documents\GitHub\Pak128.Nordic\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F56021B0-F54B-460C-9C84-84FA15410D1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BCE3149-ADDF-4395-89A3-A47181AAA69C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Forklaring" sheetId="2" r:id="rId1"/>
     <sheet name="Danske personvogne" sheetId="1" r:id="rId2"/>
+    <sheet name="Danske damplokomotiver" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="481" uniqueCount="218">
   <si>
     <t>name=BR-390FrontCab</t>
   </si>
@@ -217,12 +218,12 @@
     <t>sound</t>
   </si>
   <si>
-    <t>can_lead_from_rear</t>
-  </si>
-  <si>
     <t>bidirectional</t>
   </si>
   <si>
+    <t>is_tilting</t>
+  </si>
+  <si>
     <t>min_loading_tiime</t>
   </si>
   <si>
@@ -247,9 +248,6 @@
     <t>air_resistance</t>
   </si>
   <si>
-    <t>https://simutrans-germany.com/wiki/wiki/en_VehicleDef#Constraint_Parameters</t>
-  </si>
-  <si>
     <t>Constraint[Prev]</t>
   </si>
   <si>
@@ -257,9 +255,6 @@
   </si>
   <si>
     <t>liverytype</t>
-  </si>
-  <si>
-    <t>type af objekt. For køretøjer altiv =vehicle</t>
   </si>
   <si>
     <t>Navnet på toget. Ikke det, der vises for spilleren</t>
@@ -451,6 +446,9 @@
     <t xml:space="preserve">Hvilket niveau af catering, køretøjet har (mellem 0-5) for passagerkøretøjer. For postvogne bliver det til en postbureauvogn. </t>
   </si>
   <si>
+    <t>mixed_load_prohibition</t>
+  </si>
+  <si>
     <t>mixed_load_prohibition=1</t>
   </si>
   <si>
@@ -602,13 +600,122 @@
   </si>
   <si>
     <t>Samme syntax som "EmptyImage", men for læssede køretøjer</t>
+  </si>
+  <si>
+    <t>https://forum.simutrans.com/index.php/topic,15174.0.html</t>
+  </si>
+  <si>
+    <t>https://simutrans-germany.com/wiki/wiki/en_VehicleDef</t>
+  </si>
+  <si>
+    <t>type af objekt. For køretøjer altid =vehicle</t>
+  </si>
+  <si>
+    <t>vehicle</t>
+  </si>
+  <si>
+    <t>track</t>
+  </si>
+  <si>
+    <t>ex</t>
+  </si>
+  <si>
+    <t>payload</t>
+  </si>
+  <si>
+    <t>air_resistance is a coefficient to calculate drag force: F= speed^2 * air_resistance</t>
+  </si>
+  <si>
+    <t>available_only_as_upgrade</t>
+  </si>
+  <si>
+    <t>upgrade_price</t>
+  </si>
+  <si>
+    <t>Human name</t>
+  </si>
+  <si>
+    <t>SJS 1./2.</t>
+  </si>
+  <si>
+    <t>passagiere</t>
+  </si>
+  <si>
+    <t>SJS 3. kl</t>
+  </si>
+  <si>
+    <t>SJS post</t>
+  </si>
+  <si>
+    <t>post</t>
+  </si>
+  <si>
+    <t>SJS Aa</t>
+  </si>
+  <si>
+    <t>SJS Ba</t>
+  </si>
+  <si>
+    <t>SJS Ca</t>
+  </si>
+  <si>
+    <t>Odin</t>
+  </si>
+  <si>
+    <t>steam</t>
+  </si>
+  <si>
+    <t>OdinTender</t>
+  </si>
+  <si>
+    <t>Thor</t>
+  </si>
+  <si>
+    <t>ThorTender</t>
+  </si>
+  <si>
+    <t>Skirner</t>
+  </si>
+  <si>
+    <t>Steam</t>
+  </si>
+  <si>
+    <t>Roeskilde</t>
+  </si>
+  <si>
+    <t>Thor, Skirner, Roeskilde</t>
+  </si>
+  <si>
+    <t>H. C. Ørsted</t>
+  </si>
+  <si>
+    <t>H. C. Ørsted Tender</t>
+  </si>
+  <si>
+    <t>?</t>
+  </si>
+  <si>
+    <t>E-klassen</t>
+  </si>
+  <si>
+    <t>SJS Bogiepost (nr 81-84)</t>
+  </si>
+  <si>
+    <t>SJS Db</t>
+  </si>
+  <si>
+    <t>SJS Ab</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <numFmts count="2">
+    <numFmt numFmtId="171" formatCode="0&quot; km/t&quot;"/>
+    <numFmt numFmtId="173" formatCode="0.0&quot; t&quot;"/>
+  </numFmts>
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -620,6 +727,14 @@
       <i/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -642,10 +757,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -655,8 +771,19 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="173" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Link" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -937,8 +1064,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDAB390C-EB3C-47C0-B1C9-8DBD38503A44}">
   <dimension ref="A1:R80"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="R17" sqref="R17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -951,7 +1078,7 @@
         <v>36</v>
       </c>
       <c r="C1" t="s">
-        <v>77</v>
+        <v>185</v>
       </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
@@ -959,7 +1086,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
@@ -967,21 +1094,21 @@
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="R3" s="2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C4" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="R4" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.25">
@@ -989,10 +1116,10 @@
         <v>2</v>
       </c>
       <c r="C5" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="R5" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
@@ -1000,21 +1127,24 @@
         <v>3</v>
       </c>
       <c r="C6" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="R6" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="B7" t="s">
+        <v>188</v>
+      </c>
       <c r="C7" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="R7" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.25">
@@ -1022,10 +1152,10 @@
         <v>5</v>
       </c>
       <c r="C8" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="R8" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.25">
@@ -1033,7 +1163,7 @@
         <v>6</v>
       </c>
       <c r="C9" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="R9" s="2" t="s">
         <v>1</v>
@@ -1044,10 +1174,10 @@
         <v>7</v>
       </c>
       <c r="C10" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="R10" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.25">
@@ -1055,29 +1185,29 @@
         <v>8</v>
       </c>
       <c r="C11" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="R11" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C12" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="R12" s="2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C13" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="R13" s="2"/>
     </row>
@@ -1092,135 +1222,171 @@
         <v>10</v>
       </c>
       <c r="C15" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C16" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>11</v>
       </c>
+      <c r="B17" t="s">
+        <v>188</v>
+      </c>
       <c r="C17" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+        <v>128</v>
+      </c>
+      <c r="R17" s="5" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="B18" t="s">
+        <v>188</v>
+      </c>
       <c r="C18" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+        <v>129</v>
+      </c>
+      <c r="R18" s="5" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="B19" t="s">
+        <v>188</v>
+      </c>
       <c r="C19" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>14</v>
       </c>
+      <c r="B20" t="s">
+        <v>188</v>
+      </c>
       <c r="C20" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
+      </c>
+      <c r="B21" t="s">
+        <v>188</v>
       </c>
       <c r="C21" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>15</v>
       </c>
+      <c r="B22" t="s">
+        <v>188</v>
+      </c>
       <c r="C22" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
+      </c>
+      <c r="B23" t="s">
+        <v>188</v>
       </c>
       <c r="C23" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C24" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>17</v>
       </c>
+      <c r="B25" t="s">
+        <v>188</v>
+      </c>
       <c r="C25" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>18</v>
       </c>
+      <c r="B26" t="s">
+        <v>188</v>
+      </c>
       <c r="C26" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>19</v>
       </c>
       <c r="C28" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>20</v>
       </c>
+      <c r="B29" t="s">
+        <v>188</v>
+      </c>
       <c r="C29" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>21</v>
       </c>
       <c r="C30" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>22</v>
       </c>
       <c r="C31" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>23</v>
       </c>
       <c r="C32" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
@@ -1228,23 +1394,29 @@
         <v>24</v>
       </c>
       <c r="C33" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="B34" t="s">
+        <v>188</v>
+      </c>
+      <c r="C34" t="s">
         <v>112</v>
-      </c>
-      <c r="C34" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="B35" t="s">
+        <v>188</v>
+      </c>
+      <c r="C35" t="s">
         <v>113</v>
-      </c>
-      <c r="C35" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
@@ -1252,448 +1424,2657 @@
         <v>25</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>26</v>
       </c>
+      <c r="B37" t="s">
+        <v>188</v>
+      </c>
       <c r="C37" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="C38" s="4" t="s">
         <v>133</v>
-      </c>
-      <c r="C38" s="4" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="B39" t="s">
+        <v>188</v>
+      </c>
+      <c r="C39" s="4" t="s">
         <v>135</v>
-      </c>
-      <c r="C39" s="4" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="B40" t="s">
+        <v>188</v>
+      </c>
+      <c r="C40" t="s">
         <v>137</v>
-      </c>
-      <c r="C40" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="B41" t="s">
+        <v>188</v>
+      </c>
+      <c r="C41" s="4" t="s">
         <v>139</v>
-      </c>
-      <c r="C41" s="4" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="B42" t="s">
+        <v>188</v>
+      </c>
+      <c r="C42" t="s">
         <v>141</v>
-      </c>
-      <c r="C42" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="B43" t="s">
+        <v>188</v>
+      </c>
+      <c r="C43" t="s">
         <v>143</v>
-      </c>
-      <c r="C43" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>27</v>
       </c>
+      <c r="B44" t="s">
+        <v>188</v>
+      </c>
       <c r="C44" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>28</v>
       </c>
+      <c r="B45" t="s">
+        <v>188</v>
+      </c>
       <c r="C45" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>29</v>
       </c>
+      <c r="B46" t="s">
+        <v>188</v>
+      </c>
       <c r="C46" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>30</v>
       </c>
+      <c r="B47" t="s">
+        <v>188</v>
+      </c>
       <c r="C47" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>31</v>
       </c>
+      <c r="B48" t="s">
+        <v>188</v>
+      </c>
       <c r="C48" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>32</v>
       </c>
+      <c r="B49" t="s">
+        <v>188</v>
+      </c>
       <c r="C49" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A50" s="1" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A50" s="1" t="s">
+      <c r="B50" t="s">
+        <v>188</v>
+      </c>
+      <c r="C50" t="s">
         <v>149</v>
       </c>
-      <c r="C50" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>33</v>
       </c>
+      <c r="B51" t="s">
+        <v>188</v>
+      </c>
       <c r="C51" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+        <v>150</v>
+      </c>
+      <c r="J51" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>34</v>
       </c>
       <c r="C53" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>35</v>
       </c>
       <c r="C55" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="B57" t="s">
+        <v>188</v>
+      </c>
+      <c r="C57" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A58" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="C57" t="s">
+      <c r="B58" t="s">
+        <v>188</v>
+      </c>
+      <c r="C58" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A58" s="1" t="s">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A59" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="C58" t="s">
+      <c r="B59" t="s">
+        <v>188</v>
+      </c>
+      <c r="C59" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A59" s="1" t="s">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A61" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="C59" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A61" s="1" t="s">
+      <c r="C61" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A62" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="C61" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A62" s="1" t="s">
+      <c r="C62" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A63" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="C62" t="s">
+      <c r="C63" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A63" s="1" t="s">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A64" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="C63" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A64" s="1" t="s">
-        <v>160</v>
-      </c>
       <c r="C64" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C65" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C66" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
+      </c>
+      <c r="B70" t="s">
+        <v>188</v>
       </c>
       <c r="C70" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
+      </c>
+      <c r="B71" t="s">
+        <v>188</v>
       </c>
       <c r="C71" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
+      </c>
+      <c r="B72" t="s">
+        <v>188</v>
       </c>
       <c r="C72" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
+      </c>
+      <c r="B73" t="s">
+        <v>188</v>
       </c>
       <c r="C73" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
+      </c>
+      <c r="B74" t="s">
+        <v>188</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
+      </c>
+      <c r="B75" t="s">
+        <v>188</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
+      </c>
+      <c r="B76" t="s">
+        <v>188</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
+      </c>
+      <c r="B77" t="s">
+        <v>188</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="C79" t="s">
         <v>181</v>
-      </c>
-      <c r="C79" t="s">
-        <v>182</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" s="3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C80" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="R17" r:id="rId1" xr:uid="{2E8022C6-8143-4EAD-9403-920444866EAF}"/>
+    <hyperlink ref="R18" r:id="rId2" xr:uid="{99E61DFA-6847-470C-92F2-C80C99D7FE2A}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AR51"/>
+  <dimension ref="A1:AS170"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="9.140625" style="8"/>
+    <col min="14" max="14" width="9.140625" style="10"/>
+    <col min="27" max="27" width="9.140625" style="9"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>36</v>
       </c>
       <c r="B1" t="s">
+        <v>193</v>
+      </c>
+      <c r="C1" t="s">
         <v>37</v>
       </c>
+      <c r="D1" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="E1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H1" t="s">
+        <v>79</v>
+      </c>
+      <c r="I1" t="s">
+        <v>80</v>
+      </c>
+      <c r="J1" t="s">
+        <v>46</v>
+      </c>
+      <c r="K1" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="L1" s="6" t="s">
+        <v>191</v>
+      </c>
+      <c r="M1" s="6" t="s">
+        <v>192</v>
+      </c>
+      <c r="N1" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="O1" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="P1" t="s">
+        <v>189</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>48</v>
+      </c>
+      <c r="R1" t="s">
+        <v>49</v>
+      </c>
+      <c r="S1" t="s">
+        <v>50</v>
+      </c>
+      <c r="T1" t="s">
+        <v>51</v>
+      </c>
+      <c r="U1" t="s">
+        <v>52</v>
+      </c>
+      <c r="V1" t="s">
+        <v>53</v>
+      </c>
+      <c r="W1" t="s">
+        <v>90</v>
+      </c>
+      <c r="X1" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>55</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA1" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>60</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>61</v>
+      </c>
+      <c r="AF1" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="AG1" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>63</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>64</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>66</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>67</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>68</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>69</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>70</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>71</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="2" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>186</v>
+      </c>
+      <c r="B2" t="s">
+        <v>194</v>
+      </c>
+      <c r="D2" s="8">
+        <v>50</v>
+      </c>
+      <c r="F2">
+        <v>1847</v>
+      </c>
+      <c r="G2">
+        <v>6</v>
+      </c>
+      <c r="J2" t="s">
+        <v>187</v>
+      </c>
+      <c r="N2" s="10" t="s">
+        <v>195</v>
+      </c>
+      <c r="S2">
+        <v>32</v>
+      </c>
+      <c r="T2">
+        <v>12</v>
+      </c>
+      <c r="V2">
+        <v>0</v>
+      </c>
+      <c r="W2">
+        <v>0</v>
+      </c>
+      <c r="AA2" s="9">
+        <v>10.6</v>
+      </c>
+      <c r="AB2">
+        <v>3</v>
+      </c>
+      <c r="AF2" s="3"/>
+      <c r="AG2" s="3"/>
+      <c r="AH2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>186</v>
+      </c>
+      <c r="B3" t="s">
+        <v>196</v>
+      </c>
+      <c r="D3" s="8">
+        <v>50</v>
+      </c>
+      <c r="F3">
+        <v>1847</v>
+      </c>
+      <c r="G3">
+        <v>6</v>
+      </c>
+      <c r="J3" t="s">
+        <v>187</v>
+      </c>
+      <c r="N3" s="10" t="s">
+        <v>195</v>
+      </c>
+      <c r="R3">
+        <v>60</v>
+      </c>
+      <c r="V3">
+        <v>0</v>
+      </c>
+      <c r="W3">
+        <v>0</v>
+      </c>
+      <c r="AA3" s="9">
+        <v>9.6</v>
+      </c>
+      <c r="AB3">
+        <v>3</v>
+      </c>
+      <c r="AG3" s="3"/>
+      <c r="AH3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>186</v>
+      </c>
+      <c r="B4" t="s">
+        <v>197</v>
+      </c>
+      <c r="D4" s="8">
+        <v>50</v>
+      </c>
+      <c r="F4">
+        <v>1847</v>
+      </c>
+      <c r="G4">
+        <v>6</v>
+      </c>
+      <c r="J4" t="s">
+        <v>187</v>
+      </c>
+      <c r="N4" s="10" t="s">
+        <v>198</v>
+      </c>
+      <c r="P4">
+        <v>1000</v>
+      </c>
+      <c r="AA4" s="9">
+        <v>12.5</v>
+      </c>
+      <c r="AB4">
+        <v>3</v>
+      </c>
+      <c r="AG4" s="3"/>
+      <c r="AH4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>186</v>
+      </c>
+      <c r="B5" t="s">
+        <v>199</v>
+      </c>
+      <c r="F5">
+        <v>1863</v>
+      </c>
+      <c r="J5" t="s">
+        <v>187</v>
+      </c>
+      <c r="N5" s="10" t="s">
+        <v>195</v>
+      </c>
+      <c r="S5">
+        <v>24</v>
+      </c>
+      <c r="T5">
+        <v>7</v>
+      </c>
+      <c r="V5">
+        <v>0</v>
+      </c>
+      <c r="W5">
+        <v>0</v>
+      </c>
+      <c r="AA5" s="9">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="AB5">
+        <v>2</v>
+      </c>
+      <c r="AG5" s="3"/>
+      <c r="AH5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>186</v>
+      </c>
+      <c r="B6" t="s">
+        <v>200</v>
+      </c>
+      <c r="F6">
+        <v>1865</v>
+      </c>
+      <c r="J6" t="s">
+        <v>187</v>
+      </c>
+      <c r="N6" s="10" t="s">
+        <v>195</v>
+      </c>
+      <c r="R6">
+        <v>30</v>
+      </c>
+      <c r="S6">
+        <v>16</v>
+      </c>
+      <c r="V6">
+        <v>0</v>
+      </c>
+      <c r="W6">
+        <v>0</v>
+      </c>
+      <c r="AA6" s="9">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="AB6">
+        <v>2</v>
+      </c>
+      <c r="AG6" s="3"/>
+      <c r="AH6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>186</v>
+      </c>
+      <c r="B7" t="s">
+        <v>201</v>
+      </c>
+      <c r="F7">
+        <v>1863</v>
+      </c>
+      <c r="G7">
+        <v>4</v>
+      </c>
+      <c r="J7" t="s">
+        <v>187</v>
+      </c>
+      <c r="N7" s="10" t="s">
+        <v>195</v>
+      </c>
+      <c r="R7">
+        <v>50</v>
+      </c>
+      <c r="V7">
+        <v>0</v>
+      </c>
+      <c r="W7">
+        <v>0</v>
+      </c>
+      <c r="AA7" s="9">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="AB7">
+        <v>2</v>
+      </c>
+      <c r="AG7" s="3"/>
+      <c r="AH7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>186</v>
+      </c>
+      <c r="B8" t="s">
+        <v>215</v>
+      </c>
+      <c r="F8">
+        <v>1856</v>
+      </c>
+      <c r="G8">
+        <v>4</v>
+      </c>
+      <c r="J8" t="s">
+        <v>187</v>
+      </c>
+      <c r="N8" s="10" t="s">
+        <v>198</v>
+      </c>
+      <c r="P8">
+        <v>900</v>
+      </c>
+      <c r="AA8" s="9">
+        <v>15.1</v>
+      </c>
+      <c r="AB8">
+        <v>4</v>
+      </c>
+      <c r="AG8" s="3"/>
+      <c r="AH8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>186</v>
+      </c>
+      <c r="B9" t="s">
+        <v>216</v>
+      </c>
+      <c r="F9">
+        <v>1868</v>
+      </c>
+      <c r="J9" t="s">
+        <v>187</v>
+      </c>
+      <c r="N9" s="10" t="s">
+        <v>195</v>
+      </c>
+      <c r="R9">
+        <v>100</v>
+      </c>
+      <c r="AA9" s="9">
+        <v>11.8</v>
+      </c>
+      <c r="AB9">
+        <v>2</v>
+      </c>
+      <c r="AG9" s="3"/>
+      <c r="AH9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>186</v>
+      </c>
+      <c r="B10" t="s">
+        <v>217</v>
+      </c>
+      <c r="J10" t="s">
+        <v>187</v>
+      </c>
+      <c r="AG10" s="3"/>
+    </row>
+    <row r="11" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>186</v>
+      </c>
+      <c r="J11" t="s">
+        <v>187</v>
+      </c>
+      <c r="AG11" s="3"/>
+    </row>
+    <row r="12" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>186</v>
+      </c>
+      <c r="J12" t="s">
+        <v>187</v>
+      </c>
+      <c r="AG12" s="3"/>
+    </row>
+    <row r="13" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>186</v>
+      </c>
+      <c r="J13" t="s">
+        <v>187</v>
+      </c>
+      <c r="AG13" s="3"/>
+    </row>
+    <row r="14" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>186</v>
+      </c>
+      <c r="J14" t="s">
+        <v>187</v>
+      </c>
+      <c r="AG14" s="3"/>
+    </row>
+    <row r="15" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>186</v>
+      </c>
+      <c r="J15" t="s">
+        <v>187</v>
+      </c>
+      <c r="AG15" s="3"/>
+    </row>
+    <row r="16" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>186</v>
+      </c>
+      <c r="J16" t="s">
+        <v>187</v>
+      </c>
+      <c r="AG16" s="3"/>
+    </row>
+    <row r="17" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>186</v>
+      </c>
+      <c r="J17" t="s">
+        <v>187</v>
+      </c>
+      <c r="AG17" s="3"/>
+    </row>
+    <row r="18" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>186</v>
+      </c>
+      <c r="J18" t="s">
+        <v>187</v>
+      </c>
+      <c r="AG18" s="3"/>
+    </row>
+    <row r="19" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>186</v>
+      </c>
+      <c r="AG19" s="3"/>
+    </row>
+    <row r="20" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>186</v>
+      </c>
+      <c r="AG20" s="3"/>
+    </row>
+    <row r="21" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>186</v>
+      </c>
+      <c r="AG21" s="3"/>
+    </row>
+    <row r="22" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>186</v>
+      </c>
+      <c r="AG22" s="3"/>
+    </row>
+    <row r="23" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>186</v>
+      </c>
+      <c r="AG23" s="3"/>
+    </row>
+    <row r="24" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>186</v>
+      </c>
+      <c r="AG24" s="3"/>
+    </row>
+    <row r="25" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>186</v>
+      </c>
+      <c r="AG25" s="3"/>
+    </row>
+    <row r="26" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>186</v>
+      </c>
+      <c r="AG26" s="3"/>
+    </row>
+    <row r="27" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>186</v>
+      </c>
+      <c r="AG27" s="3"/>
+    </row>
+    <row r="28" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>186</v>
+      </c>
+      <c r="AG28" s="3"/>
+    </row>
+    <row r="29" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>186</v>
+      </c>
+      <c r="AG29" s="3"/>
+    </row>
+    <row r="30" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>186</v>
+      </c>
+      <c r="AG30" s="3"/>
+    </row>
+    <row r="31" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>186</v>
+      </c>
+      <c r="AG31" s="3"/>
+    </row>
+    <row r="32" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>186</v>
+      </c>
+      <c r="AG32" s="3"/>
+    </row>
+    <row r="33" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>186</v>
+      </c>
+      <c r="AG33" s="3"/>
+    </row>
+    <row r="34" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>186</v>
+      </c>
+      <c r="AG34" s="3"/>
+    </row>
+    <row r="35" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>186</v>
+      </c>
+      <c r="AG35" s="3"/>
+    </row>
+    <row r="36" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>186</v>
+      </c>
+      <c r="AG36" s="3"/>
+    </row>
+    <row r="37" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>186</v>
+      </c>
+      <c r="AG37" s="3"/>
+    </row>
+    <row r="38" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>186</v>
+      </c>
+      <c r="AG38" s="3"/>
+    </row>
+    <row r="39" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>186</v>
+      </c>
+      <c r="AG39" s="3"/>
+    </row>
+    <row r="40" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>186</v>
+      </c>
+      <c r="AG40" s="3"/>
+    </row>
+    <row r="41" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>186</v>
+      </c>
+      <c r="AG41" s="3"/>
+    </row>
+    <row r="42" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>186</v>
+      </c>
+      <c r="AG42" s="3"/>
+    </row>
+    <row r="43" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>186</v>
+      </c>
+      <c r="AG43" s="3"/>
+    </row>
+    <row r="44" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>186</v>
+      </c>
+      <c r="AG44" s="3"/>
+    </row>
+    <row r="45" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>186</v>
+      </c>
+      <c r="AG45" s="3"/>
+    </row>
+    <row r="46" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>186</v>
+      </c>
+      <c r="AG46" s="3"/>
+    </row>
+    <row r="47" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>186</v>
+      </c>
+      <c r="AG47" s="3"/>
+    </row>
+    <row r="48" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>186</v>
+      </c>
+      <c r="AG48" s="3"/>
+    </row>
+    <row r="49" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>186</v>
+      </c>
+      <c r="AG49" s="3"/>
+    </row>
+    <row r="50" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>186</v>
+      </c>
+      <c r="AG50" s="3"/>
+    </row>
+    <row r="51" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>186</v>
+      </c>
+      <c r="AG51" s="3"/>
+    </row>
+    <row r="52" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>186</v>
+      </c>
+      <c r="AG52" s="3"/>
+    </row>
+    <row r="53" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>186</v>
+      </c>
+      <c r="AG53" s="3"/>
+    </row>
+    <row r="54" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>186</v>
+      </c>
+      <c r="AG54" s="3"/>
+    </row>
+    <row r="55" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>186</v>
+      </c>
+      <c r="AG55" s="3"/>
+    </row>
+    <row r="56" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>186</v>
+      </c>
+      <c r="AG56" s="3"/>
+    </row>
+    <row r="57" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>186</v>
+      </c>
+      <c r="AG57" s="3"/>
+    </row>
+    <row r="58" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>186</v>
+      </c>
+      <c r="AG58" s="3"/>
+    </row>
+    <row r="59" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>186</v>
+      </c>
+      <c r="AG59" s="3"/>
+    </row>
+    <row r="60" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>186</v>
+      </c>
+      <c r="AG60" s="3"/>
+    </row>
+    <row r="61" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="AG61" s="3"/>
+    </row>
+    <row r="62" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="AG62" s="3"/>
+    </row>
+    <row r="63" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="AG63" s="3"/>
+    </row>
+    <row r="64" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="AG64" s="3"/>
+    </row>
+    <row r="65" spans="33:33" x14ac:dyDescent="0.25">
+      <c r="AG65" s="3"/>
+    </row>
+    <row r="66" spans="33:33" x14ac:dyDescent="0.25">
+      <c r="AG66" s="3"/>
+    </row>
+    <row r="67" spans="33:33" x14ac:dyDescent="0.25">
+      <c r="AG67" s="3"/>
+    </row>
+    <row r="68" spans="33:33" x14ac:dyDescent="0.25">
+      <c r="AG68" s="3"/>
+    </row>
+    <row r="69" spans="33:33" x14ac:dyDescent="0.25">
+      <c r="AG69" s="3"/>
+    </row>
+    <row r="70" spans="33:33" x14ac:dyDescent="0.25">
+      <c r="AG70" s="3"/>
+    </row>
+    <row r="71" spans="33:33" x14ac:dyDescent="0.25">
+      <c r="AG71" s="3"/>
+    </row>
+    <row r="72" spans="33:33" x14ac:dyDescent="0.25">
+      <c r="AG72" s="3"/>
+    </row>
+    <row r="73" spans="33:33" x14ac:dyDescent="0.25">
+      <c r="AG73" s="3"/>
+    </row>
+    <row r="74" spans="33:33" x14ac:dyDescent="0.25">
+      <c r="AG74" s="3"/>
+    </row>
+    <row r="75" spans="33:33" x14ac:dyDescent="0.25">
+      <c r="AG75" s="3"/>
+    </row>
+    <row r="76" spans="33:33" x14ac:dyDescent="0.25">
+      <c r="AG76" s="3"/>
+    </row>
+    <row r="77" spans="33:33" x14ac:dyDescent="0.25">
+      <c r="AG77" s="3"/>
+    </row>
+    <row r="78" spans="33:33" x14ac:dyDescent="0.25">
+      <c r="AG78" s="3"/>
+    </row>
+    <row r="79" spans="33:33" x14ac:dyDescent="0.25">
+      <c r="AG79" s="3"/>
+    </row>
+    <row r="80" spans="33:33" x14ac:dyDescent="0.25">
+      <c r="AG80" s="3"/>
+    </row>
+    <row r="81" spans="33:33" x14ac:dyDescent="0.25">
+      <c r="AG81" s="3"/>
+    </row>
+    <row r="82" spans="33:33" x14ac:dyDescent="0.25">
+      <c r="AG82" s="3"/>
+    </row>
+    <row r="83" spans="33:33" x14ac:dyDescent="0.25">
+      <c r="AG83" s="3"/>
+    </row>
+    <row r="84" spans="33:33" x14ac:dyDescent="0.25">
+      <c r="AG84" s="3"/>
+    </row>
+    <row r="85" spans="33:33" x14ac:dyDescent="0.25">
+      <c r="AG85" s="3"/>
+    </row>
+    <row r="86" spans="33:33" x14ac:dyDescent="0.25">
+      <c r="AG86" s="3"/>
+    </row>
+    <row r="87" spans="33:33" x14ac:dyDescent="0.25">
+      <c r="AG87" s="3"/>
+    </row>
+    <row r="88" spans="33:33" x14ac:dyDescent="0.25">
+      <c r="AG88" s="3"/>
+    </row>
+    <row r="89" spans="33:33" x14ac:dyDescent="0.25">
+      <c r="AG89" s="3"/>
+    </row>
+    <row r="90" spans="33:33" x14ac:dyDescent="0.25">
+      <c r="AG90" s="3"/>
+    </row>
+    <row r="91" spans="33:33" x14ac:dyDescent="0.25">
+      <c r="AG91" s="3"/>
+    </row>
+    <row r="92" spans="33:33" x14ac:dyDescent="0.25">
+      <c r="AG92" s="3"/>
+    </row>
+    <row r="93" spans="33:33" x14ac:dyDescent="0.25">
+      <c r="AG93" s="3"/>
+    </row>
+    <row r="94" spans="33:33" x14ac:dyDescent="0.25">
+      <c r="AG94" s="3"/>
+    </row>
+    <row r="95" spans="33:33" x14ac:dyDescent="0.25">
+      <c r="AG95" s="3"/>
+    </row>
+    <row r="96" spans="33:33" x14ac:dyDescent="0.25">
+      <c r="AG96" s="3"/>
+    </row>
+    <row r="97" spans="33:33" x14ac:dyDescent="0.25">
+      <c r="AG97" s="3"/>
+    </row>
+    <row r="98" spans="33:33" x14ac:dyDescent="0.25">
+      <c r="AG98" s="3"/>
+    </row>
+    <row r="99" spans="33:33" x14ac:dyDescent="0.25">
+      <c r="AG99" s="3"/>
+    </row>
+    <row r="100" spans="33:33" x14ac:dyDescent="0.25">
+      <c r="AG100" s="3"/>
+    </row>
+    <row r="101" spans="33:33" x14ac:dyDescent="0.25">
+      <c r="AG101" s="3"/>
+    </row>
+    <row r="102" spans="33:33" x14ac:dyDescent="0.25">
+      <c r="AG102" s="3"/>
+    </row>
+    <row r="103" spans="33:33" x14ac:dyDescent="0.25">
+      <c r="AG103" s="3"/>
+    </row>
+    <row r="104" spans="33:33" x14ac:dyDescent="0.25">
+      <c r="AG104" s="3"/>
+    </row>
+    <row r="105" spans="33:33" x14ac:dyDescent="0.25">
+      <c r="AG105" s="3"/>
+    </row>
+    <row r="106" spans="33:33" x14ac:dyDescent="0.25">
+      <c r="AG106" s="3"/>
+    </row>
+    <row r="107" spans="33:33" x14ac:dyDescent="0.25">
+      <c r="AG107" s="3"/>
+    </row>
+    <row r="108" spans="33:33" x14ac:dyDescent="0.25">
+      <c r="AG108" s="3"/>
+    </row>
+    <row r="109" spans="33:33" x14ac:dyDescent="0.25">
+      <c r="AG109" s="3"/>
+    </row>
+    <row r="110" spans="33:33" x14ac:dyDescent="0.25">
+      <c r="AG110" s="3"/>
+    </row>
+    <row r="111" spans="33:33" x14ac:dyDescent="0.25">
+      <c r="AG111" s="3"/>
+    </row>
+    <row r="112" spans="33:33" x14ac:dyDescent="0.25">
+      <c r="AG112" s="3"/>
+    </row>
+    <row r="113" spans="33:33" x14ac:dyDescent="0.25">
+      <c r="AG113" s="3"/>
+    </row>
+    <row r="114" spans="33:33" x14ac:dyDescent="0.25">
+      <c r="AG114" s="3"/>
+    </row>
+    <row r="115" spans="33:33" x14ac:dyDescent="0.25">
+      <c r="AG115" s="3"/>
+    </row>
+    <row r="116" spans="33:33" x14ac:dyDescent="0.25">
+      <c r="AG116" s="3"/>
+    </row>
+    <row r="117" spans="33:33" x14ac:dyDescent="0.25">
+      <c r="AG117" s="3"/>
+    </row>
+    <row r="118" spans="33:33" x14ac:dyDescent="0.25">
+      <c r="AG118" s="3"/>
+    </row>
+    <row r="119" spans="33:33" x14ac:dyDescent="0.25">
+      <c r="AG119" s="3"/>
+    </row>
+    <row r="120" spans="33:33" x14ac:dyDescent="0.25">
+      <c r="AG120" s="3"/>
+    </row>
+    <row r="121" spans="33:33" x14ac:dyDescent="0.25">
+      <c r="AG121" s="3"/>
+    </row>
+    <row r="122" spans="33:33" x14ac:dyDescent="0.25">
+      <c r="AG122" s="3"/>
+    </row>
+    <row r="123" spans="33:33" x14ac:dyDescent="0.25">
+      <c r="AG123" s="3"/>
+    </row>
+    <row r="124" spans="33:33" x14ac:dyDescent="0.25">
+      <c r="AG124" s="3"/>
+    </row>
+    <row r="125" spans="33:33" x14ac:dyDescent="0.25">
+      <c r="AG125" s="3"/>
+    </row>
+    <row r="126" spans="33:33" x14ac:dyDescent="0.25">
+      <c r="AG126" s="3"/>
+    </row>
+    <row r="127" spans="33:33" x14ac:dyDescent="0.25">
+      <c r="AG127" s="3"/>
+    </row>
+    <row r="128" spans="33:33" x14ac:dyDescent="0.25">
+      <c r="AG128" s="3"/>
+    </row>
+    <row r="129" spans="33:33" x14ac:dyDescent="0.25">
+      <c r="AG129" s="3"/>
+    </row>
+    <row r="130" spans="33:33" x14ac:dyDescent="0.25">
+      <c r="AG130" s="3"/>
+    </row>
+    <row r="131" spans="33:33" x14ac:dyDescent="0.25">
+      <c r="AG131" s="3"/>
+    </row>
+    <row r="132" spans="33:33" x14ac:dyDescent="0.25">
+      <c r="AG132" s="3"/>
+    </row>
+    <row r="133" spans="33:33" x14ac:dyDescent="0.25">
+      <c r="AG133" s="3"/>
+    </row>
+    <row r="134" spans="33:33" x14ac:dyDescent="0.25">
+      <c r="AG134" s="3"/>
+    </row>
+    <row r="135" spans="33:33" x14ac:dyDescent="0.25">
+      <c r="AG135" s="3"/>
+    </row>
+    <row r="136" spans="33:33" x14ac:dyDescent="0.25">
+      <c r="AG136" s="3"/>
+    </row>
+    <row r="137" spans="33:33" x14ac:dyDescent="0.25">
+      <c r="AG137" s="3"/>
+    </row>
+    <row r="138" spans="33:33" x14ac:dyDescent="0.25">
+      <c r="AG138" s="3"/>
+    </row>
+    <row r="139" spans="33:33" x14ac:dyDescent="0.25">
+      <c r="AG139" s="3"/>
+    </row>
+    <row r="140" spans="33:33" x14ac:dyDescent="0.25">
+      <c r="AG140" s="3"/>
+    </row>
+    <row r="141" spans="33:33" x14ac:dyDescent="0.25">
+      <c r="AG141" s="3"/>
+    </row>
+    <row r="142" spans="33:33" x14ac:dyDescent="0.25">
+      <c r="AG142" s="3"/>
+    </row>
+    <row r="143" spans="33:33" x14ac:dyDescent="0.25">
+      <c r="AG143" s="3"/>
+    </row>
+    <row r="144" spans="33:33" x14ac:dyDescent="0.25">
+      <c r="AG144" s="3"/>
+    </row>
+    <row r="145" spans="33:33" x14ac:dyDescent="0.25">
+      <c r="AG145" s="3"/>
+    </row>
+    <row r="146" spans="33:33" x14ac:dyDescent="0.25">
+      <c r="AG146" s="3"/>
+    </row>
+    <row r="147" spans="33:33" x14ac:dyDescent="0.25">
+      <c r="AG147" s="3"/>
+    </row>
+    <row r="148" spans="33:33" x14ac:dyDescent="0.25">
+      <c r="AG148" s="3"/>
+    </row>
+    <row r="149" spans="33:33" x14ac:dyDescent="0.25">
+      <c r="AG149" s="3"/>
+    </row>
+    <row r="150" spans="33:33" x14ac:dyDescent="0.25">
+      <c r="AG150" s="3"/>
+    </row>
+    <row r="151" spans="33:33" x14ac:dyDescent="0.25">
+      <c r="AG151" s="3"/>
+    </row>
+    <row r="152" spans="33:33" x14ac:dyDescent="0.25">
+      <c r="AG152" s="3"/>
+    </row>
+    <row r="153" spans="33:33" x14ac:dyDescent="0.25">
+      <c r="AG153" s="3"/>
+    </row>
+    <row r="154" spans="33:33" x14ac:dyDescent="0.25">
+      <c r="AG154" s="3"/>
+    </row>
+    <row r="155" spans="33:33" x14ac:dyDescent="0.25">
+      <c r="AG155" s="3"/>
+    </row>
+    <row r="156" spans="33:33" x14ac:dyDescent="0.25">
+      <c r="AG156" s="3"/>
+    </row>
+    <row r="157" spans="33:33" x14ac:dyDescent="0.25">
+      <c r="AG157" s="3"/>
+    </row>
+    <row r="158" spans="33:33" x14ac:dyDescent="0.25">
+      <c r="AG158" s="3"/>
+    </row>
+    <row r="159" spans="33:33" x14ac:dyDescent="0.25">
+      <c r="AG159" s="3"/>
+    </row>
+    <row r="160" spans="33:33" x14ac:dyDescent="0.25">
+      <c r="AG160" s="3"/>
+    </row>
+    <row r="161" spans="33:33" x14ac:dyDescent="0.25">
+      <c r="AG161" s="3"/>
+    </row>
+    <row r="162" spans="33:33" x14ac:dyDescent="0.25">
+      <c r="AG162" s="3"/>
+    </row>
+    <row r="163" spans="33:33" x14ac:dyDescent="0.25">
+      <c r="AG163" s="3"/>
+    </row>
+    <row r="164" spans="33:33" x14ac:dyDescent="0.25">
+      <c r="AG164" s="3"/>
+    </row>
+    <row r="165" spans="33:33" x14ac:dyDescent="0.25">
+      <c r="AG165" s="3"/>
+    </row>
+    <row r="166" spans="33:33" x14ac:dyDescent="0.25">
+      <c r="AG166" s="3"/>
+    </row>
+    <row r="167" spans="33:33" x14ac:dyDescent="0.25">
+      <c r="AG167" s="3"/>
+    </row>
+    <row r="168" spans="33:33" x14ac:dyDescent="0.25">
+      <c r="AG168" s="3"/>
+    </row>
+    <row r="169" spans="33:33" x14ac:dyDescent="0.25">
+      <c r="AG169" s="3"/>
+    </row>
+    <row r="170" spans="33:33" x14ac:dyDescent="0.25">
+      <c r="AG170" s="3"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1588DABD-649C-440E-B3E7-F4DCE1430BE3}">
+  <dimension ref="A1:AZ170"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="K10" sqref="K10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="6" max="6" width="9.140625" style="8"/>
+    <col min="32" max="32" width="9.140625" style="9"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1" t="s">
+        <v>193</v>
+      </c>
       <c r="C1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D1" t="s">
         <v>39</v>
       </c>
-      <c r="D1" t="s">
-        <v>95</v>
-      </c>
       <c r="E1" t="s">
+        <v>93</v>
+      </c>
+      <c r="F1" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>40</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>41</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>42</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>43</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>44</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>45</v>
       </c>
-      <c r="L1" t="s">
-        <v>81</v>
-      </c>
       <c r="M1" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="N1" t="s">
+        <v>80</v>
+      </c>
+      <c r="O1" t="s">
         <v>46</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q1" s="6" t="s">
+        <v>191</v>
+      </c>
+      <c r="R1" s="6" t="s">
+        <v>192</v>
+      </c>
+      <c r="S1" t="s">
         <v>47</v>
       </c>
-      <c r="P1" t="s">
+      <c r="T1" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="U1" t="s">
+        <v>189</v>
+      </c>
+      <c r="V1" t="s">
         <v>48</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="W1" t="s">
         <v>49</v>
       </c>
-      <c r="R1" t="s">
+      <c r="X1" t="s">
         <v>50</v>
       </c>
-      <c r="S1" t="s">
+      <c r="Y1" t="s">
         <v>51</v>
       </c>
-      <c r="T1" t="s">
+      <c r="Z1" t="s">
         <v>52</v>
       </c>
-      <c r="U1" t="s">
+      <c r="AA1" t="s">
         <v>53</v>
       </c>
-      <c r="V1" t="s">
-        <v>92</v>
-      </c>
-      <c r="W1" t="s">
+      <c r="AB1" t="s">
+        <v>90</v>
+      </c>
+      <c r="AC1" t="s">
         <v>54</v>
       </c>
-      <c r="X1" t="s">
+      <c r="AD1" t="s">
         <v>55</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="AE1" t="s">
         <v>56</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AF1" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AG1" t="s">
         <v>58</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AH1" t="s">
         <v>59</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AI1" t="s">
         <v>60</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AJ1" t="s">
         <v>61</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AK1" t="s">
         <v>62</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AL1" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="AM1" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="AN1" t="s">
         <v>63</v>
       </c>
-      <c r="AG1" t="s">
+      <c r="AO1" t="s">
         <v>64</v>
       </c>
-      <c r="AH1" t="s">
+      <c r="AP1" t="s">
         <v>65</v>
       </c>
-      <c r="AI1" t="s">
+      <c r="AQ1" t="s">
         <v>66</v>
       </c>
-      <c r="AJ1" t="s">
+      <c r="AR1" t="s">
         <v>67</v>
       </c>
-      <c r="AK1" t="s">
+      <c r="AS1" t="s">
         <v>68</v>
       </c>
-      <c r="AL1" t="s">
+      <c r="AT1" t="s">
         <v>69</v>
       </c>
-      <c r="AM1" t="s">
+      <c r="AU1" t="s">
         <v>70</v>
       </c>
-      <c r="AN1" t="s">
+      <c r="AV1" t="s">
         <v>71</v>
       </c>
-      <c r="AO1" t="s">
+      <c r="AW1" t="s">
         <v>72</v>
       </c>
-      <c r="AP1" t="s">
+      <c r="AX1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AY1" t="s">
         <v>74</v>
       </c>
-      <c r="AQ1" t="s">
+      <c r="AZ1" t="s">
         <v>75</v>
       </c>
-      <c r="AR1" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="51" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B51" t="s">
-        <v>73</v>
-      </c>
+    </row>
+    <row r="2" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>186</v>
+      </c>
+      <c r="B2" t="s">
+        <v>202</v>
+      </c>
+      <c r="D2" t="s">
+        <v>203</v>
+      </c>
+      <c r="F2" s="8">
+        <v>50</v>
+      </c>
+      <c r="K2">
+        <v>1847</v>
+      </c>
+      <c r="L2">
+        <v>6</v>
+      </c>
+      <c r="O2" t="s">
+        <v>187</v>
+      </c>
+      <c r="S2" s="1"/>
+      <c r="AF2" s="9">
+        <v>20</v>
+      </c>
+      <c r="AG2">
+        <v>3</v>
+      </c>
+      <c r="AL2" s="3">
+        <v>1</v>
+      </c>
+      <c r="AM2" s="3">
+        <v>0</v>
+      </c>
+      <c r="AN2">
+        <v>0</v>
+      </c>
+      <c r="AY2" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="3" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>186</v>
+      </c>
+      <c r="B3" t="s">
+        <v>204</v>
+      </c>
+      <c r="F3" s="8">
+        <v>50</v>
+      </c>
+      <c r="K3">
+        <v>1847</v>
+      </c>
+      <c r="L3">
+        <v>6</v>
+      </c>
+      <c r="O3" t="s">
+        <v>187</v>
+      </c>
+      <c r="AF3" s="9">
+        <v>21</v>
+      </c>
+      <c r="AG3">
+        <v>3</v>
+      </c>
+      <c r="AL3">
+        <v>0</v>
+      </c>
+      <c r="AM3" s="3">
+        <v>0</v>
+      </c>
+      <c r="AN3">
+        <v>0</v>
+      </c>
+      <c r="AX3" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="4" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>186</v>
+      </c>
+      <c r="B4" t="s">
+        <v>205</v>
+      </c>
+      <c r="D4" t="s">
+        <v>203</v>
+      </c>
+      <c r="K4">
+        <v>1856</v>
+      </c>
+      <c r="L4">
+        <v>4</v>
+      </c>
+      <c r="O4" t="s">
+        <v>187</v>
+      </c>
+      <c r="AF4" s="9">
+        <v>28.8</v>
+      </c>
+      <c r="AG4">
+        <v>3</v>
+      </c>
+      <c r="AL4">
+        <v>1</v>
+      </c>
+      <c r="AM4" s="3">
+        <v>0</v>
+      </c>
+      <c r="AN4">
+        <v>0</v>
+      </c>
+      <c r="AY4" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="5" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>186</v>
+      </c>
+      <c r="B5" t="s">
+        <v>206</v>
+      </c>
+      <c r="K5">
+        <v>1856</v>
+      </c>
+      <c r="L5">
+        <v>4</v>
+      </c>
+      <c r="O5" t="s">
+        <v>187</v>
+      </c>
+      <c r="AF5" s="9">
+        <v>29</v>
+      </c>
+      <c r="AG5">
+        <v>3</v>
+      </c>
+      <c r="AL5">
+        <v>0</v>
+      </c>
+      <c r="AM5" s="3">
+        <v>0</v>
+      </c>
+      <c r="AN5">
+        <v>0</v>
+      </c>
+      <c r="AX5" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="6" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>186</v>
+      </c>
+      <c r="B6" t="s">
+        <v>207</v>
+      </c>
+      <c r="D6" t="s">
+        <v>208</v>
+      </c>
+      <c r="K6">
+        <v>1856</v>
+      </c>
+      <c r="L6">
+        <v>4</v>
+      </c>
+      <c r="O6" t="s">
+        <v>187</v>
+      </c>
+      <c r="AF6" s="9">
+        <v>29.5</v>
+      </c>
+      <c r="AG6">
+        <v>3</v>
+      </c>
+      <c r="AL6">
+        <v>1</v>
+      </c>
+      <c r="AM6" s="3">
+        <v>0</v>
+      </c>
+      <c r="AN6">
+        <v>0</v>
+      </c>
+      <c r="AY6" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="7" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>186</v>
+      </c>
+      <c r="B7" t="s">
+        <v>209</v>
+      </c>
+      <c r="D7" t="s">
+        <v>208</v>
+      </c>
+      <c r="K7">
+        <v>1856</v>
+      </c>
+      <c r="L7">
+        <v>4</v>
+      </c>
+      <c r="O7" t="s">
+        <v>187</v>
+      </c>
+      <c r="AF7" s="9">
+        <v>25.9</v>
+      </c>
+      <c r="AG7">
+        <v>3</v>
+      </c>
+      <c r="AL7">
+        <v>1</v>
+      </c>
+      <c r="AM7" s="3">
+        <v>0</v>
+      </c>
+      <c r="AN7">
+        <v>0</v>
+      </c>
+      <c r="AY7" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="8" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>186</v>
+      </c>
+      <c r="B8" t="s">
+        <v>211</v>
+      </c>
+      <c r="D8" t="s">
+        <v>208</v>
+      </c>
+      <c r="K8">
+        <v>1858</v>
+      </c>
+      <c r="L8" t="s">
+        <v>213</v>
+      </c>
+      <c r="O8" t="s">
+        <v>187</v>
+      </c>
+      <c r="AF8" s="9">
+        <v>22.6</v>
+      </c>
+      <c r="AG8">
+        <v>3</v>
+      </c>
+      <c r="AL8">
+        <v>1</v>
+      </c>
+      <c r="AM8" s="3">
+        <v>0</v>
+      </c>
+      <c r="AN8">
+        <v>0</v>
+      </c>
+      <c r="AY8" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="9" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>186</v>
+      </c>
+      <c r="B9" t="s">
+        <v>212</v>
+      </c>
+      <c r="K9">
+        <v>1858</v>
+      </c>
+      <c r="L9" t="s">
+        <v>213</v>
+      </c>
+      <c r="O9" t="s">
+        <v>187</v>
+      </c>
+      <c r="AF9" s="9">
+        <v>27.7</v>
+      </c>
+      <c r="AG9">
+        <v>3</v>
+      </c>
+      <c r="AL9">
+        <v>0</v>
+      </c>
+      <c r="AM9" s="3">
+        <v>0</v>
+      </c>
+      <c r="AN9">
+        <v>0</v>
+      </c>
+      <c r="AX9" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="10" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>186</v>
+      </c>
+      <c r="B10" t="s">
+        <v>214</v>
+      </c>
+      <c r="D10" t="s">
+        <v>208</v>
+      </c>
+      <c r="F10" s="8">
+        <v>100</v>
+      </c>
+      <c r="O10" t="s">
+        <v>187</v>
+      </c>
+      <c r="AM10" s="3"/>
+    </row>
+    <row r="11" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>186</v>
+      </c>
+      <c r="O11" t="s">
+        <v>187</v>
+      </c>
+      <c r="AM11" s="3"/>
+    </row>
+    <row r="12" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>186</v>
+      </c>
+      <c r="O12" t="s">
+        <v>187</v>
+      </c>
+      <c r="AM12" s="3"/>
+    </row>
+    <row r="13" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>186</v>
+      </c>
+      <c r="O13" t="s">
+        <v>187</v>
+      </c>
+      <c r="AM13" s="3"/>
+    </row>
+    <row r="14" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>186</v>
+      </c>
+      <c r="O14" t="s">
+        <v>187</v>
+      </c>
+      <c r="AM14" s="3"/>
+    </row>
+    <row r="15" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>186</v>
+      </c>
+      <c r="O15" t="s">
+        <v>187</v>
+      </c>
+      <c r="AM15" s="3"/>
+    </row>
+    <row r="16" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>186</v>
+      </c>
+      <c r="O16" t="s">
+        <v>187</v>
+      </c>
+      <c r="AM16" s="3"/>
+    </row>
+    <row r="17" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>186</v>
+      </c>
+      <c r="O17" t="s">
+        <v>187</v>
+      </c>
+      <c r="AM17" s="3"/>
+    </row>
+    <row r="18" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>186</v>
+      </c>
+      <c r="O18" t="s">
+        <v>187</v>
+      </c>
+      <c r="AM18" s="3"/>
+    </row>
+    <row r="19" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>186</v>
+      </c>
+      <c r="AM19" s="3"/>
+    </row>
+    <row r="20" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>186</v>
+      </c>
+      <c r="AM20" s="3"/>
+    </row>
+    <row r="21" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>186</v>
+      </c>
+      <c r="AM21" s="3"/>
+    </row>
+    <row r="22" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>186</v>
+      </c>
+      <c r="AM22" s="3"/>
+    </row>
+    <row r="23" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>186</v>
+      </c>
+      <c r="AM23" s="3"/>
+    </row>
+    <row r="24" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>186</v>
+      </c>
+      <c r="AM24" s="3"/>
+    </row>
+    <row r="25" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>186</v>
+      </c>
+      <c r="AM25" s="3"/>
+    </row>
+    <row r="26" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>186</v>
+      </c>
+      <c r="AM26" s="3"/>
+    </row>
+    <row r="27" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>186</v>
+      </c>
+      <c r="AM27" s="3"/>
+    </row>
+    <row r="28" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>186</v>
+      </c>
+      <c r="AM28" s="3"/>
+    </row>
+    <row r="29" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>186</v>
+      </c>
+      <c r="AM29" s="3"/>
+    </row>
+    <row r="30" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>186</v>
+      </c>
+      <c r="AM30" s="3"/>
+    </row>
+    <row r="31" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>186</v>
+      </c>
+      <c r="AM31" s="3"/>
+    </row>
+    <row r="32" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>186</v>
+      </c>
+      <c r="AM32" s="3"/>
+    </row>
+    <row r="33" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>186</v>
+      </c>
+      <c r="AM33" s="3"/>
+    </row>
+    <row r="34" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>186</v>
+      </c>
+      <c r="AM34" s="3"/>
+    </row>
+    <row r="35" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>186</v>
+      </c>
+      <c r="AM35" s="3"/>
+    </row>
+    <row r="36" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>186</v>
+      </c>
+      <c r="AM36" s="3"/>
+    </row>
+    <row r="37" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>186</v>
+      </c>
+      <c r="AM37" s="3"/>
+    </row>
+    <row r="38" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>186</v>
+      </c>
+      <c r="AM38" s="3"/>
+    </row>
+    <row r="39" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>186</v>
+      </c>
+      <c r="AM39" s="3"/>
+    </row>
+    <row r="40" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>186</v>
+      </c>
+      <c r="AM40" s="3"/>
+    </row>
+    <row r="41" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>186</v>
+      </c>
+      <c r="AM41" s="3"/>
+    </row>
+    <row r="42" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>186</v>
+      </c>
+      <c r="AM42" s="3"/>
+    </row>
+    <row r="43" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>186</v>
+      </c>
+      <c r="AM43" s="3"/>
+    </row>
+    <row r="44" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>186</v>
+      </c>
+      <c r="AM44" s="3"/>
+    </row>
+    <row r="45" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>186</v>
+      </c>
+      <c r="AM45" s="3"/>
+    </row>
+    <row r="46" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>186</v>
+      </c>
+      <c r="AM46" s="3"/>
+    </row>
+    <row r="47" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>186</v>
+      </c>
+      <c r="AM47" s="3"/>
+    </row>
+    <row r="48" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>186</v>
+      </c>
+      <c r="AM48" s="3"/>
+    </row>
+    <row r="49" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>186</v>
+      </c>
+      <c r="AM49" s="3"/>
+    </row>
+    <row r="50" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>186</v>
+      </c>
+      <c r="AM50" s="3"/>
+    </row>
+    <row r="51" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>186</v>
+      </c>
+      <c r="AM51" s="3"/>
+    </row>
+    <row r="52" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>186</v>
+      </c>
+      <c r="AM52" s="3"/>
+    </row>
+    <row r="53" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>186</v>
+      </c>
+      <c r="AM53" s="3"/>
+    </row>
+    <row r="54" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>186</v>
+      </c>
+      <c r="AM54" s="3"/>
+    </row>
+    <row r="55" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>186</v>
+      </c>
+      <c r="AM55" s="3"/>
+    </row>
+    <row r="56" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>186</v>
+      </c>
+      <c r="AM56" s="3"/>
+    </row>
+    <row r="57" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>186</v>
+      </c>
+      <c r="AM57" s="3"/>
+    </row>
+    <row r="58" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>186</v>
+      </c>
+      <c r="AM58" s="3"/>
+    </row>
+    <row r="59" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>186</v>
+      </c>
+      <c r="AM59" s="3"/>
+    </row>
+    <row r="60" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>186</v>
+      </c>
+      <c r="AM60" s="3"/>
+    </row>
+    <row r="61" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="AM61" s="3"/>
+    </row>
+    <row r="62" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="AM62" s="3"/>
+    </row>
+    <row r="63" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="AM63" s="3"/>
+    </row>
+    <row r="64" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="AM64" s="3"/>
+    </row>
+    <row r="65" spans="39:39" x14ac:dyDescent="0.25">
+      <c r="AM65" s="3"/>
+    </row>
+    <row r="66" spans="39:39" x14ac:dyDescent="0.25">
+      <c r="AM66" s="3"/>
+    </row>
+    <row r="67" spans="39:39" x14ac:dyDescent="0.25">
+      <c r="AM67" s="3"/>
+    </row>
+    <row r="68" spans="39:39" x14ac:dyDescent="0.25">
+      <c r="AM68" s="3"/>
+    </row>
+    <row r="69" spans="39:39" x14ac:dyDescent="0.25">
+      <c r="AM69" s="3"/>
+    </row>
+    <row r="70" spans="39:39" x14ac:dyDescent="0.25">
+      <c r="AM70" s="3"/>
+    </row>
+    <row r="71" spans="39:39" x14ac:dyDescent="0.25">
+      <c r="AM71" s="3"/>
+    </row>
+    <row r="72" spans="39:39" x14ac:dyDescent="0.25">
+      <c r="AM72" s="3"/>
+    </row>
+    <row r="73" spans="39:39" x14ac:dyDescent="0.25">
+      <c r="AM73" s="3"/>
+    </row>
+    <row r="74" spans="39:39" x14ac:dyDescent="0.25">
+      <c r="AM74" s="3"/>
+    </row>
+    <row r="75" spans="39:39" x14ac:dyDescent="0.25">
+      <c r="AM75" s="3"/>
+    </row>
+    <row r="76" spans="39:39" x14ac:dyDescent="0.25">
+      <c r="AM76" s="3"/>
+    </row>
+    <row r="77" spans="39:39" x14ac:dyDescent="0.25">
+      <c r="AM77" s="3"/>
+    </row>
+    <row r="78" spans="39:39" x14ac:dyDescent="0.25">
+      <c r="AM78" s="3"/>
+    </row>
+    <row r="79" spans="39:39" x14ac:dyDescent="0.25">
+      <c r="AM79" s="3"/>
+    </row>
+    <row r="80" spans="39:39" x14ac:dyDescent="0.25">
+      <c r="AM80" s="3"/>
+    </row>
+    <row r="81" spans="39:39" x14ac:dyDescent="0.25">
+      <c r="AM81" s="3"/>
+    </row>
+    <row r="82" spans="39:39" x14ac:dyDescent="0.25">
+      <c r="AM82" s="3"/>
+    </row>
+    <row r="83" spans="39:39" x14ac:dyDescent="0.25">
+      <c r="AM83" s="3"/>
+    </row>
+    <row r="84" spans="39:39" x14ac:dyDescent="0.25">
+      <c r="AM84" s="3"/>
+    </row>
+    <row r="85" spans="39:39" x14ac:dyDescent="0.25">
+      <c r="AM85" s="3"/>
+    </row>
+    <row r="86" spans="39:39" x14ac:dyDescent="0.25">
+      <c r="AM86" s="3"/>
+    </row>
+    <row r="87" spans="39:39" x14ac:dyDescent="0.25">
+      <c r="AM87" s="3"/>
+    </row>
+    <row r="88" spans="39:39" x14ac:dyDescent="0.25">
+      <c r="AM88" s="3"/>
+    </row>
+    <row r="89" spans="39:39" x14ac:dyDescent="0.25">
+      <c r="AM89" s="3"/>
+    </row>
+    <row r="90" spans="39:39" x14ac:dyDescent="0.25">
+      <c r="AM90" s="3"/>
+    </row>
+    <row r="91" spans="39:39" x14ac:dyDescent="0.25">
+      <c r="AM91" s="3"/>
+    </row>
+    <row r="92" spans="39:39" x14ac:dyDescent="0.25">
+      <c r="AM92" s="3"/>
+    </row>
+    <row r="93" spans="39:39" x14ac:dyDescent="0.25">
+      <c r="AM93" s="3"/>
+    </row>
+    <row r="94" spans="39:39" x14ac:dyDescent="0.25">
+      <c r="AM94" s="3"/>
+    </row>
+    <row r="95" spans="39:39" x14ac:dyDescent="0.25">
+      <c r="AM95" s="3"/>
+    </row>
+    <row r="96" spans="39:39" x14ac:dyDescent="0.25">
+      <c r="AM96" s="3"/>
+    </row>
+    <row r="97" spans="39:39" x14ac:dyDescent="0.25">
+      <c r="AM97" s="3"/>
+    </row>
+    <row r="98" spans="39:39" x14ac:dyDescent="0.25">
+      <c r="AM98" s="3"/>
+    </row>
+    <row r="99" spans="39:39" x14ac:dyDescent="0.25">
+      <c r="AM99" s="3"/>
+    </row>
+    <row r="100" spans="39:39" x14ac:dyDescent="0.25">
+      <c r="AM100" s="3"/>
+    </row>
+    <row r="101" spans="39:39" x14ac:dyDescent="0.25">
+      <c r="AM101" s="3"/>
+    </row>
+    <row r="102" spans="39:39" x14ac:dyDescent="0.25">
+      <c r="AM102" s="3"/>
+    </row>
+    <row r="103" spans="39:39" x14ac:dyDescent="0.25">
+      <c r="AM103" s="3"/>
+    </row>
+    <row r="104" spans="39:39" x14ac:dyDescent="0.25">
+      <c r="AM104" s="3"/>
+    </row>
+    <row r="105" spans="39:39" x14ac:dyDescent="0.25">
+      <c r="AM105" s="3"/>
+    </row>
+    <row r="106" spans="39:39" x14ac:dyDescent="0.25">
+      <c r="AM106" s="3"/>
+    </row>
+    <row r="107" spans="39:39" x14ac:dyDescent="0.25">
+      <c r="AM107" s="3"/>
+    </row>
+    <row r="108" spans="39:39" x14ac:dyDescent="0.25">
+      <c r="AM108" s="3"/>
+    </row>
+    <row r="109" spans="39:39" x14ac:dyDescent="0.25">
+      <c r="AM109" s="3"/>
+    </row>
+    <row r="110" spans="39:39" x14ac:dyDescent="0.25">
+      <c r="AM110" s="3"/>
+    </row>
+    <row r="111" spans="39:39" x14ac:dyDescent="0.25">
+      <c r="AM111" s="3"/>
+    </row>
+    <row r="112" spans="39:39" x14ac:dyDescent="0.25">
+      <c r="AM112" s="3"/>
+    </row>
+    <row r="113" spans="39:39" x14ac:dyDescent="0.25">
+      <c r="AM113" s="3"/>
+    </row>
+    <row r="114" spans="39:39" x14ac:dyDescent="0.25">
+      <c r="AM114" s="3"/>
+    </row>
+    <row r="115" spans="39:39" x14ac:dyDescent="0.25">
+      <c r="AM115" s="3"/>
+    </row>
+    <row r="116" spans="39:39" x14ac:dyDescent="0.25">
+      <c r="AM116" s="3"/>
+    </row>
+    <row r="117" spans="39:39" x14ac:dyDescent="0.25">
+      <c r="AM117" s="3"/>
+    </row>
+    <row r="118" spans="39:39" x14ac:dyDescent="0.25">
+      <c r="AM118" s="3"/>
+    </row>
+    <row r="119" spans="39:39" x14ac:dyDescent="0.25">
+      <c r="AM119" s="3"/>
+    </row>
+    <row r="120" spans="39:39" x14ac:dyDescent="0.25">
+      <c r="AM120" s="3"/>
+    </row>
+    <row r="121" spans="39:39" x14ac:dyDescent="0.25">
+      <c r="AM121" s="3"/>
+    </row>
+    <row r="122" spans="39:39" x14ac:dyDescent="0.25">
+      <c r="AM122" s="3"/>
+    </row>
+    <row r="123" spans="39:39" x14ac:dyDescent="0.25">
+      <c r="AM123" s="3"/>
+    </row>
+    <row r="124" spans="39:39" x14ac:dyDescent="0.25">
+      <c r="AM124" s="3"/>
+    </row>
+    <row r="125" spans="39:39" x14ac:dyDescent="0.25">
+      <c r="AM125" s="3"/>
+    </row>
+    <row r="126" spans="39:39" x14ac:dyDescent="0.25">
+      <c r="AM126" s="3"/>
+    </row>
+    <row r="127" spans="39:39" x14ac:dyDescent="0.25">
+      <c r="AM127" s="3"/>
+    </row>
+    <row r="128" spans="39:39" x14ac:dyDescent="0.25">
+      <c r="AM128" s="3"/>
+    </row>
+    <row r="129" spans="39:39" x14ac:dyDescent="0.25">
+      <c r="AM129" s="3"/>
+    </row>
+    <row r="130" spans="39:39" x14ac:dyDescent="0.25">
+      <c r="AM130" s="3"/>
+    </row>
+    <row r="131" spans="39:39" x14ac:dyDescent="0.25">
+      <c r="AM131" s="3"/>
+    </row>
+    <row r="132" spans="39:39" x14ac:dyDescent="0.25">
+      <c r="AM132" s="3"/>
+    </row>
+    <row r="133" spans="39:39" x14ac:dyDescent="0.25">
+      <c r="AM133" s="3"/>
+    </row>
+    <row r="134" spans="39:39" x14ac:dyDescent="0.25">
+      <c r="AM134" s="3"/>
+    </row>
+    <row r="135" spans="39:39" x14ac:dyDescent="0.25">
+      <c r="AM135" s="3"/>
+    </row>
+    <row r="136" spans="39:39" x14ac:dyDescent="0.25">
+      <c r="AM136" s="3"/>
+    </row>
+    <row r="137" spans="39:39" x14ac:dyDescent="0.25">
+      <c r="AM137" s="3"/>
+    </row>
+    <row r="138" spans="39:39" x14ac:dyDescent="0.25">
+      <c r="AM138" s="3"/>
+    </row>
+    <row r="139" spans="39:39" x14ac:dyDescent="0.25">
+      <c r="AM139" s="3"/>
+    </row>
+    <row r="140" spans="39:39" x14ac:dyDescent="0.25">
+      <c r="AM140" s="3"/>
+    </row>
+    <row r="141" spans="39:39" x14ac:dyDescent="0.25">
+      <c r="AM141" s="3"/>
+    </row>
+    <row r="142" spans="39:39" x14ac:dyDescent="0.25">
+      <c r="AM142" s="3"/>
+    </row>
+    <row r="143" spans="39:39" x14ac:dyDescent="0.25">
+      <c r="AM143" s="3"/>
+    </row>
+    <row r="144" spans="39:39" x14ac:dyDescent="0.25">
+      <c r="AM144" s="3"/>
+    </row>
+    <row r="145" spans="39:39" x14ac:dyDescent="0.25">
+      <c r="AM145" s="3"/>
+    </row>
+    <row r="146" spans="39:39" x14ac:dyDescent="0.25">
+      <c r="AM146" s="3"/>
+    </row>
+    <row r="147" spans="39:39" x14ac:dyDescent="0.25">
+      <c r="AM147" s="3"/>
+    </row>
+    <row r="148" spans="39:39" x14ac:dyDescent="0.25">
+      <c r="AM148" s="3"/>
+    </row>
+    <row r="149" spans="39:39" x14ac:dyDescent="0.25">
+      <c r="AM149" s="3"/>
+    </row>
+    <row r="150" spans="39:39" x14ac:dyDescent="0.25">
+      <c r="AM150" s="3"/>
+    </row>
+    <row r="151" spans="39:39" x14ac:dyDescent="0.25">
+      <c r="AM151" s="3"/>
+    </row>
+    <row r="152" spans="39:39" x14ac:dyDescent="0.25">
+      <c r="AM152" s="3"/>
+    </row>
+    <row r="153" spans="39:39" x14ac:dyDescent="0.25">
+      <c r="AM153" s="3"/>
+    </row>
+    <row r="154" spans="39:39" x14ac:dyDescent="0.25">
+      <c r="AM154" s="3"/>
+    </row>
+    <row r="155" spans="39:39" x14ac:dyDescent="0.25">
+      <c r="AM155" s="3"/>
+    </row>
+    <row r="156" spans="39:39" x14ac:dyDescent="0.25">
+      <c r="AM156" s="3"/>
+    </row>
+    <row r="157" spans="39:39" x14ac:dyDescent="0.25">
+      <c r="AM157" s="3"/>
+    </row>
+    <row r="158" spans="39:39" x14ac:dyDescent="0.25">
+      <c r="AM158" s="3"/>
+    </row>
+    <row r="159" spans="39:39" x14ac:dyDescent="0.25">
+      <c r="AM159" s="3"/>
+    </row>
+    <row r="160" spans="39:39" x14ac:dyDescent="0.25">
+      <c r="AM160" s="3"/>
+    </row>
+    <row r="161" spans="39:39" x14ac:dyDescent="0.25">
+      <c r="AM161" s="3"/>
+    </row>
+    <row r="162" spans="39:39" x14ac:dyDescent="0.25">
+      <c r="AM162" s="3"/>
+    </row>
+    <row r="163" spans="39:39" x14ac:dyDescent="0.25">
+      <c r="AM163" s="3"/>
+    </row>
+    <row r="164" spans="39:39" x14ac:dyDescent="0.25">
+      <c r="AM164" s="3"/>
+    </row>
+    <row r="165" spans="39:39" x14ac:dyDescent="0.25">
+      <c r="AM165" s="3"/>
+    </row>
+    <row r="166" spans="39:39" x14ac:dyDescent="0.25">
+      <c r="AM166" s="3"/>
+    </row>
+    <row r="167" spans="39:39" x14ac:dyDescent="0.25">
+      <c r="AM167" s="3"/>
+    </row>
+    <row r="168" spans="39:39" x14ac:dyDescent="0.25">
+      <c r="AM168" s="3"/>
+    </row>
+    <row r="169" spans="39:39" x14ac:dyDescent="0.25">
+      <c r="AM169" s="3"/>
+    </row>
+    <row r="170" spans="39:39" x14ac:dyDescent="0.25">
+      <c r="AM170" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Documentation/Danske Personvogne.xlsx
+++ b/Documentation/Danske Personvogne.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\1993m\Documents\GitHub\Pak128.Nordic\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BCE3149-ADDF-4395-89A3-A47181AAA69C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DFD8D23-BDCF-49C4-A78C-EE1D54EDF9AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,8 +26,210 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Matias Lq</author>
+  </authors>
+  <commentList>
+    <comment ref="AJ1" authorId="0" shapeId="0" xr:uid="{901C30F9-7F2F-471A-AF79-88397032F79E}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Matias Lq:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Korteste læssetid i sekunder</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AK1" authorId="0" shapeId="0" xr:uid="{E65A5847-EEF9-462E-ADEF-3A0842559F8F}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Matias Lq:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Længste læssetid i sekunder</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AL1" authorId="0" shapeId="0" xr:uid="{007E9BAF-1F00-4370-B1A6-E1CCE3B9954A}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Matias Lq:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Kupebredde i værre vogne end tredje klasse. Interne noter til komfortberegning</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AN1" authorId="0" shapeId="0" xr:uid="{7E5B0A94-2720-4BAE-AF26-6721810553FC}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Matias Lq:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Kupebredde i tredje klasse. Interne noter til komfortberegning</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AP1" authorId="0" shapeId="0" xr:uid="{7D650604-0391-429E-9398-B97518C5E238}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Matias Lq:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Kupebredde i anden klasse. Interne noter til komfortberegning</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AR1" authorId="0" shapeId="0" xr:uid="{E3E7CEF1-B31A-488D-8A6D-D2FDF974E1EB}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Matias Lq:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Kupebredde i første klasse. Interne noter til komfortberegning</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AT1" authorId="0" shapeId="0" xr:uid="{40E0CE28-E55E-4AC5-90D1-A390769A050A}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Matias Lq:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Kupebredde i bedre vogne end første klasse. Interne noter til komfortberegning</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B14" authorId="0" shapeId="0" xr:uid="{64CC9EB9-C08E-4BCB-8262-9BE4561F0E17}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Matias Lq:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Skovvogn. Åbne vognsider, lav komfort</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="481" uniqueCount="218">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="804" uniqueCount="292">
   <si>
     <t>name=BR-390FrontCab</t>
   </si>
@@ -704,18 +906,243 @@
     <t>SJS Db</t>
   </si>
   <si>
-    <t>SJS Ab</t>
+    <t>size[0]</t>
+  </si>
+  <si>
+    <t>size[1]</t>
+  </si>
+  <si>
+    <t>size[2]</t>
+  </si>
+  <si>
+    <t>size[3]</t>
+  </si>
+  <si>
+    <t>size[4]</t>
+  </si>
+  <si>
+    <t>Bremsetype?</t>
+  </si>
+  <si>
+    <t>skruebrems</t>
+  </si>
+  <si>
+    <t>SJS Jb</t>
+  </si>
+  <si>
+    <t>??</t>
+  </si>
+  <si>
+    <t>1500mm?</t>
+  </si>
+  <si>
+    <t>SJS Da (I)</t>
+  </si>
+  <si>
+    <t>SJS Da (II)</t>
+  </si>
+  <si>
+    <t>SJS Cc</t>
+  </si>
+  <si>
+    <t>SJS Ab (I)</t>
+  </si>
+  <si>
+    <t>SJS Ab (II)</t>
+  </si>
+  <si>
+    <t>wc</t>
+  </si>
+  <si>
+    <t>SJS Bc</t>
+  </si>
+  <si>
+    <t>SJS Cd</t>
+  </si>
+  <si>
+    <t>SJS Ce</t>
+  </si>
+  <si>
+    <t>SJS Ac</t>
+  </si>
+  <si>
+    <t>JFJ A</t>
+  </si>
+  <si>
+    <t>÷</t>
+  </si>
+  <si>
+    <t>JFJ C</t>
+  </si>
+  <si>
+    <t>JFJ M(I)</t>
+  </si>
+  <si>
+    <t>JFJ M (II)</t>
+  </si>
+  <si>
+    <t>JFJ N</t>
+  </si>
+  <si>
+    <t>JFJ T</t>
+  </si>
+  <si>
+    <t>JFJ AC</t>
+  </si>
+  <si>
+    <t>DSB:</t>
+  </si>
+  <si>
+    <t>AD</t>
+  </si>
+  <si>
+    <t>vakuum</t>
+  </si>
+  <si>
+    <t>BF</t>
+  </si>
+  <si>
+    <t>CB</t>
+  </si>
+  <si>
+    <t>CJ</t>
+  </si>
+  <si>
+    <t>AA</t>
+  </si>
+  <si>
+    <t>BN</t>
+  </si>
+  <si>
+    <t>CK (I)</t>
+  </si>
+  <si>
+    <t>wc til nogle</t>
+  </si>
+  <si>
+    <t>CK (II)</t>
+  </si>
+  <si>
+    <t>CP</t>
+  </si>
+  <si>
+    <t>CL</t>
+  </si>
+  <si>
+    <t>mg</t>
+  </si>
+  <si>
+    <t>AM (III)</t>
+  </si>
+  <si>
+    <t>CM (VI)</t>
+  </si>
+  <si>
+    <t>BM (I)</t>
+  </si>
+  <si>
+    <t>AM (II)</t>
+  </si>
+  <si>
+    <t>AS</t>
+  </si>
+  <si>
+    <t>AN (I)</t>
+  </si>
+  <si>
+    <t>BM (III)</t>
+  </si>
+  <si>
+    <t>BP (I)</t>
+  </si>
+  <si>
+    <t>CM (I)</t>
+  </si>
+  <si>
+    <t>BL (IV)</t>
+  </si>
+  <si>
+    <t>BR (I)</t>
+  </si>
+  <si>
+    <t>CF (III)</t>
+  </si>
+  <si>
+    <t>AT (III)</t>
+  </si>
+  <si>
+    <t>CT (I)</t>
+  </si>
+  <si>
+    <t>passagiere &amp; post</t>
+  </si>
+  <si>
+    <t>BC (II)</t>
+  </si>
+  <si>
+    <t>BD (III)</t>
+  </si>
+  <si>
+    <t>CC (II)</t>
+  </si>
+  <si>
+    <t>BB (II)</t>
+  </si>
+  <si>
+    <t>BE (V)</t>
+  </si>
+  <si>
+    <t>BP (II)</t>
+  </si>
+  <si>
+    <t>CM (IV)</t>
+  </si>
+  <si>
+    <t>AR (II)</t>
+  </si>
+  <si>
+    <t>2100mm?</t>
+  </si>
+  <si>
+    <t>FA</t>
+  </si>
+  <si>
+    <t>MA</t>
+  </si>
+  <si>
+    <t>FB</t>
+  </si>
+  <si>
+    <t>MC</t>
+  </si>
+  <si>
+    <t>FC</t>
+  </si>
+  <si>
+    <t>MA/MC/ME/MF/lok</t>
+  </si>
+  <si>
+    <t>FD</t>
+  </si>
+  <si>
+    <t>FE</t>
+  </si>
+  <si>
+    <t>FF</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
-    <numFmt numFmtId="171" formatCode="0&quot; km/t&quot;"/>
-    <numFmt numFmtId="173" formatCode="0.0&quot; t&quot;"/>
+  <numFmts count="5">
+    <numFmt numFmtId="164" formatCode="0&quot; km/t&quot;"/>
+    <numFmt numFmtId="165" formatCode="0.0&quot; t&quot;"/>
+    <numFmt numFmtId="167" formatCode="0&quot; kg&quot;"/>
+    <numFmt numFmtId="168" formatCode="0&quot; pax&quot;"/>
+    <numFmt numFmtId="169" formatCode="0&quot; mm&quot;"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -739,6 +1166,32 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -761,26 +1214,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="173" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Link" xfId="1" builtinId="8"/>
@@ -1243,7 +1695,7 @@
       <c r="C17" t="s">
         <v>128</v>
       </c>
-      <c r="R17" s="5" t="s">
+      <c r="R17" s="4" t="s">
         <v>184</v>
       </c>
     </row>
@@ -1257,7 +1709,7 @@
       <c r="C18" t="s">
         <v>129</v>
       </c>
-      <c r="R18" s="5" t="s">
+      <c r="R18" s="4" t="s">
         <v>183</v>
       </c>
     </row>
@@ -1398,7 +1850,7 @@
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" s="3" t="s">
+      <c r="A34" s="1" t="s">
         <v>110</v>
       </c>
       <c r="B34" t="s">
@@ -1409,7 +1861,7 @@
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" s="3" t="s">
+      <c r="A35" s="1" t="s">
         <v>111</v>
       </c>
       <c r="B35" t="s">
@@ -1423,7 +1875,7 @@
       <c r="A36" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C36" s="4" t="s">
+      <c r="C36" s="3" t="s">
         <v>114</v>
       </c>
     </row>
@@ -1439,26 +1891,26 @@
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" s="3" t="s">
+      <c r="A38" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="C38" s="4" t="s">
+      <c r="C38" s="3" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" s="3" t="s">
+      <c r="A39" s="1" t="s">
         <v>134</v>
       </c>
       <c r="B39" t="s">
         <v>188</v>
       </c>
-      <c r="C39" s="4" t="s">
+      <c r="C39" s="3" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40" s="3" t="s">
+      <c r="A40" s="1" t="s">
         <v>136</v>
       </c>
       <c r="B40" t="s">
@@ -1469,13 +1921,13 @@
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41" s="3" t="s">
+      <c r="A41" s="1" t="s">
         <v>138</v>
       </c>
       <c r="B41" t="s">
         <v>188</v>
       </c>
-      <c r="C41" s="4" t="s">
+      <c r="C41" s="3" t="s">
         <v>139</v>
       </c>
     </row>
@@ -1491,7 +1943,7 @@
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A43" s="3" t="s">
+      <c r="A43" s="1" t="s">
         <v>142</v>
       </c>
       <c r="B43" t="s">
@@ -1784,7 +2236,7 @@
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A80" s="3" t="s">
+      <c r="A80" s="1" t="s">
         <v>175</v>
       </c>
       <c r="C80" t="s">
@@ -1801,21 +2253,31 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AS170"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:AX170"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C39" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="O67" sqref="O67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="9.140625" style="8"/>
-    <col min="14" max="14" width="9.140625" style="10"/>
-    <col min="27" max="27" width="9.140625" style="9"/>
+    <col min="4" max="4" width="9.140625" style="6"/>
+    <col min="16" max="16" width="9.140625" style="8"/>
+    <col min="17" max="22" width="9.140625" style="9"/>
+    <col min="28" max="28" width="9.140625" style="7"/>
+    <col min="35" max="35" width="3.5703125" customWidth="1"/>
+    <col min="38" max="38" width="9.140625" style="11"/>
+    <col min="40" max="40" width="9.140625" style="11"/>
+    <col min="42" max="42" width="9.140625" style="11"/>
+    <col min="44" max="44" width="9.85546875" style="11" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="9.140625" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>36</v>
       </c>
@@ -1825,7 +2287,7 @@
       <c r="C1" t="s">
         <v>37</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="6" t="s">
         <v>38</v>
       </c>
       <c r="E1" t="s">
@@ -1846,40 +2308,40 @@
       <c r="J1" t="s">
         <v>46</v>
       </c>
-      <c r="K1" s="7" t="s">
+      <c r="K1" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="L1" s="6" t="s">
+      <c r="L1" s="5" t="s">
         <v>191</v>
       </c>
-      <c r="M1" s="6" t="s">
+      <c r="M1" s="5" t="s">
         <v>192</v>
       </c>
-      <c r="N1" s="10" t="s">
+      <c r="N1" t="s">
         <v>47</v>
       </c>
-      <c r="O1" s="6" t="s">
+      <c r="O1" s="5" t="s">
         <v>131</v>
       </c>
-      <c r="P1" t="s">
+      <c r="P1" s="8" t="s">
         <v>189</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="Q1" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="R1" t="s">
+      <c r="R1" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="S1" t="s">
+      <c r="S1" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="T1" t="s">
+      <c r="T1" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="U1" t="s">
+      <c r="U1" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="V1" t="s">
+      <c r="V1" s="9" t="s">
         <v>53</v>
       </c>
       <c r="W1" t="s">
@@ -1889,37 +2351,37 @@
         <v>54</v>
       </c>
       <c r="Y1" t="s">
+        <v>222</v>
+      </c>
+      <c r="Z1" t="s">
         <v>55</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AA1" t="s">
         <v>56</v>
       </c>
-      <c r="AA1" s="9" t="s">
+      <c r="AB1" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AC1" t="s">
         <v>58</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AD1" t="s">
         <v>59</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AE1" t="s">
         <v>60</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AF1" t="s">
         <v>61</v>
       </c>
-      <c r="AF1" s="6" t="s">
+      <c r="AG1" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="AG1" s="6" t="s">
+      <c r="AH1" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="AH1" t="s">
+      <c r="AI1" t="s">
         <v>63</v>
-      </c>
-      <c r="AI1" t="s">
-        <v>64</v>
       </c>
       <c r="AJ1" t="s">
         <v>65</v>
@@ -1927,39 +2389,54 @@
       <c r="AK1" t="s">
         <v>66</v>
       </c>
-      <c r="AL1" t="s">
+      <c r="AL1" s="10" t="s">
+        <v>217</v>
+      </c>
+      <c r="AM1" t="s">
         <v>67</v>
       </c>
-      <c r="AM1" t="s">
+      <c r="AN1" s="10" t="s">
+        <v>218</v>
+      </c>
+      <c r="AO1" t="s">
         <v>68</v>
       </c>
-      <c r="AN1" t="s">
+      <c r="AP1" s="10" t="s">
+        <v>219</v>
+      </c>
+      <c r="AQ1" t="s">
         <v>69</v>
       </c>
-      <c r="AO1" t="s">
+      <c r="AR1" s="10" t="s">
+        <v>220</v>
+      </c>
+      <c r="AS1" t="s">
         <v>70</v>
       </c>
-      <c r="AP1" t="s">
+      <c r="AT1" s="10" t="s">
+        <v>221</v>
+      </c>
+      <c r="AU1" t="s">
         <v>71</v>
       </c>
-      <c r="AQ1" t="s">
+      <c r="AV1" t="s">
         <v>73</v>
       </c>
-      <c r="AR1" t="s">
+      <c r="AW1" t="s">
         <v>74</v>
       </c>
-      <c r="AS1" t="s">
+      <c r="AX1" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="2" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>186</v>
       </c>
       <c r="B2" t="s">
         <v>194</v>
       </c>
-      <c r="D2" s="8">
+      <c r="D2" s="6">
         <v>50</v>
       </c>
       <c r="F2">
@@ -1971,41 +2448,47 @@
       <c r="J2" t="s">
         <v>187</v>
       </c>
-      <c r="N2" s="10" t="s">
+      <c r="N2" t="s">
         <v>195</v>
       </c>
-      <c r="S2">
+      <c r="S2" s="9">
         <v>32</v>
       </c>
-      <c r="T2">
+      <c r="T2" s="9">
         <v>12</v>
       </c>
-      <c r="V2">
+      <c r="V2" s="9">
         <v>0</v>
       </c>
-      <c r="W2">
-        <v>0</v>
-      </c>
-      <c r="AA2" s="9">
+      <c r="Y2" t="s">
+        <v>223</v>
+      </c>
+      <c r="AB2" s="7">
         <v>10.6</v>
       </c>
-      <c r="AB2">
+      <c r="AC2">
         <v>3</v>
       </c>
-      <c r="AF2" s="3"/>
-      <c r="AG2" s="3"/>
-      <c r="AH2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="AG2" s="1"/>
+      <c r="AH2" s="1"/>
+      <c r="AI2">
+        <v>1</v>
+      </c>
+      <c r="AP2" s="11">
+        <v>1715</v>
+      </c>
+      <c r="AR2" s="11">
+        <v>1830</v>
+      </c>
+    </row>
+    <row r="3" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>186</v>
       </c>
       <c r="B3" t="s">
         <v>196</v>
       </c>
-      <c r="D3" s="8">
+      <c r="D3" s="6">
         <v>50</v>
       </c>
       <c r="F3">
@@ -2017,37 +2500,40 @@
       <c r="J3" t="s">
         <v>187</v>
       </c>
-      <c r="N3" s="10" t="s">
+      <c r="N3" t="s">
         <v>195</v>
       </c>
-      <c r="R3">
+      <c r="R3" s="9">
         <v>60</v>
       </c>
-      <c r="V3">
+      <c r="V3" s="9">
         <v>0</v>
       </c>
-      <c r="W3">
-        <v>0</v>
-      </c>
-      <c r="AA3" s="9">
+      <c r="Y3" t="s">
+        <v>223</v>
+      </c>
+      <c r="AB3" s="7">
         <v>9.6</v>
       </c>
-      <c r="AB3">
+      <c r="AC3">
         <v>3</v>
       </c>
-      <c r="AG3" s="3"/>
-      <c r="AH3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="AH3" s="1"/>
+      <c r="AI3">
+        <v>1</v>
+      </c>
+      <c r="AN3" s="11">
+        <v>1365</v>
+      </c>
+    </row>
+    <row r="4" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>186</v>
       </c>
       <c r="B4" t="s">
         <v>197</v>
       </c>
-      <c r="D4" s="8">
+      <c r="D4" s="6">
         <v>50</v>
       </c>
       <c r="F4">
@@ -2059,24 +2545,27 @@
       <c r="J4" t="s">
         <v>187</v>
       </c>
-      <c r="N4" s="10" t="s">
+      <c r="N4" t="s">
         <v>198</v>
       </c>
-      <c r="P4">
+      <c r="P4" s="8">
         <v>1000</v>
       </c>
-      <c r="AA4" s="9">
+      <c r="Y4" t="s">
+        <v>223</v>
+      </c>
+      <c r="AB4" s="7">
         <v>12.5</v>
       </c>
-      <c r="AB4">
+      <c r="AC4">
         <v>3</v>
       </c>
-      <c r="AG4" s="3"/>
-      <c r="AH4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="AH4" s="1"/>
+      <c r="AI4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>186</v>
       </c>
@@ -2089,33 +2578,36 @@
       <c r="J5" t="s">
         <v>187</v>
       </c>
-      <c r="N5" s="10" t="s">
+      <c r="N5" t="s">
         <v>195</v>
       </c>
-      <c r="S5">
+      <c r="S5" s="9">
         <v>24</v>
       </c>
-      <c r="T5">
+      <c r="T5" s="9">
         <v>7</v>
       </c>
-      <c r="V5">
+      <c r="V5" s="9">
         <v>0</v>
       </c>
-      <c r="W5">
-        <v>0</v>
-      </c>
-      <c r="AA5" s="9">
+      <c r="AB5" s="7">
         <v>9.8000000000000007</v>
       </c>
-      <c r="AB5">
+      <c r="AC5">
         <v>2</v>
       </c>
-      <c r="AG5" s="3"/>
-      <c r="AH5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="AH5" s="1"/>
+      <c r="AI5">
+        <v>1</v>
+      </c>
+      <c r="AP5" s="11">
+        <v>1715</v>
+      </c>
+      <c r="AR5" s="11">
+        <v>1830</v>
+      </c>
+    </row>
+    <row r="6" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>186</v>
       </c>
@@ -2128,33 +2620,36 @@
       <c r="J6" t="s">
         <v>187</v>
       </c>
-      <c r="N6" s="10" t="s">
+      <c r="N6" t="s">
         <v>195</v>
       </c>
-      <c r="R6">
+      <c r="R6" s="9">
         <v>30</v>
       </c>
-      <c r="S6">
+      <c r="S6" s="9">
         <v>16</v>
       </c>
-      <c r="V6">
+      <c r="V6" s="9">
         <v>0</v>
       </c>
-      <c r="W6">
-        <v>0</v>
-      </c>
-      <c r="AA6" s="9">
+      <c r="AB6" s="7">
         <v>8.6999999999999993</v>
       </c>
-      <c r="AB6">
+      <c r="AC6">
         <v>2</v>
       </c>
-      <c r="AG6" s="3"/>
-      <c r="AH6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="AH6" s="1"/>
+      <c r="AI6">
+        <v>1</v>
+      </c>
+      <c r="AN6" s="11">
+        <v>1365</v>
+      </c>
+      <c r="AP6" s="11">
+        <v>1595</v>
+      </c>
+    </row>
+    <row r="7" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>186</v>
       </c>
@@ -2170,30 +2665,30 @@
       <c r="J7" t="s">
         <v>187</v>
       </c>
-      <c r="N7" s="10" t="s">
+      <c r="N7" t="s">
         <v>195</v>
       </c>
-      <c r="R7">
+      <c r="R7" s="9">
         <v>50</v>
       </c>
-      <c r="V7">
+      <c r="V7" s="9">
         <v>0</v>
       </c>
-      <c r="W7">
-        <v>0</v>
-      </c>
-      <c r="AA7" s="9">
+      <c r="AB7" s="7">
         <v>8.6999999999999993</v>
       </c>
-      <c r="AB7">
+      <c r="AC7">
         <v>2</v>
       </c>
-      <c r="AG7" s="3"/>
-      <c r="AH7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="AH7" s="1"/>
+      <c r="AI7">
+        <v>1</v>
+      </c>
+      <c r="AN7" s="11">
+        <v>1365</v>
+      </c>
+    </row>
+    <row r="8" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>186</v>
       </c>
@@ -2209,24 +2704,27 @@
       <c r="J8" t="s">
         <v>187</v>
       </c>
-      <c r="N8" s="10" t="s">
+      <c r="N8" t="s">
         <v>198</v>
       </c>
-      <c r="P8">
+      <c r="P8" s="8">
         <v>900</v>
       </c>
-      <c r="AA8" s="9">
+      <c r="Y8" t="s">
+        <v>223</v>
+      </c>
+      <c r="AB8" s="7">
         <v>15.1</v>
       </c>
-      <c r="AB8">
+      <c r="AC8">
         <v>4</v>
       </c>
-      <c r="AG8" s="3"/>
-      <c r="AH8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="AH8" s="1"/>
+      <c r="AI8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>186</v>
       </c>
@@ -2239,691 +2737,2789 @@
       <c r="J9" t="s">
         <v>187</v>
       </c>
-      <c r="N9" s="10" t="s">
+      <c r="N9" t="s">
         <v>195</v>
       </c>
-      <c r="R9">
+      <c r="R9" s="9">
         <v>100</v>
       </c>
-      <c r="AA9" s="9">
+      <c r="V9" s="9">
+        <v>10</v>
+      </c>
+      <c r="AB9" s="7">
         <v>11.8</v>
       </c>
-      <c r="AB9">
+      <c r="AC9">
         <v>2</v>
       </c>
-      <c r="AG9" s="3"/>
-      <c r="AH9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="AH9" s="1"/>
+      <c r="AI9">
+        <v>1</v>
+      </c>
+      <c r="AN9" s="11">
+        <v>1365</v>
+      </c>
+    </row>
+    <row r="10" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>186</v>
       </c>
       <c r="B10" t="s">
-        <v>217</v>
+        <v>231</v>
+      </c>
+      <c r="F10">
+        <v>1877</v>
       </c>
       <c r="J10" t="s">
         <v>187</v>
       </c>
-      <c r="AG10" s="3"/>
-    </row>
-    <row r="11" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="N10" t="s">
+        <v>195</v>
+      </c>
+      <c r="S10" s="9">
+        <v>16</v>
+      </c>
+      <c r="T10" s="9">
+        <v>12</v>
+      </c>
+      <c r="V10" s="9">
+        <v>0</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>223</v>
+      </c>
+      <c r="AB10" s="7">
+        <v>10.5</v>
+      </c>
+      <c r="AC10">
+        <v>2</v>
+      </c>
+      <c r="AH10" s="1"/>
+      <c r="AI10">
+        <v>1</v>
+      </c>
+      <c r="AP10" s="11">
+        <v>1715</v>
+      </c>
+      <c r="AR10" s="11">
+        <v>1830</v>
+      </c>
+    </row>
+    <row r="11" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>186</v>
       </c>
+      <c r="B11" t="s">
+        <v>224</v>
+      </c>
+      <c r="F11">
+        <v>1863</v>
+      </c>
       <c r="J11" t="s">
         <v>187</v>
       </c>
-      <c r="AG11" s="3"/>
-    </row>
-    <row r="12" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="N11" t="s">
+        <v>195</v>
+      </c>
+      <c r="R11" s="9">
+        <v>40</v>
+      </c>
+      <c r="AB11" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="AC11" t="s">
+        <v>225</v>
+      </c>
+      <c r="AH11" s="1"/>
+      <c r="AI11">
+        <v>1</v>
+      </c>
+      <c r="AN11" s="11" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="12" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>186</v>
       </c>
+      <c r="B12" t="s">
+        <v>227</v>
+      </c>
+      <c r="F12">
+        <v>1870</v>
+      </c>
       <c r="J12" t="s">
         <v>187</v>
       </c>
-      <c r="AG12" s="3"/>
-    </row>
-    <row r="13" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="N12" t="s">
+        <v>195</v>
+      </c>
+      <c r="R12" s="9">
+        <v>56</v>
+      </c>
+      <c r="S12" s="9">
+        <v>30</v>
+      </c>
+      <c r="V12" s="9">
+        <v>15</v>
+      </c>
+      <c r="AB12" s="7">
+        <v>12.6</v>
+      </c>
+      <c r="AC12">
+        <v>2</v>
+      </c>
+      <c r="AH12" s="1"/>
+      <c r="AI12">
+        <v>1</v>
+      </c>
+      <c r="AN12" s="11">
+        <v>1365</v>
+      </c>
+      <c r="AP12" s="11" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="13" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>186</v>
       </c>
+      <c r="B13" t="s">
+        <v>228</v>
+      </c>
+      <c r="F13">
+        <v>1877</v>
+      </c>
       <c r="J13" t="s">
         <v>187</v>
       </c>
-      <c r="AG13" s="3"/>
-    </row>
-    <row r="14" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="N13" t="s">
+        <v>195</v>
+      </c>
+      <c r="R13" s="9">
+        <v>64</v>
+      </c>
+      <c r="S13" s="9">
+        <v>30</v>
+      </c>
+      <c r="V13" s="9">
+        <v>10</v>
+      </c>
+      <c r="AB13" s="7">
+        <v>11.4</v>
+      </c>
+      <c r="AC13">
+        <v>2</v>
+      </c>
+      <c r="AH13" s="1"/>
+      <c r="AI13">
+        <v>1</v>
+      </c>
+      <c r="AN13" s="11">
+        <v>1365</v>
+      </c>
+      <c r="AP13" s="11">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="14" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>186</v>
       </c>
+      <c r="B14" t="s">
+        <v>229</v>
+      </c>
+      <c r="F14">
+        <v>1880</v>
+      </c>
       <c r="J14" t="s">
         <v>187</v>
       </c>
-      <c r="AG14" s="3"/>
-    </row>
-    <row r="15" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="N14" t="s">
+        <v>195</v>
+      </c>
+      <c r="R14" s="9">
+        <v>40</v>
+      </c>
+      <c r="V14" s="9">
+        <v>20</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>223</v>
+      </c>
+      <c r="AB14" s="7">
+        <v>9.5</v>
+      </c>
+      <c r="AC14">
+        <v>2</v>
+      </c>
+      <c r="AH14" s="1"/>
+      <c r="AI14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>186</v>
       </c>
+      <c r="B15" t="s">
+        <v>230</v>
+      </c>
+      <c r="F15">
+        <v>1885</v>
+      </c>
       <c r="J15" t="s">
         <v>187</v>
       </c>
-      <c r="AG15" s="3"/>
-    </row>
-    <row r="16" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="N15" t="s">
+        <v>195</v>
+      </c>
+      <c r="S15" s="9">
+        <v>14</v>
+      </c>
+      <c r="T15" s="9">
+        <v>10</v>
+      </c>
+      <c r="V15" s="9">
+        <v>0</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>223</v>
+      </c>
+      <c r="AB15" s="7">
+        <v>13.5</v>
+      </c>
+      <c r="AC15">
+        <v>2</v>
+      </c>
+      <c r="AH15" s="1"/>
+      <c r="AI15">
+        <v>1</v>
+      </c>
+      <c r="AP15" s="11">
+        <v>1780</v>
+      </c>
+      <c r="AQ15" t="s">
+        <v>232</v>
+      </c>
+      <c r="AR15" s="11">
+        <v>2000</v>
+      </c>
+      <c r="AS15" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="16" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>186</v>
       </c>
+      <c r="B16" t="s">
+        <v>233</v>
+      </c>
+      <c r="F16">
+        <v>1888</v>
+      </c>
       <c r="J16" t="s">
         <v>187</v>
       </c>
-      <c r="AG16" s="3"/>
-    </row>
-    <row r="17" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="N16" t="s">
+        <v>195</v>
+      </c>
+      <c r="R16" s="9">
+        <v>20</v>
+      </c>
+      <c r="S16" s="9">
+        <v>14</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>223</v>
+      </c>
+      <c r="AB16" s="7">
+        <v>12.4</v>
+      </c>
+      <c r="AC16">
+        <v>2</v>
+      </c>
+      <c r="AH16" s="1"/>
+      <c r="AI16">
+        <v>1</v>
+      </c>
+      <c r="AN16" s="11">
+        <v>1500</v>
+      </c>
+      <c r="AP16" s="11">
+        <v>1800</v>
+      </c>
+      <c r="AQ16" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="17" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>186</v>
       </c>
+      <c r="B17" t="s">
+        <v>234</v>
+      </c>
+      <c r="F17">
+        <v>1888</v>
+      </c>
       <c r="J17" t="s">
         <v>187</v>
       </c>
-      <c r="AG17" s="3"/>
-    </row>
-    <row r="18" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="N17" t="s">
+        <v>195</v>
+      </c>
+      <c r="R17" s="9">
+        <v>30</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>223</v>
+      </c>
+      <c r="AB17" s="7">
+        <v>12.2</v>
+      </c>
+      <c r="AC17">
+        <v>2</v>
+      </c>
+      <c r="AH17" s="1"/>
+      <c r="AI17">
+        <v>1</v>
+      </c>
+      <c r="AN17" s="11">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="18" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>186</v>
       </c>
+      <c r="B18" t="s">
+        <v>235</v>
+      </c>
+      <c r="F18">
+        <v>1891</v>
+      </c>
       <c r="J18" t="s">
         <v>187</v>
       </c>
-      <c r="AG18" s="3"/>
-    </row>
-    <row r="19" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="N18" t="s">
+        <v>195</v>
+      </c>
+      <c r="R18" s="9">
+        <v>50</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>223</v>
+      </c>
+      <c r="AB18" s="7">
+        <v>11.5</v>
+      </c>
+      <c r="AC18">
+        <v>2</v>
+      </c>
+      <c r="AH18" s="1"/>
+      <c r="AI18">
+        <v>1</v>
+      </c>
+      <c r="AN18" s="11">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="19" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>186</v>
       </c>
-      <c r="AG19" s="3"/>
-    </row>
-    <row r="20" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>236</v>
+      </c>
+      <c r="F19">
+        <v>1892</v>
+      </c>
+      <c r="J19" t="s">
+        <v>187</v>
+      </c>
+      <c r="N19" t="s">
+        <v>195</v>
+      </c>
+      <c r="S19" s="9">
+        <v>28</v>
+      </c>
+      <c r="T19" s="9">
+        <v>10</v>
+      </c>
+      <c r="V19" s="9">
+        <v>0</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>223</v>
+      </c>
+      <c r="AB19" s="7">
+        <v>27.2</v>
+      </c>
+      <c r="AC19">
+        <v>4</v>
+      </c>
+      <c r="AH19" s="1"/>
+      <c r="AI19">
+        <v>1</v>
+      </c>
+      <c r="AP19" s="11">
+        <v>1900</v>
+      </c>
+      <c r="AQ19" t="s">
+        <v>232</v>
+      </c>
+      <c r="AR19" s="11">
+        <v>2100</v>
+      </c>
+      <c r="AS19" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="20" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>186</v>
       </c>
-      <c r="AG20" s="3"/>
-    </row>
-    <row r="21" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>237</v>
+      </c>
+      <c r="F20">
+        <v>1862</v>
+      </c>
+      <c r="J20" t="s">
+        <v>187</v>
+      </c>
+      <c r="N20" t="s">
+        <v>195</v>
+      </c>
+      <c r="S20" s="9">
+        <v>24</v>
+      </c>
+      <c r="T20" s="9">
+        <v>6</v>
+      </c>
+      <c r="V20" s="9">
+        <v>0</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>238</v>
+      </c>
+      <c r="AB20" s="7">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="AC20">
+        <v>2</v>
+      </c>
+      <c r="AH20" s="1"/>
+      <c r="AI20">
+        <v>1</v>
+      </c>
+      <c r="AP20" s="11">
+        <v>1725</v>
+      </c>
+      <c r="AR20" s="11">
+        <v>1810</v>
+      </c>
+    </row>
+    <row r="21" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>186</v>
       </c>
-      <c r="AG21" s="3"/>
-    </row>
-    <row r="22" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
+        <v>239</v>
+      </c>
+      <c r="F21">
+        <v>1862</v>
+      </c>
+      <c r="J21" t="s">
+        <v>187</v>
+      </c>
+      <c r="N21" t="s">
+        <v>195</v>
+      </c>
+      <c r="R21" s="9">
+        <v>50</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>238</v>
+      </c>
+      <c r="AB21" s="7">
+        <v>8</v>
+      </c>
+      <c r="AC21">
+        <v>2</v>
+      </c>
+      <c r="AH21" s="1"/>
+      <c r="AI21">
+        <v>1</v>
+      </c>
+      <c r="AN21" s="11">
+        <v>1420</v>
+      </c>
+    </row>
+    <row r="22" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>186</v>
       </c>
-      <c r="AG22" s="3"/>
-    </row>
-    <row r="23" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
+        <v>240</v>
+      </c>
+      <c r="F22">
+        <v>1868</v>
+      </c>
+      <c r="J22" t="s">
+        <v>187</v>
+      </c>
+      <c r="N22" t="s">
+        <v>195</v>
+      </c>
+      <c r="R22" s="9">
+        <v>19</v>
+      </c>
+      <c r="S22" s="9">
+        <v>8</v>
+      </c>
+      <c r="T22" s="9">
+        <v>3</v>
+      </c>
+      <c r="Y22" t="s">
+        <v>223</v>
+      </c>
+      <c r="AB22" s="7">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="AC22">
+        <v>2</v>
+      </c>
+      <c r="AH22" s="1"/>
+      <c r="AI22">
+        <v>1</v>
+      </c>
+      <c r="AN22" s="11">
+        <v>1420</v>
+      </c>
+      <c r="AP22" s="11">
+        <v>1725</v>
+      </c>
+      <c r="AR22" s="11">
+        <v>1810</v>
+      </c>
+    </row>
+    <row r="23" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>186</v>
       </c>
-      <c r="AG23" s="3"/>
-    </row>
-    <row r="24" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
+        <v>241</v>
+      </c>
+      <c r="F23">
+        <v>1874</v>
+      </c>
+      <c r="J23" t="s">
+        <v>187</v>
+      </c>
+      <c r="N23" t="s">
+        <v>195</v>
+      </c>
+      <c r="R23" s="9">
+        <v>19</v>
+      </c>
+      <c r="S23" s="9">
+        <v>8</v>
+      </c>
+      <c r="T23" s="9">
+        <v>3</v>
+      </c>
+      <c r="Y23" t="s">
+        <v>223</v>
+      </c>
+      <c r="AB23" s="7">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="AC23">
+        <v>2</v>
+      </c>
+      <c r="AH23" s="1"/>
+      <c r="AI23">
+        <v>1</v>
+      </c>
+      <c r="AN23" s="11">
+        <v>1420</v>
+      </c>
+      <c r="AP23" s="11">
+        <v>1725</v>
+      </c>
+      <c r="AQ23" t="s">
+        <v>232</v>
+      </c>
+      <c r="AR23" s="11">
+        <v>1810</v>
+      </c>
+      <c r="AS23" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="24" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>186</v>
       </c>
-      <c r="AG24" s="3"/>
-    </row>
-    <row r="25" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
+        <v>242</v>
+      </c>
+      <c r="F24">
+        <v>1863</v>
+      </c>
+      <c r="J24" t="s">
+        <v>187</v>
+      </c>
+      <c r="N24" t="s">
+        <v>195</v>
+      </c>
+      <c r="R24" s="9">
+        <v>40</v>
+      </c>
+      <c r="S24" s="9">
+        <v>8</v>
+      </c>
+      <c r="Y24" t="s">
+        <v>238</v>
+      </c>
+      <c r="AB24" s="7">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="AC24">
+        <v>2</v>
+      </c>
+      <c r="AH24" s="1"/>
+      <c r="AI24">
+        <v>1</v>
+      </c>
+      <c r="AN24" s="11">
+        <v>1480</v>
+      </c>
+      <c r="AP24" s="11">
+        <v>1740</v>
+      </c>
+    </row>
+    <row r="25" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>186</v>
       </c>
-      <c r="AG25" s="3"/>
-    </row>
-    <row r="26" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="B25" t="s">
+        <v>243</v>
+      </c>
+      <c r="F25">
+        <v>1884</v>
+      </c>
+      <c r="J25" t="s">
+        <v>187</v>
+      </c>
+      <c r="N25" t="s">
+        <v>195</v>
+      </c>
+      <c r="R25" s="9">
+        <v>30</v>
+      </c>
+      <c r="Y25" t="s">
+        <v>223</v>
+      </c>
+      <c r="AB25" s="7">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="AC25">
+        <v>2</v>
+      </c>
+      <c r="AH25" s="1"/>
+      <c r="AI25">
+        <v>1</v>
+      </c>
+      <c r="AN25" s="11">
+        <v>1515</v>
+      </c>
+    </row>
+    <row r="26" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>186</v>
       </c>
-      <c r="AG26" s="3"/>
-    </row>
-    <row r="27" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="B26" t="s">
+        <v>244</v>
+      </c>
+      <c r="F26">
+        <v>1885</v>
+      </c>
+      <c r="J26" t="s">
+        <v>187</v>
+      </c>
+      <c r="N26" t="s">
+        <v>195</v>
+      </c>
+      <c r="S26" s="9">
+        <v>14</v>
+      </c>
+      <c r="T26" s="9">
+        <v>10</v>
+      </c>
+      <c r="V26" s="9">
+        <v>0</v>
+      </c>
+      <c r="Y26" t="s">
+        <v>247</v>
+      </c>
+      <c r="AB26" s="7">
+        <v>11.5</v>
+      </c>
+      <c r="AC26">
+        <v>2</v>
+      </c>
+      <c r="AH26" s="1"/>
+      <c r="AI26">
+        <v>1</v>
+      </c>
+      <c r="AP26" s="11">
+        <v>1780</v>
+      </c>
+      <c r="AQ26" t="s">
+        <v>232</v>
+      </c>
+      <c r="AR26" s="11">
+        <v>2000</v>
+      </c>
+      <c r="AS26" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="27" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>186</v>
       </c>
-      <c r="AG27" s="3"/>
-    </row>
-    <row r="28" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="B27" t="s">
+        <v>245</v>
+      </c>
+      <c r="J27" t="s">
+        <v>187</v>
+      </c>
+      <c r="N27" t="s">
+        <v>195</v>
+      </c>
+      <c r="AH27" s="1"/>
+      <c r="AI27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>186</v>
       </c>
-      <c r="AG28" s="3"/>
-    </row>
-    <row r="29" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="B28" t="s">
+        <v>246</v>
+      </c>
+      <c r="F28">
+        <v>1896</v>
+      </c>
+      <c r="J28" t="s">
+        <v>187</v>
+      </c>
+      <c r="N28" t="s">
+        <v>195</v>
+      </c>
+      <c r="S28" s="9">
+        <v>21</v>
+      </c>
+      <c r="T28" s="9">
+        <v>5</v>
+      </c>
+      <c r="V28" s="9">
+        <v>0</v>
+      </c>
+      <c r="Y28" t="s">
+        <v>247</v>
+      </c>
+      <c r="AB28" s="7">
+        <v>12.5</v>
+      </c>
+      <c r="AC28">
+        <v>2</v>
+      </c>
+      <c r="AH28" s="1"/>
+      <c r="AI28">
+        <v>1</v>
+      </c>
+      <c r="AP28" s="11">
+        <v>1850</v>
+      </c>
+      <c r="AQ28" t="s">
+        <v>232</v>
+      </c>
+      <c r="AR28" s="11">
+        <v>2000</v>
+      </c>
+      <c r="AS28" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="29" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>186</v>
       </c>
-      <c r="AG29" s="3"/>
-    </row>
-    <row r="30" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="B29" t="s">
+        <v>248</v>
+      </c>
+      <c r="F29">
+        <v>1896</v>
+      </c>
+      <c r="J29" t="s">
+        <v>187</v>
+      </c>
+      <c r="N29" t="s">
+        <v>195</v>
+      </c>
+      <c r="R29" s="9">
+        <v>20</v>
+      </c>
+      <c r="S29" s="9">
+        <v>14</v>
+      </c>
+      <c r="Y29" t="s">
+        <v>247</v>
+      </c>
+      <c r="AB29" s="7">
+        <v>12.5</v>
+      </c>
+      <c r="AC29">
+        <v>2</v>
+      </c>
+      <c r="AH29" s="1"/>
+      <c r="AI29">
+        <v>1</v>
+      </c>
+      <c r="AQ29" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="30" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>186</v>
       </c>
-      <c r="AG30" s="3"/>
-    </row>
-    <row r="31" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="B30" t="s">
+        <v>249</v>
+      </c>
+      <c r="F30">
+        <v>1896</v>
+      </c>
+      <c r="J30" t="s">
+        <v>187</v>
+      </c>
+      <c r="N30" t="s">
+        <v>195</v>
+      </c>
+      <c r="R30" s="9">
+        <v>50</v>
+      </c>
+      <c r="Y30" t="s">
+        <v>247</v>
+      </c>
+      <c r="AB30" s="7">
+        <v>9.5</v>
+      </c>
+      <c r="AC30">
+        <v>2</v>
+      </c>
+      <c r="AH30" s="1"/>
+      <c r="AI30">
+        <v>1</v>
+      </c>
+      <c r="AN30" s="11">
+        <v>1540</v>
+      </c>
+    </row>
+    <row r="31" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>186</v>
       </c>
-      <c r="AG31" s="3"/>
-    </row>
-    <row r="32" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="B31" t="s">
+        <v>250</v>
+      </c>
+      <c r="F31">
+        <v>1894</v>
+      </c>
+      <c r="J31" t="s">
+        <v>187</v>
+      </c>
+      <c r="N31" t="s">
+        <v>195</v>
+      </c>
+      <c r="R31" s="9">
+        <v>40</v>
+      </c>
+      <c r="Y31" t="s">
+        <v>247</v>
+      </c>
+      <c r="AB31" s="7">
+        <v>13.9</v>
+      </c>
+      <c r="AC31">
+        <v>2</v>
+      </c>
+      <c r="AH31" s="1"/>
+      <c r="AI31">
+        <v>1</v>
+      </c>
+      <c r="AN31" s="11">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="32" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>186</v>
       </c>
-      <c r="AG32" s="3"/>
-    </row>
-    <row r="33" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="B32" t="s">
+        <v>251</v>
+      </c>
+      <c r="F32">
+        <v>1894</v>
+      </c>
+      <c r="J32" t="s">
+        <v>187</v>
+      </c>
+      <c r="N32" t="s">
+        <v>195</v>
+      </c>
+      <c r="S32" s="9">
+        <v>28</v>
+      </c>
+      <c r="T32" s="9">
+        <v>10</v>
+      </c>
+      <c r="V32" s="9">
+        <v>0</v>
+      </c>
+      <c r="Y32" t="s">
+        <v>247</v>
+      </c>
+      <c r="AB32" s="7">
+        <v>27.2</v>
+      </c>
+      <c r="AC32">
+        <v>4</v>
+      </c>
+      <c r="AH32" s="1"/>
+      <c r="AI32">
+        <v>1</v>
+      </c>
+      <c r="AP32" s="11">
+        <v>1900</v>
+      </c>
+      <c r="AQ32" t="s">
+        <v>232</v>
+      </c>
+      <c r="AR32" s="11">
+        <v>2100</v>
+      </c>
+      <c r="AS32" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="33" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>186</v>
       </c>
-      <c r="AG33" s="3"/>
-    </row>
-    <row r="34" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="B33" t="s">
+        <v>252</v>
+      </c>
+      <c r="F33">
+        <v>1897</v>
+      </c>
+      <c r="J33" t="s">
+        <v>187</v>
+      </c>
+      <c r="N33" t="s">
+        <v>195</v>
+      </c>
+      <c r="R33" s="9">
+        <v>35</v>
+      </c>
+      <c r="S33" s="9">
+        <v>21</v>
+      </c>
+      <c r="Y33" t="s">
+        <v>247</v>
+      </c>
+      <c r="AB33" s="7">
+        <v>24.5</v>
+      </c>
+      <c r="AC33">
+        <v>4</v>
+      </c>
+      <c r="AH33" s="1"/>
+      <c r="AI33">
+        <v>1</v>
+      </c>
+      <c r="AN33" s="11">
+        <v>1500</v>
+      </c>
+      <c r="AO33" t="s">
+        <v>232</v>
+      </c>
+      <c r="AP33" s="11">
+        <v>1900</v>
+      </c>
+      <c r="AQ33" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="34" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>186</v>
       </c>
-      <c r="AG34" s="3"/>
-    </row>
-    <row r="35" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="B34" t="s">
+        <v>253</v>
+      </c>
+      <c r="F34">
+        <v>1894</v>
+      </c>
+      <c r="J34" t="s">
+        <v>187</v>
+      </c>
+      <c r="N34" t="s">
+        <v>195</v>
+      </c>
+      <c r="R34" s="9">
+        <v>86</v>
+      </c>
+      <c r="Y34" t="s">
+        <v>247</v>
+      </c>
+      <c r="AB34" s="7">
+        <v>25</v>
+      </c>
+      <c r="AC34">
+        <v>4</v>
+      </c>
+      <c r="AH34" s="1"/>
+      <c r="AI34">
+        <v>1</v>
+      </c>
+      <c r="AN34" s="11">
+        <v>1500</v>
+      </c>
+      <c r="AO34" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="35" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>186</v>
       </c>
-      <c r="AG35" s="3"/>
-    </row>
-    <row r="36" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="B35" t="s">
+        <v>255</v>
+      </c>
+      <c r="F35">
+        <v>1898</v>
+      </c>
+      <c r="J35" t="s">
+        <v>187</v>
+      </c>
+      <c r="N35" t="s">
+        <v>195</v>
+      </c>
+      <c r="R35" s="9">
+        <v>76</v>
+      </c>
+      <c r="Y35" t="s">
+        <v>247</v>
+      </c>
+      <c r="AB35" s="7">
+        <v>25</v>
+      </c>
+      <c r="AC35">
+        <v>4</v>
+      </c>
+      <c r="AH35" s="1"/>
+      <c r="AI35">
+        <v>1</v>
+      </c>
+      <c r="AN35" s="11">
+        <v>1700</v>
+      </c>
+      <c r="AO35" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="36" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>186</v>
       </c>
-      <c r="AG36" s="3"/>
-    </row>
-    <row r="37" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="B36" t="s">
+        <v>256</v>
+      </c>
+      <c r="F36">
+        <v>1913</v>
+      </c>
+      <c r="J36" t="s">
+        <v>187</v>
+      </c>
+      <c r="N36" t="s">
+        <v>273</v>
+      </c>
+      <c r="P36" s="8">
+        <v>1500</v>
+      </c>
+      <c r="R36" s="9">
+        <v>43</v>
+      </c>
+      <c r="Y36" t="s">
+        <v>247</v>
+      </c>
+      <c r="AB36" s="7">
+        <v>26.6</v>
+      </c>
+      <c r="AC36">
+        <v>4</v>
+      </c>
+      <c r="AH36" s="1"/>
+      <c r="AI36">
+        <v>1</v>
+      </c>
+      <c r="AN36" s="11">
+        <v>1700</v>
+      </c>
+      <c r="AO36" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="37" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>186</v>
       </c>
-      <c r="AG37" s="3"/>
-    </row>
-    <row r="38" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="B37" t="s">
+        <v>257</v>
+      </c>
+      <c r="F37">
+        <v>1894</v>
+      </c>
+      <c r="J37" t="s">
+        <v>187</v>
+      </c>
+      <c r="N37" t="s">
+        <v>195</v>
+      </c>
+      <c r="R37" s="9">
+        <v>75</v>
+      </c>
+      <c r="Y37" t="s">
+        <v>247</v>
+      </c>
+      <c r="AB37" s="7">
+        <v>28.8</v>
+      </c>
+      <c r="AC37">
+        <v>4</v>
+      </c>
+      <c r="AH37" s="1"/>
+      <c r="AI37">
+        <v>1</v>
+      </c>
+      <c r="AN37" s="11" t="s">
+        <v>258</v>
+      </c>
+      <c r="AO37" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="38" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>186</v>
       </c>
-      <c r="AG38" s="3"/>
-    </row>
-    <row r="39" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="B38" t="s">
+        <v>260</v>
+      </c>
+      <c r="F38">
+        <v>1896</v>
+      </c>
+      <c r="J38" t="s">
+        <v>187</v>
+      </c>
+      <c r="N38" t="s">
+        <v>195</v>
+      </c>
+      <c r="R38" s="9">
+        <v>72</v>
+      </c>
+      <c r="Y38" t="s">
+        <v>247</v>
+      </c>
+      <c r="AB38" s="7">
+        <v>28.6</v>
+      </c>
+      <c r="AC38">
+        <v>4</v>
+      </c>
+      <c r="AH38" s="1"/>
+      <c r="AI38">
+        <v>1</v>
+      </c>
+      <c r="AN38" s="11">
+        <v>1500</v>
+      </c>
+      <c r="AO38" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="39" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>186</v>
       </c>
-      <c r="AG39" s="3"/>
-    </row>
-    <row r="40" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="B39" t="s">
+        <v>259</v>
+      </c>
+      <c r="F39">
+        <v>1897</v>
+      </c>
+      <c r="J39" t="s">
+        <v>187</v>
+      </c>
+      <c r="N39" t="s">
+        <v>195</v>
+      </c>
+      <c r="T39" s="9">
+        <v>36</v>
+      </c>
+      <c r="Y39" t="s">
+        <v>247</v>
+      </c>
+      <c r="AB39" s="7">
+        <v>23.4</v>
+      </c>
+      <c r="AC39">
+        <v>4</v>
+      </c>
+      <c r="AH39" s="1"/>
+      <c r="AI39">
+        <v>1</v>
+      </c>
+      <c r="AR39" s="11">
+        <v>2100</v>
+      </c>
+      <c r="AS39" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="40" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>186</v>
       </c>
-      <c r="AG40" s="3"/>
-    </row>
-    <row r="41" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="B40" t="s">
+        <v>261</v>
+      </c>
+      <c r="F40">
+        <v>1897</v>
+      </c>
+      <c r="J40" t="s">
+        <v>187</v>
+      </c>
+      <c r="N40" t="s">
+        <v>195</v>
+      </c>
+      <c r="S40" s="9">
+        <v>36</v>
+      </c>
+      <c r="Y40" t="s">
+        <v>247</v>
+      </c>
+      <c r="AB40" s="7">
+        <v>26</v>
+      </c>
+      <c r="AC40">
+        <v>4</v>
+      </c>
+      <c r="AH40" s="1"/>
+      <c r="AI40">
+        <v>1</v>
+      </c>
+      <c r="AP40" s="11">
+        <v>1900</v>
+      </c>
+      <c r="AQ40" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="41" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>186</v>
       </c>
-      <c r="AG41" s="3"/>
-    </row>
-    <row r="42" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="B41" t="s">
+        <v>262</v>
+      </c>
+      <c r="F41">
+        <v>1903</v>
+      </c>
+      <c r="J41" t="s">
+        <v>187</v>
+      </c>
+      <c r="N41" t="s">
+        <v>195</v>
+      </c>
+      <c r="S41" s="9">
+        <v>24</v>
+      </c>
+      <c r="T41" s="9">
+        <v>18</v>
+      </c>
+      <c r="Y41" t="s">
+        <v>247</v>
+      </c>
+      <c r="AB41" s="7">
+        <v>39.200000000000003</v>
+      </c>
+      <c r="AC41">
+        <v>4</v>
+      </c>
+      <c r="AH41" s="1"/>
+      <c r="AI41">
+        <v>1</v>
+      </c>
+      <c r="AP41" s="11">
+        <v>1940</v>
+      </c>
+      <c r="AQ41" t="s">
+        <v>232</v>
+      </c>
+      <c r="AR41" s="11">
+        <v>2040</v>
+      </c>
+      <c r="AS41" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="42" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>186</v>
       </c>
-      <c r="AG42" s="3"/>
-    </row>
-    <row r="43" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="B42" t="s">
+        <v>263</v>
+      </c>
+      <c r="F42">
+        <v>1904</v>
+      </c>
+      <c r="J42" t="s">
+        <v>187</v>
+      </c>
+      <c r="N42" t="s">
+        <v>195</v>
+      </c>
+      <c r="U42" s="9">
+        <v>24</v>
+      </c>
+      <c r="Y42" t="s">
+        <v>247</v>
+      </c>
+      <c r="AB42" s="7">
+        <v>38.700000000000003</v>
+      </c>
+      <c r="AC42">
+        <v>4</v>
+      </c>
+      <c r="AH42" s="1"/>
+      <c r="AI42">
+        <v>1</v>
+      </c>
+      <c r="AT42" s="11">
+        <v>2300</v>
+      </c>
+      <c r="AU42" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="43" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>186</v>
       </c>
-      <c r="AG43" s="3"/>
-    </row>
-    <row r="44" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="B43" t="s">
+        <v>264</v>
+      </c>
+      <c r="F43">
+        <v>1908</v>
+      </c>
+      <c r="J43" t="s">
+        <v>187</v>
+      </c>
+      <c r="N43" t="s">
+        <v>195</v>
+      </c>
+      <c r="S43" s="9">
+        <v>24</v>
+      </c>
+      <c r="T43" s="9">
+        <v>12</v>
+      </c>
+      <c r="Y43" t="s">
+        <v>247</v>
+      </c>
+      <c r="AB43" s="7">
+        <v>30.7</v>
+      </c>
+      <c r="AC43">
+        <v>4</v>
+      </c>
+      <c r="AH43" s="1"/>
+      <c r="AI43">
+        <v>1</v>
+      </c>
+      <c r="AP43" s="11">
+        <v>1900</v>
+      </c>
+      <c r="AQ43" t="s">
+        <v>232</v>
+      </c>
+      <c r="AR43" s="11">
+        <v>2100</v>
+      </c>
+      <c r="AS43" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="44" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>186</v>
       </c>
-      <c r="AG44" s="3"/>
-    </row>
-    <row r="45" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="B44" t="s">
+        <v>265</v>
+      </c>
+      <c r="F44">
+        <v>1910</v>
+      </c>
+      <c r="J44" t="s">
+        <v>187</v>
+      </c>
+      <c r="N44" t="s">
+        <v>195</v>
+      </c>
+      <c r="S44" s="9">
+        <v>36</v>
+      </c>
+      <c r="Y44" t="s">
+        <v>247</v>
+      </c>
+      <c r="AB44" s="7">
+        <v>30.3</v>
+      </c>
+      <c r="AC44">
+        <v>4</v>
+      </c>
+      <c r="AH44" s="1"/>
+      <c r="AI44">
+        <v>1</v>
+      </c>
+      <c r="AP44" s="11">
+        <v>1900</v>
+      </c>
+      <c r="AQ44" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="45" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>186</v>
       </c>
-      <c r="AG45" s="3"/>
-    </row>
-    <row r="46" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="B45" t="s">
+        <v>266</v>
+      </c>
+      <c r="F45">
+        <v>1910</v>
+      </c>
+      <c r="J45" t="s">
+        <v>187</v>
+      </c>
+      <c r="N45" t="s">
+        <v>195</v>
+      </c>
+      <c r="R45" s="9">
+        <v>40</v>
+      </c>
+      <c r="S45" s="9">
+        <v>18</v>
+      </c>
+      <c r="Y45" t="s">
+        <v>247</v>
+      </c>
+      <c r="AB45" s="7">
+        <v>37.799999999999997</v>
+      </c>
+      <c r="AC45">
+        <v>4</v>
+      </c>
+      <c r="AH45" s="1"/>
+      <c r="AI45">
+        <v>1</v>
+      </c>
+      <c r="AN45" s="11">
+        <v>1700</v>
+      </c>
+      <c r="AO45" t="s">
+        <v>232</v>
+      </c>
+      <c r="AP45" s="11">
+        <v>1900</v>
+      </c>
+      <c r="AQ45" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="46" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>186</v>
       </c>
-      <c r="AG46" s="3"/>
-    </row>
-    <row r="47" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="B46" t="s">
+        <v>267</v>
+      </c>
+      <c r="F46">
+        <v>1909</v>
+      </c>
+      <c r="J46" t="s">
+        <v>187</v>
+      </c>
+      <c r="N46" t="s">
+        <v>195</v>
+      </c>
+      <c r="R46" s="9">
+        <v>72</v>
+      </c>
+      <c r="Y46" t="s">
+        <v>247</v>
+      </c>
+      <c r="AB46" s="7">
+        <v>34.799999999999997</v>
+      </c>
+      <c r="AC46">
+        <v>4</v>
+      </c>
+      <c r="AH46" s="1"/>
+      <c r="AI46">
+        <v>1</v>
+      </c>
+      <c r="AN46" s="11">
+        <v>1600</v>
+      </c>
+      <c r="AO46" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="47" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>186</v>
       </c>
-      <c r="AG47" s="3"/>
-    </row>
-    <row r="48" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="B47" t="s">
+        <v>268</v>
+      </c>
+      <c r="F47">
+        <v>1908</v>
+      </c>
+      <c r="J47" t="s">
+        <v>187</v>
+      </c>
+      <c r="N47" t="s">
+        <v>195</v>
+      </c>
+      <c r="R47" s="9">
+        <v>72</v>
+      </c>
+      <c r="Y47" t="s">
+        <v>247</v>
+      </c>
+      <c r="AB47" s="7">
+        <v>31.5</v>
+      </c>
+      <c r="AC47">
+        <v>4</v>
+      </c>
+      <c r="AH47" s="1"/>
+      <c r="AI47">
+        <v>1</v>
+      </c>
+      <c r="AN47" s="11" t="s">
+        <v>258</v>
+      </c>
+      <c r="AO47" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="48" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>186</v>
       </c>
-      <c r="AG48" s="3"/>
-    </row>
-    <row r="49" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="B48" t="s">
+        <v>269</v>
+      </c>
+      <c r="F48">
+        <v>1910</v>
+      </c>
+      <c r="J48" t="s">
+        <v>187</v>
+      </c>
+      <c r="N48" t="s">
+        <v>195</v>
+      </c>
+      <c r="R48" s="9">
+        <v>35</v>
+      </c>
+      <c r="T48" s="9">
+        <v>17</v>
+      </c>
+      <c r="Y48" t="s">
+        <v>247</v>
+      </c>
+      <c r="AB48" s="7">
+        <v>34.700000000000003</v>
+      </c>
+      <c r="AC48">
+        <v>4</v>
+      </c>
+      <c r="AH48" s="1"/>
+      <c r="AI48">
+        <v>1</v>
+      </c>
+      <c r="AN48" s="11" t="s">
+        <v>258</v>
+      </c>
+      <c r="AO48" t="s">
+        <v>232</v>
+      </c>
+      <c r="AR48" s="11">
+        <v>2100</v>
+      </c>
+      <c r="AS48" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="49" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>186</v>
       </c>
-      <c r="AG49" s="3"/>
-    </row>
-    <row r="50" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="B49" t="s">
+        <v>270</v>
+      </c>
+      <c r="F49">
+        <v>1912</v>
+      </c>
+      <c r="J49" t="s">
+        <v>187</v>
+      </c>
+      <c r="N49" t="s">
+        <v>195</v>
+      </c>
+      <c r="R49" s="9">
+        <v>66</v>
+      </c>
+      <c r="Y49" t="s">
+        <v>247</v>
+      </c>
+      <c r="AB49" s="7">
+        <v>14.1</v>
+      </c>
+      <c r="AC49">
+        <v>2</v>
+      </c>
+      <c r="AH49" s="1"/>
+      <c r="AI49">
+        <v>1</v>
+      </c>
+      <c r="AN49" s="11" t="s">
+        <v>258</v>
+      </c>
+      <c r="AO49" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="50" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>186</v>
       </c>
-      <c r="AG50" s="3"/>
-    </row>
-    <row r="51" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="B50" t="s">
+        <v>271</v>
+      </c>
+      <c r="F50">
+        <v>1912</v>
+      </c>
+      <c r="J50" t="s">
+        <v>187</v>
+      </c>
+      <c r="N50" t="s">
+        <v>195</v>
+      </c>
+      <c r="R50" s="9">
+        <v>24</v>
+      </c>
+      <c r="S50" s="9">
+        <v>18</v>
+      </c>
+      <c r="T50" s="9">
+        <v>6</v>
+      </c>
+      <c r="Y50" t="s">
+        <v>247</v>
+      </c>
+      <c r="AB50" s="7">
+        <v>39</v>
+      </c>
+      <c r="AC50">
+        <v>4</v>
+      </c>
+      <c r="AH50" s="1"/>
+      <c r="AI50">
+        <v>1</v>
+      </c>
+      <c r="AN50" s="11">
+        <v>1600</v>
+      </c>
+      <c r="AO50" t="s">
+        <v>232</v>
+      </c>
+      <c r="AP50" s="11">
+        <v>2000</v>
+      </c>
+      <c r="AQ50" t="s">
+        <v>232</v>
+      </c>
+      <c r="AR50" s="11">
+        <v>2100</v>
+      </c>
+      <c r="AS50" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="51" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>186</v>
       </c>
-      <c r="AG51" s="3"/>
-    </row>
-    <row r="52" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="B51" t="s">
+        <v>272</v>
+      </c>
+      <c r="F51">
+        <v>1912</v>
+      </c>
+      <c r="J51" t="s">
+        <v>187</v>
+      </c>
+      <c r="N51" t="s">
+        <v>195</v>
+      </c>
+      <c r="R51" s="9">
+        <v>64</v>
+      </c>
+      <c r="Y51" t="s">
+        <v>247</v>
+      </c>
+      <c r="AB51" s="7">
+        <v>37.700000000000003</v>
+      </c>
+      <c r="AC51">
+        <v>4</v>
+      </c>
+      <c r="AH51" s="1"/>
+      <c r="AI51">
+        <v>1</v>
+      </c>
+      <c r="AN51" s="11">
+        <v>1600</v>
+      </c>
+      <c r="AO51" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="52" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>186</v>
       </c>
-      <c r="AG52" s="3"/>
-    </row>
-    <row r="53" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="B52" t="s">
+        <v>274</v>
+      </c>
+      <c r="F52">
+        <v>1915</v>
+      </c>
+      <c r="J52" t="s">
+        <v>187</v>
+      </c>
+      <c r="N52" t="s">
+        <v>195</v>
+      </c>
+      <c r="R52" s="9">
+        <v>38</v>
+      </c>
+      <c r="Y52" t="s">
+        <v>247</v>
+      </c>
+      <c r="AB52" s="7">
+        <v>17.3</v>
+      </c>
+      <c r="AC52">
+        <v>2</v>
+      </c>
+      <c r="AH52" s="1"/>
+      <c r="AI52">
+        <v>1</v>
+      </c>
+      <c r="AN52" s="11" t="s">
+        <v>258</v>
+      </c>
+      <c r="AO52" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="53" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>186</v>
       </c>
-      <c r="AG53" s="3"/>
-    </row>
-    <row r="54" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="B53" t="s">
+        <v>275</v>
+      </c>
+      <c r="F53">
+        <v>1915</v>
+      </c>
+      <c r="J53" t="s">
+        <v>187</v>
+      </c>
+      <c r="N53" t="s">
+        <v>195</v>
+      </c>
+      <c r="R53" s="9">
+        <v>18</v>
+      </c>
+      <c r="S53" s="9">
+        <v>23</v>
+      </c>
+      <c r="Y53" t="s">
+        <v>247</v>
+      </c>
+      <c r="AB53" s="7">
+        <v>17.3</v>
+      </c>
+      <c r="AC53">
+        <v>2</v>
+      </c>
+      <c r="AH53" s="1"/>
+      <c r="AI53">
+        <v>1</v>
+      </c>
+      <c r="AN53" s="11" t="s">
+        <v>258</v>
+      </c>
+      <c r="AO53" t="s">
+        <v>232</v>
+      </c>
+      <c r="AP53" s="11" t="s">
+        <v>258</v>
+      </c>
+      <c r="AQ53" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="54" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>186</v>
       </c>
-      <c r="AG54" s="3"/>
-    </row>
-    <row r="55" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="B54" t="s">
+        <v>276</v>
+      </c>
+      <c r="F54">
+        <v>1916</v>
+      </c>
+      <c r="J54" t="s">
+        <v>187</v>
+      </c>
+      <c r="N54" t="s">
+        <v>195</v>
+      </c>
+      <c r="R54" s="9">
+        <v>48</v>
+      </c>
+      <c r="Y54" t="s">
+        <v>247</v>
+      </c>
+      <c r="AB54" s="7">
+        <v>18.399999999999999</v>
+      </c>
+      <c r="AC54">
+        <v>2</v>
+      </c>
+      <c r="AH54" s="1"/>
+      <c r="AI54">
+        <v>1</v>
+      </c>
+      <c r="AN54" s="11">
+        <v>1600</v>
+      </c>
+      <c r="AO54" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="55" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>186</v>
       </c>
-      <c r="AG55" s="3"/>
-    </row>
-    <row r="56" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="B55" t="s">
+        <v>277</v>
+      </c>
+      <c r="F55">
+        <v>1917</v>
+      </c>
+      <c r="J55" t="s">
+        <v>187</v>
+      </c>
+      <c r="N55" t="s">
+        <v>195</v>
+      </c>
+      <c r="S55" s="9">
+        <v>30</v>
+      </c>
+      <c r="Y55" t="s">
+        <v>247</v>
+      </c>
+      <c r="AB55" s="7">
+        <v>19</v>
+      </c>
+      <c r="AC55">
+        <v>2</v>
+      </c>
+      <c r="AH55" s="1"/>
+      <c r="AI55">
+        <v>1</v>
+      </c>
+      <c r="AP55" s="11">
+        <v>2050</v>
+      </c>
+      <c r="AQ55" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="56" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>186</v>
       </c>
-      <c r="AG56" s="3"/>
-    </row>
-    <row r="57" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="B56" t="s">
+        <v>278</v>
+      </c>
+      <c r="F56">
+        <v>1922</v>
+      </c>
+      <c r="J56" t="s">
+        <v>187</v>
+      </c>
+      <c r="N56" t="s">
+        <v>195</v>
+      </c>
+      <c r="R56" s="9">
+        <v>24</v>
+      </c>
+      <c r="S56" s="9">
+        <v>12</v>
+      </c>
+      <c r="Y56" t="s">
+        <v>247</v>
+      </c>
+      <c r="AB56" s="7">
+        <v>17.8</v>
+      </c>
+      <c r="AC56">
+        <v>2</v>
+      </c>
+      <c r="AH56" s="1"/>
+      <c r="AI56">
+        <v>1</v>
+      </c>
+      <c r="AN56" s="11">
+        <v>1600</v>
+      </c>
+      <c r="AO56" t="s">
+        <v>232</v>
+      </c>
+      <c r="AP56" s="11">
+        <v>2050</v>
+      </c>
+      <c r="AQ56" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="57" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>186</v>
       </c>
-      <c r="AG57" s="3"/>
-    </row>
-    <row r="58" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="B57" t="s">
+        <v>279</v>
+      </c>
+      <c r="F57">
+        <v>1928</v>
+      </c>
+      <c r="J57" t="s">
+        <v>187</v>
+      </c>
+      <c r="N57" t="s">
+        <v>195</v>
+      </c>
+      <c r="R57" s="9">
+        <v>40</v>
+      </c>
+      <c r="S57" s="9">
+        <v>18</v>
+      </c>
+      <c r="Y57" t="s">
+        <v>247</v>
+      </c>
+      <c r="AB57" s="7">
+        <v>38.700000000000003</v>
+      </c>
+      <c r="AC57">
+        <v>4</v>
+      </c>
+      <c r="AH57" s="1"/>
+      <c r="AI57">
+        <v>1</v>
+      </c>
+      <c r="AN57" s="11">
+        <v>1604</v>
+      </c>
+      <c r="AO57" t="s">
+        <v>232</v>
+      </c>
+      <c r="AP57" s="11">
+        <v>2050</v>
+      </c>
+      <c r="AQ57" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="58" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>186</v>
       </c>
-      <c r="AG58" s="3"/>
-    </row>
-    <row r="59" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="B58" t="s">
+        <v>280</v>
+      </c>
+      <c r="F58">
+        <v>1927</v>
+      </c>
+      <c r="J58" t="s">
+        <v>187</v>
+      </c>
+      <c r="N58" t="s">
+        <v>195</v>
+      </c>
+      <c r="R58" s="9">
+        <v>72</v>
+      </c>
+      <c r="Y58" t="s">
+        <v>247</v>
+      </c>
+      <c r="AB58" s="7">
+        <v>35</v>
+      </c>
+      <c r="AC58">
+        <v>4</v>
+      </c>
+      <c r="AH58" s="1"/>
+      <c r="AI58">
+        <v>1</v>
+      </c>
+      <c r="AN58" s="11">
+        <v>1600</v>
+      </c>
+      <c r="AO58" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="59" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>186</v>
       </c>
-      <c r="AG59" s="3"/>
-    </row>
-    <row r="60" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="B59" t="s">
+        <v>281</v>
+      </c>
+      <c r="F59">
+        <v>1928</v>
+      </c>
+      <c r="J59" t="s">
+        <v>187</v>
+      </c>
+      <c r="N59" t="s">
+        <v>195</v>
+      </c>
+      <c r="S59" s="9">
+        <v>40</v>
+      </c>
+      <c r="T59" s="9">
+        <v>18</v>
+      </c>
+      <c r="Y59" t="s">
+        <v>247</v>
+      </c>
+      <c r="AB59" s="7">
+        <v>38.700000000000003</v>
+      </c>
+      <c r="AC59">
+        <v>4</v>
+      </c>
+      <c r="AH59" s="1"/>
+      <c r="AI59">
+        <v>1</v>
+      </c>
+      <c r="AP59" s="11">
+        <v>2050</v>
+      </c>
+      <c r="AQ59" t="s">
+        <v>232</v>
+      </c>
+      <c r="AR59" s="11" t="s">
+        <v>282</v>
+      </c>
+      <c r="AS59" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="60" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>186</v>
       </c>
-      <c r="AG60" s="3"/>
-    </row>
-    <row r="61" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="AG61" s="3"/>
-    </row>
-    <row r="62" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="AG62" s="3"/>
-    </row>
-    <row r="63" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="AG63" s="3"/>
-    </row>
-    <row r="64" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="AG64" s="3"/>
-    </row>
-    <row r="65" spans="33:33" x14ac:dyDescent="0.25">
-      <c r="AG65" s="3"/>
-    </row>
-    <row r="66" spans="33:33" x14ac:dyDescent="0.25">
-      <c r="AG66" s="3"/>
-    </row>
-    <row r="67" spans="33:33" x14ac:dyDescent="0.25">
-      <c r="AG67" s="3"/>
-    </row>
-    <row r="68" spans="33:33" x14ac:dyDescent="0.25">
-      <c r="AG68" s="3"/>
-    </row>
-    <row r="69" spans="33:33" x14ac:dyDescent="0.25">
-      <c r="AG69" s="3"/>
-    </row>
-    <row r="70" spans="33:33" x14ac:dyDescent="0.25">
-      <c r="AG70" s="3"/>
-    </row>
-    <row r="71" spans="33:33" x14ac:dyDescent="0.25">
-      <c r="AG71" s="3"/>
-    </row>
-    <row r="72" spans="33:33" x14ac:dyDescent="0.25">
-      <c r="AG72" s="3"/>
-    </row>
-    <row r="73" spans="33:33" x14ac:dyDescent="0.25">
-      <c r="AG73" s="3"/>
-    </row>
-    <row r="74" spans="33:33" x14ac:dyDescent="0.25">
-      <c r="AG74" s="3"/>
-    </row>
-    <row r="75" spans="33:33" x14ac:dyDescent="0.25">
-      <c r="AG75" s="3"/>
-    </row>
-    <row r="76" spans="33:33" x14ac:dyDescent="0.25">
-      <c r="AG76" s="3"/>
-    </row>
-    <row r="77" spans="33:33" x14ac:dyDescent="0.25">
-      <c r="AG77" s="3"/>
-    </row>
-    <row r="78" spans="33:33" x14ac:dyDescent="0.25">
-      <c r="AG78" s="3"/>
-    </row>
-    <row r="79" spans="33:33" x14ac:dyDescent="0.25">
-      <c r="AG79" s="3"/>
-    </row>
-    <row r="80" spans="33:33" x14ac:dyDescent="0.25">
-      <c r="AG80" s="3"/>
-    </row>
-    <row r="81" spans="33:33" x14ac:dyDescent="0.25">
-      <c r="AG81" s="3"/>
-    </row>
-    <row r="82" spans="33:33" x14ac:dyDescent="0.25">
-      <c r="AG82" s="3"/>
-    </row>
-    <row r="83" spans="33:33" x14ac:dyDescent="0.25">
-      <c r="AG83" s="3"/>
-    </row>
-    <row r="84" spans="33:33" x14ac:dyDescent="0.25">
-      <c r="AG84" s="3"/>
-    </row>
-    <row r="85" spans="33:33" x14ac:dyDescent="0.25">
-      <c r="AG85" s="3"/>
-    </row>
-    <row r="86" spans="33:33" x14ac:dyDescent="0.25">
-      <c r="AG86" s="3"/>
-    </row>
-    <row r="87" spans="33:33" x14ac:dyDescent="0.25">
-      <c r="AG87" s="3"/>
-    </row>
-    <row r="88" spans="33:33" x14ac:dyDescent="0.25">
-      <c r="AG88" s="3"/>
-    </row>
-    <row r="89" spans="33:33" x14ac:dyDescent="0.25">
-      <c r="AG89" s="3"/>
-    </row>
-    <row r="90" spans="33:33" x14ac:dyDescent="0.25">
-      <c r="AG90" s="3"/>
-    </row>
-    <row r="91" spans="33:33" x14ac:dyDescent="0.25">
-      <c r="AG91" s="3"/>
-    </row>
-    <row r="92" spans="33:33" x14ac:dyDescent="0.25">
-      <c r="AG92" s="3"/>
-    </row>
-    <row r="93" spans="33:33" x14ac:dyDescent="0.25">
-      <c r="AG93" s="3"/>
-    </row>
-    <row r="94" spans="33:33" x14ac:dyDescent="0.25">
-      <c r="AG94" s="3"/>
-    </row>
-    <row r="95" spans="33:33" x14ac:dyDescent="0.25">
-      <c r="AG95" s="3"/>
-    </row>
-    <row r="96" spans="33:33" x14ac:dyDescent="0.25">
-      <c r="AG96" s="3"/>
-    </row>
-    <row r="97" spans="33:33" x14ac:dyDescent="0.25">
-      <c r="AG97" s="3"/>
-    </row>
-    <row r="98" spans="33:33" x14ac:dyDescent="0.25">
-      <c r="AG98" s="3"/>
-    </row>
-    <row r="99" spans="33:33" x14ac:dyDescent="0.25">
-      <c r="AG99" s="3"/>
-    </row>
-    <row r="100" spans="33:33" x14ac:dyDescent="0.25">
-      <c r="AG100" s="3"/>
-    </row>
-    <row r="101" spans="33:33" x14ac:dyDescent="0.25">
-      <c r="AG101" s="3"/>
-    </row>
-    <row r="102" spans="33:33" x14ac:dyDescent="0.25">
-      <c r="AG102" s="3"/>
-    </row>
-    <row r="103" spans="33:33" x14ac:dyDescent="0.25">
-      <c r="AG103" s="3"/>
-    </row>
-    <row r="104" spans="33:33" x14ac:dyDescent="0.25">
-      <c r="AG104" s="3"/>
-    </row>
-    <row r="105" spans="33:33" x14ac:dyDescent="0.25">
-      <c r="AG105" s="3"/>
-    </row>
-    <row r="106" spans="33:33" x14ac:dyDescent="0.25">
-      <c r="AG106" s="3"/>
-    </row>
-    <row r="107" spans="33:33" x14ac:dyDescent="0.25">
-      <c r="AG107" s="3"/>
-    </row>
-    <row r="108" spans="33:33" x14ac:dyDescent="0.25">
-      <c r="AG108" s="3"/>
-    </row>
-    <row r="109" spans="33:33" x14ac:dyDescent="0.25">
-      <c r="AG109" s="3"/>
-    </row>
-    <row r="110" spans="33:33" x14ac:dyDescent="0.25">
-      <c r="AG110" s="3"/>
-    </row>
-    <row r="111" spans="33:33" x14ac:dyDescent="0.25">
-      <c r="AG111" s="3"/>
-    </row>
-    <row r="112" spans="33:33" x14ac:dyDescent="0.25">
-      <c r="AG112" s="3"/>
-    </row>
-    <row r="113" spans="33:33" x14ac:dyDescent="0.25">
-      <c r="AG113" s="3"/>
-    </row>
-    <row r="114" spans="33:33" x14ac:dyDescent="0.25">
-      <c r="AG114" s="3"/>
-    </row>
-    <row r="115" spans="33:33" x14ac:dyDescent="0.25">
-      <c r="AG115" s="3"/>
-    </row>
-    <row r="116" spans="33:33" x14ac:dyDescent="0.25">
-      <c r="AG116" s="3"/>
-    </row>
-    <row r="117" spans="33:33" x14ac:dyDescent="0.25">
-      <c r="AG117" s="3"/>
-    </row>
-    <row r="118" spans="33:33" x14ac:dyDescent="0.25">
-      <c r="AG118" s="3"/>
-    </row>
-    <row r="119" spans="33:33" x14ac:dyDescent="0.25">
-      <c r="AG119" s="3"/>
-    </row>
-    <row r="120" spans="33:33" x14ac:dyDescent="0.25">
-      <c r="AG120" s="3"/>
-    </row>
-    <row r="121" spans="33:33" x14ac:dyDescent="0.25">
-      <c r="AG121" s="3"/>
-    </row>
-    <row r="122" spans="33:33" x14ac:dyDescent="0.25">
-      <c r="AG122" s="3"/>
-    </row>
-    <row r="123" spans="33:33" x14ac:dyDescent="0.25">
-      <c r="AG123" s="3"/>
-    </row>
-    <row r="124" spans="33:33" x14ac:dyDescent="0.25">
-      <c r="AG124" s="3"/>
-    </row>
-    <row r="125" spans="33:33" x14ac:dyDescent="0.25">
-      <c r="AG125" s="3"/>
-    </row>
-    <row r="126" spans="33:33" x14ac:dyDescent="0.25">
-      <c r="AG126" s="3"/>
-    </row>
-    <row r="127" spans="33:33" x14ac:dyDescent="0.25">
-      <c r="AG127" s="3"/>
-    </row>
-    <row r="128" spans="33:33" x14ac:dyDescent="0.25">
-      <c r="AG128" s="3"/>
-    </row>
-    <row r="129" spans="33:33" x14ac:dyDescent="0.25">
-      <c r="AG129" s="3"/>
-    </row>
-    <row r="130" spans="33:33" x14ac:dyDescent="0.25">
-      <c r="AG130" s="3"/>
-    </row>
-    <row r="131" spans="33:33" x14ac:dyDescent="0.25">
-      <c r="AG131" s="3"/>
-    </row>
-    <row r="132" spans="33:33" x14ac:dyDescent="0.25">
-      <c r="AG132" s="3"/>
-    </row>
-    <row r="133" spans="33:33" x14ac:dyDescent="0.25">
-      <c r="AG133" s="3"/>
-    </row>
-    <row r="134" spans="33:33" x14ac:dyDescent="0.25">
-      <c r="AG134" s="3"/>
-    </row>
-    <row r="135" spans="33:33" x14ac:dyDescent="0.25">
-      <c r="AG135" s="3"/>
-    </row>
-    <row r="136" spans="33:33" x14ac:dyDescent="0.25">
-      <c r="AG136" s="3"/>
-    </row>
-    <row r="137" spans="33:33" x14ac:dyDescent="0.25">
-      <c r="AG137" s="3"/>
-    </row>
-    <row r="138" spans="33:33" x14ac:dyDescent="0.25">
-      <c r="AG138" s="3"/>
-    </row>
-    <row r="139" spans="33:33" x14ac:dyDescent="0.25">
-      <c r="AG139" s="3"/>
-    </row>
-    <row r="140" spans="33:33" x14ac:dyDescent="0.25">
-      <c r="AG140" s="3"/>
-    </row>
-    <row r="141" spans="33:33" x14ac:dyDescent="0.25">
-      <c r="AG141" s="3"/>
-    </row>
-    <row r="142" spans="33:33" x14ac:dyDescent="0.25">
-      <c r="AG142" s="3"/>
-    </row>
-    <row r="143" spans="33:33" x14ac:dyDescent="0.25">
-      <c r="AG143" s="3"/>
-    </row>
-    <row r="144" spans="33:33" x14ac:dyDescent="0.25">
-      <c r="AG144" s="3"/>
-    </row>
-    <row r="145" spans="33:33" x14ac:dyDescent="0.25">
-      <c r="AG145" s="3"/>
-    </row>
-    <row r="146" spans="33:33" x14ac:dyDescent="0.25">
-      <c r="AG146" s="3"/>
-    </row>
-    <row r="147" spans="33:33" x14ac:dyDescent="0.25">
-      <c r="AG147" s="3"/>
-    </row>
-    <row r="148" spans="33:33" x14ac:dyDescent="0.25">
-      <c r="AG148" s="3"/>
-    </row>
-    <row r="149" spans="33:33" x14ac:dyDescent="0.25">
-      <c r="AG149" s="3"/>
-    </row>
-    <row r="150" spans="33:33" x14ac:dyDescent="0.25">
-      <c r="AG150" s="3"/>
-    </row>
-    <row r="151" spans="33:33" x14ac:dyDescent="0.25">
-      <c r="AG151" s="3"/>
-    </row>
-    <row r="152" spans="33:33" x14ac:dyDescent="0.25">
-      <c r="AG152" s="3"/>
-    </row>
-    <row r="153" spans="33:33" x14ac:dyDescent="0.25">
-      <c r="AG153" s="3"/>
-    </row>
-    <row r="154" spans="33:33" x14ac:dyDescent="0.25">
-      <c r="AG154" s="3"/>
-    </row>
-    <row r="155" spans="33:33" x14ac:dyDescent="0.25">
-      <c r="AG155" s="3"/>
-    </row>
-    <row r="156" spans="33:33" x14ac:dyDescent="0.25">
-      <c r="AG156" s="3"/>
-    </row>
-    <row r="157" spans="33:33" x14ac:dyDescent="0.25">
-      <c r="AG157" s="3"/>
-    </row>
-    <row r="158" spans="33:33" x14ac:dyDescent="0.25">
-      <c r="AG158" s="3"/>
-    </row>
-    <row r="159" spans="33:33" x14ac:dyDescent="0.25">
-      <c r="AG159" s="3"/>
-    </row>
-    <row r="160" spans="33:33" x14ac:dyDescent="0.25">
-      <c r="AG160" s="3"/>
-    </row>
-    <row r="161" spans="33:33" x14ac:dyDescent="0.25">
-      <c r="AG161" s="3"/>
-    </row>
-    <row r="162" spans="33:33" x14ac:dyDescent="0.25">
-      <c r="AG162" s="3"/>
-    </row>
-    <row r="163" spans="33:33" x14ac:dyDescent="0.25">
-      <c r="AG163" s="3"/>
-    </row>
-    <row r="164" spans="33:33" x14ac:dyDescent="0.25">
-      <c r="AG164" s="3"/>
-    </row>
-    <row r="165" spans="33:33" x14ac:dyDescent="0.25">
-      <c r="AG165" s="3"/>
-    </row>
-    <row r="166" spans="33:33" x14ac:dyDescent="0.25">
-      <c r="AG166" s="3"/>
-    </row>
-    <row r="167" spans="33:33" x14ac:dyDescent="0.25">
-      <c r="AG167" s="3"/>
-    </row>
-    <row r="168" spans="33:33" x14ac:dyDescent="0.25">
-      <c r="AG168" s="3"/>
-    </row>
-    <row r="169" spans="33:33" x14ac:dyDescent="0.25">
-      <c r="AG169" s="3"/>
-    </row>
-    <row r="170" spans="33:33" x14ac:dyDescent="0.25">
-      <c r="AG170" s="3"/>
+      <c r="B60" t="s">
+        <v>283</v>
+      </c>
+      <c r="F60">
+        <v>1925</v>
+      </c>
+      <c r="J60" t="s">
+        <v>187</v>
+      </c>
+      <c r="N60" t="s">
+        <v>195</v>
+      </c>
+      <c r="R60" s="9">
+        <v>40</v>
+      </c>
+      <c r="Y60" t="s">
+        <v>238</v>
+      </c>
+      <c r="AB60" s="7">
+        <v>7.8</v>
+      </c>
+      <c r="AC60">
+        <v>2</v>
+      </c>
+      <c r="AH60" s="1"/>
+      <c r="AI60">
+        <v>1</v>
+      </c>
+      <c r="AN60" s="11" t="s">
+        <v>258</v>
+      </c>
+      <c r="AV60" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="61" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>186</v>
+      </c>
+      <c r="B61" t="s">
+        <v>285</v>
+      </c>
+      <c r="F61">
+        <v>1927</v>
+      </c>
+      <c r="J61" t="s">
+        <v>187</v>
+      </c>
+      <c r="N61" t="s">
+        <v>195</v>
+      </c>
+      <c r="R61" s="9">
+        <v>50</v>
+      </c>
+      <c r="Y61" t="s">
+        <v>238</v>
+      </c>
+      <c r="AB61" s="7">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="AC61">
+        <v>2</v>
+      </c>
+      <c r="AH61" s="1"/>
+      <c r="AI61">
+        <v>1</v>
+      </c>
+      <c r="AN61" s="11" t="s">
+        <v>258</v>
+      </c>
+      <c r="AV61" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="62" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>186</v>
+      </c>
+      <c r="B62" t="s">
+        <v>287</v>
+      </c>
+      <c r="F62">
+        <v>1927</v>
+      </c>
+      <c r="J62" t="s">
+        <v>187</v>
+      </c>
+      <c r="N62" t="s">
+        <v>195</v>
+      </c>
+      <c r="R62" s="9">
+        <v>57</v>
+      </c>
+      <c r="Y62" t="s">
+        <v>238</v>
+      </c>
+      <c r="AB62" s="7">
+        <v>12.9</v>
+      </c>
+      <c r="AC62">
+        <v>2</v>
+      </c>
+      <c r="AH62" s="1"/>
+      <c r="AI62">
+        <v>1</v>
+      </c>
+      <c r="AN62" s="11" t="s">
+        <v>258</v>
+      </c>
+      <c r="AO62" t="s">
+        <v>232</v>
+      </c>
+      <c r="AV62" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="63" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>186</v>
+      </c>
+      <c r="B63" t="s">
+        <v>289</v>
+      </c>
+      <c r="F63">
+        <v>1927</v>
+      </c>
+      <c r="J63" t="s">
+        <v>187</v>
+      </c>
+      <c r="N63" t="s">
+        <v>195</v>
+      </c>
+      <c r="R63" s="9">
+        <v>50</v>
+      </c>
+      <c r="Y63" t="s">
+        <v>238</v>
+      </c>
+      <c r="AB63" s="7">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="AC63">
+        <v>2</v>
+      </c>
+      <c r="AH63" s="1"/>
+      <c r="AI63">
+        <v>1</v>
+      </c>
+      <c r="AN63" s="11" t="s">
+        <v>258</v>
+      </c>
+      <c r="AV63" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="64" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>186</v>
+      </c>
+      <c r="B64" t="s">
+        <v>290</v>
+      </c>
+      <c r="F64">
+        <v>1928</v>
+      </c>
+      <c r="J64" t="s">
+        <v>187</v>
+      </c>
+      <c r="N64" t="s">
+        <v>273</v>
+      </c>
+      <c r="P64" s="8">
+        <v>500</v>
+      </c>
+      <c r="R64" s="9">
+        <v>56</v>
+      </c>
+      <c r="Y64" t="s">
+        <v>238</v>
+      </c>
+      <c r="AB64" s="7">
+        <v>13.2</v>
+      </c>
+      <c r="AC64">
+        <v>2</v>
+      </c>
+      <c r="AH64" s="1"/>
+      <c r="AI64">
+        <v>1</v>
+      </c>
+      <c r="AN64" s="11" t="s">
+        <v>258</v>
+      </c>
+      <c r="AO64" t="s">
+        <v>232</v>
+      </c>
+      <c r="AV64" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="65" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>186</v>
+      </c>
+      <c r="B65" t="s">
+        <v>291</v>
+      </c>
+      <c r="F65">
+        <v>1928</v>
+      </c>
+      <c r="J65" t="s">
+        <v>187</v>
+      </c>
+      <c r="N65" t="s">
+        <v>195</v>
+      </c>
+      <c r="R65" s="9">
+        <v>78</v>
+      </c>
+      <c r="Y65" t="s">
+        <v>247</v>
+      </c>
+      <c r="AB65" s="7">
+        <v>33.5</v>
+      </c>
+      <c r="AC65">
+        <v>4</v>
+      </c>
+      <c r="AH65" s="1"/>
+      <c r="AI65">
+        <v>1</v>
+      </c>
+      <c r="AN65" s="11" t="s">
+        <v>258</v>
+      </c>
+      <c r="AO65" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="66" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>186</v>
+      </c>
+      <c r="J66" t="s">
+        <v>187</v>
+      </c>
+      <c r="N66" t="s">
+        <v>195</v>
+      </c>
+      <c r="AH66" s="1"/>
+      <c r="AI66">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>186</v>
+      </c>
+      <c r="J67" t="s">
+        <v>187</v>
+      </c>
+      <c r="N67" t="s">
+        <v>195</v>
+      </c>
+      <c r="AH67" s="1"/>
+      <c r="AI67">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>186</v>
+      </c>
+      <c r="J68" t="s">
+        <v>187</v>
+      </c>
+      <c r="N68" t="s">
+        <v>195</v>
+      </c>
+      <c r="AH68" s="1"/>
+      <c r="AI68">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>186</v>
+      </c>
+      <c r="J69" t="s">
+        <v>187</v>
+      </c>
+      <c r="N69" t="s">
+        <v>195</v>
+      </c>
+      <c r="AH69" s="1"/>
+      <c r="AI69">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>186</v>
+      </c>
+      <c r="J70" t="s">
+        <v>187</v>
+      </c>
+      <c r="N70" t="s">
+        <v>195</v>
+      </c>
+      <c r="AH70" s="1"/>
+      <c r="AI70">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>186</v>
+      </c>
+      <c r="J71" t="s">
+        <v>187</v>
+      </c>
+      <c r="N71" t="s">
+        <v>195</v>
+      </c>
+      <c r="AH71" s="1"/>
+      <c r="AI71">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>186</v>
+      </c>
+      <c r="J72" t="s">
+        <v>187</v>
+      </c>
+      <c r="N72" t="s">
+        <v>195</v>
+      </c>
+      <c r="AH72" s="1"/>
+      <c r="AI72">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="AH73" s="1"/>
+    </row>
+    <row r="74" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="AH74" s="1"/>
+    </row>
+    <row r="75" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="AH75" s="1"/>
+    </row>
+    <row r="76" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="AH76" s="1"/>
+    </row>
+    <row r="77" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="AH77" s="1"/>
+    </row>
+    <row r="78" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="AH78" s="1"/>
+    </row>
+    <row r="79" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="AH79" s="1"/>
+    </row>
+    <row r="80" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="AH80" s="1"/>
+    </row>
+    <row r="81" spans="34:34" x14ac:dyDescent="0.25">
+      <c r="AH81" s="1"/>
+    </row>
+    <row r="82" spans="34:34" x14ac:dyDescent="0.25">
+      <c r="AH82" s="1"/>
+    </row>
+    <row r="83" spans="34:34" x14ac:dyDescent="0.25">
+      <c r="AH83" s="1"/>
+    </row>
+    <row r="84" spans="34:34" x14ac:dyDescent="0.25">
+      <c r="AH84" s="1"/>
+    </row>
+    <row r="85" spans="34:34" x14ac:dyDescent="0.25">
+      <c r="AH85" s="1"/>
+    </row>
+    <row r="86" spans="34:34" x14ac:dyDescent="0.25">
+      <c r="AH86" s="1"/>
+    </row>
+    <row r="87" spans="34:34" x14ac:dyDescent="0.25">
+      <c r="AH87" s="1"/>
+    </row>
+    <row r="88" spans="34:34" x14ac:dyDescent="0.25">
+      <c r="AH88" s="1"/>
+    </row>
+    <row r="89" spans="34:34" x14ac:dyDescent="0.25">
+      <c r="AH89" s="1"/>
+    </row>
+    <row r="90" spans="34:34" x14ac:dyDescent="0.25">
+      <c r="AH90" s="1"/>
+    </row>
+    <row r="91" spans="34:34" x14ac:dyDescent="0.25">
+      <c r="AH91" s="1"/>
+    </row>
+    <row r="92" spans="34:34" x14ac:dyDescent="0.25">
+      <c r="AH92" s="1"/>
+    </row>
+    <row r="93" spans="34:34" x14ac:dyDescent="0.25">
+      <c r="AH93" s="1"/>
+    </row>
+    <row r="94" spans="34:34" x14ac:dyDescent="0.25">
+      <c r="AH94" s="1"/>
+    </row>
+    <row r="95" spans="34:34" x14ac:dyDescent="0.25">
+      <c r="AH95" s="1"/>
+    </row>
+    <row r="96" spans="34:34" x14ac:dyDescent="0.25">
+      <c r="AH96" s="1"/>
+    </row>
+    <row r="97" spans="34:34" x14ac:dyDescent="0.25">
+      <c r="AH97" s="1"/>
+    </row>
+    <row r="98" spans="34:34" x14ac:dyDescent="0.25">
+      <c r="AH98" s="1"/>
+    </row>
+    <row r="99" spans="34:34" x14ac:dyDescent="0.25">
+      <c r="AH99" s="1"/>
+    </row>
+    <row r="100" spans="34:34" x14ac:dyDescent="0.25">
+      <c r="AH100" s="1"/>
+    </row>
+    <row r="101" spans="34:34" x14ac:dyDescent="0.25">
+      <c r="AH101" s="1"/>
+    </row>
+    <row r="102" spans="34:34" x14ac:dyDescent="0.25">
+      <c r="AH102" s="1"/>
+    </row>
+    <row r="103" spans="34:34" x14ac:dyDescent="0.25">
+      <c r="AH103" s="1"/>
+    </row>
+    <row r="104" spans="34:34" x14ac:dyDescent="0.25">
+      <c r="AH104" s="1"/>
+    </row>
+    <row r="105" spans="34:34" x14ac:dyDescent="0.25">
+      <c r="AH105" s="1"/>
+    </row>
+    <row r="106" spans="34:34" x14ac:dyDescent="0.25">
+      <c r="AH106" s="1"/>
+    </row>
+    <row r="107" spans="34:34" x14ac:dyDescent="0.25">
+      <c r="AH107" s="1"/>
+    </row>
+    <row r="108" spans="34:34" x14ac:dyDescent="0.25">
+      <c r="AH108" s="1"/>
+    </row>
+    <row r="109" spans="34:34" x14ac:dyDescent="0.25">
+      <c r="AH109" s="1"/>
+    </row>
+    <row r="110" spans="34:34" x14ac:dyDescent="0.25">
+      <c r="AH110" s="1"/>
+    </row>
+    <row r="111" spans="34:34" x14ac:dyDescent="0.25">
+      <c r="AH111" s="1"/>
+    </row>
+    <row r="112" spans="34:34" x14ac:dyDescent="0.25">
+      <c r="AH112" s="1"/>
+    </row>
+    <row r="113" spans="34:34" x14ac:dyDescent="0.25">
+      <c r="AH113" s="1"/>
+    </row>
+    <row r="114" spans="34:34" x14ac:dyDescent="0.25">
+      <c r="AH114" s="1"/>
+    </row>
+    <row r="115" spans="34:34" x14ac:dyDescent="0.25">
+      <c r="AH115" s="1"/>
+    </row>
+    <row r="116" spans="34:34" x14ac:dyDescent="0.25">
+      <c r="AH116" s="1"/>
+    </row>
+    <row r="117" spans="34:34" x14ac:dyDescent="0.25">
+      <c r="AH117" s="1"/>
+    </row>
+    <row r="118" spans="34:34" x14ac:dyDescent="0.25">
+      <c r="AH118" s="1"/>
+    </row>
+    <row r="119" spans="34:34" x14ac:dyDescent="0.25">
+      <c r="AH119" s="1"/>
+    </row>
+    <row r="120" spans="34:34" x14ac:dyDescent="0.25">
+      <c r="AH120" s="1"/>
+    </row>
+    <row r="121" spans="34:34" x14ac:dyDescent="0.25">
+      <c r="AH121" s="1"/>
+    </row>
+    <row r="122" spans="34:34" x14ac:dyDescent="0.25">
+      <c r="AH122" s="1"/>
+    </row>
+    <row r="123" spans="34:34" x14ac:dyDescent="0.25">
+      <c r="AH123" s="1"/>
+    </row>
+    <row r="124" spans="34:34" x14ac:dyDescent="0.25">
+      <c r="AH124" s="1"/>
+    </row>
+    <row r="125" spans="34:34" x14ac:dyDescent="0.25">
+      <c r="AH125" s="1"/>
+    </row>
+    <row r="126" spans="34:34" x14ac:dyDescent="0.25">
+      <c r="AH126" s="1"/>
+    </row>
+    <row r="127" spans="34:34" x14ac:dyDescent="0.25">
+      <c r="AH127" s="1"/>
+    </row>
+    <row r="128" spans="34:34" x14ac:dyDescent="0.25">
+      <c r="AH128" s="1"/>
+    </row>
+    <row r="129" spans="34:34" x14ac:dyDescent="0.25">
+      <c r="AH129" s="1"/>
+    </row>
+    <row r="130" spans="34:34" x14ac:dyDescent="0.25">
+      <c r="AH130" s="1"/>
+    </row>
+    <row r="131" spans="34:34" x14ac:dyDescent="0.25">
+      <c r="AH131" s="1"/>
+    </row>
+    <row r="132" spans="34:34" x14ac:dyDescent="0.25">
+      <c r="AH132" s="1"/>
+    </row>
+    <row r="133" spans="34:34" x14ac:dyDescent="0.25">
+      <c r="AH133" s="1"/>
+    </row>
+    <row r="134" spans="34:34" x14ac:dyDescent="0.25">
+      <c r="AH134" s="1"/>
+    </row>
+    <row r="135" spans="34:34" x14ac:dyDescent="0.25">
+      <c r="AH135" s="1"/>
+    </row>
+    <row r="136" spans="34:34" x14ac:dyDescent="0.25">
+      <c r="AH136" s="1"/>
+    </row>
+    <row r="137" spans="34:34" x14ac:dyDescent="0.25">
+      <c r="AH137" s="1"/>
+    </row>
+    <row r="138" spans="34:34" x14ac:dyDescent="0.25">
+      <c r="AH138" s="1"/>
+    </row>
+    <row r="139" spans="34:34" x14ac:dyDescent="0.25">
+      <c r="AH139" s="1"/>
+    </row>
+    <row r="140" spans="34:34" x14ac:dyDescent="0.25">
+      <c r="AH140" s="1"/>
+    </row>
+    <row r="141" spans="34:34" x14ac:dyDescent="0.25">
+      <c r="AH141" s="1"/>
+    </row>
+    <row r="142" spans="34:34" x14ac:dyDescent="0.25">
+      <c r="AH142" s="1"/>
+    </row>
+    <row r="143" spans="34:34" x14ac:dyDescent="0.25">
+      <c r="AH143" s="1"/>
+    </row>
+    <row r="144" spans="34:34" x14ac:dyDescent="0.25">
+      <c r="AH144" s="1"/>
+    </row>
+    <row r="145" spans="34:34" x14ac:dyDescent="0.25">
+      <c r="AH145" s="1"/>
+    </row>
+    <row r="146" spans="34:34" x14ac:dyDescent="0.25">
+      <c r="AH146" s="1"/>
+    </row>
+    <row r="147" spans="34:34" x14ac:dyDescent="0.25">
+      <c r="AH147" s="1"/>
+    </row>
+    <row r="148" spans="34:34" x14ac:dyDescent="0.25">
+      <c r="AH148" s="1"/>
+    </row>
+    <row r="149" spans="34:34" x14ac:dyDescent="0.25">
+      <c r="AH149" s="1"/>
+    </row>
+    <row r="150" spans="34:34" x14ac:dyDescent="0.25">
+      <c r="AH150" s="1"/>
+    </row>
+    <row r="151" spans="34:34" x14ac:dyDescent="0.25">
+      <c r="AH151" s="1"/>
+    </row>
+    <row r="152" spans="34:34" x14ac:dyDescent="0.25">
+      <c r="AH152" s="1"/>
+    </row>
+    <row r="153" spans="34:34" x14ac:dyDescent="0.25">
+      <c r="AH153" s="1"/>
+    </row>
+    <row r="154" spans="34:34" x14ac:dyDescent="0.25">
+      <c r="AH154" s="1"/>
+    </row>
+    <row r="155" spans="34:34" x14ac:dyDescent="0.25">
+      <c r="AH155" s="1"/>
+    </row>
+    <row r="156" spans="34:34" x14ac:dyDescent="0.25">
+      <c r="AH156" s="1"/>
+    </row>
+    <row r="157" spans="34:34" x14ac:dyDescent="0.25">
+      <c r="AH157" s="1"/>
+    </row>
+    <row r="158" spans="34:34" x14ac:dyDescent="0.25">
+      <c r="AH158" s="1"/>
+    </row>
+    <row r="159" spans="34:34" x14ac:dyDescent="0.25">
+      <c r="AH159" s="1"/>
+    </row>
+    <row r="160" spans="34:34" x14ac:dyDescent="0.25">
+      <c r="AH160" s="1"/>
+    </row>
+    <row r="161" spans="34:34" x14ac:dyDescent="0.25">
+      <c r="AH161" s="1"/>
+    </row>
+    <row r="162" spans="34:34" x14ac:dyDescent="0.25">
+      <c r="AH162" s="1"/>
+    </row>
+    <row r="163" spans="34:34" x14ac:dyDescent="0.25">
+      <c r="AH163" s="1"/>
+    </row>
+    <row r="164" spans="34:34" x14ac:dyDescent="0.25">
+      <c r="AH164" s="1"/>
+    </row>
+    <row r="165" spans="34:34" x14ac:dyDescent="0.25">
+      <c r="AH165" s="1"/>
+    </row>
+    <row r="166" spans="34:34" x14ac:dyDescent="0.25">
+      <c r="AH166" s="1"/>
+    </row>
+    <row r="167" spans="34:34" x14ac:dyDescent="0.25">
+      <c r="AH167" s="1"/>
+    </row>
+    <row r="168" spans="34:34" x14ac:dyDescent="0.25">
+      <c r="AH168" s="1"/>
+    </row>
+    <row r="169" spans="34:34" x14ac:dyDescent="0.25">
+      <c r="AH169" s="1"/>
+    </row>
+    <row r="170" spans="34:34" x14ac:dyDescent="0.25">
+      <c r="AH170" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2940,8 +5536,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="6" max="6" width="9.140625" style="8"/>
-    <col min="32" max="32" width="9.140625" style="9"/>
+    <col min="6" max="6" width="9.140625" style="6"/>
+    <col min="32" max="32" width="9.140625" style="7"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:52" x14ac:dyDescent="0.25">
@@ -2960,7 +5556,7 @@
       <c r="E1" t="s">
         <v>93</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="F1" s="6" t="s">
         <v>38</v>
       </c>
       <c r="G1" t="s">
@@ -2990,19 +5586,19 @@
       <c r="O1" t="s">
         <v>46</v>
       </c>
-      <c r="P1" s="7" t="s">
+      <c r="P1" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="Q1" s="6" t="s">
+      <c r="Q1" s="5" t="s">
         <v>191</v>
       </c>
-      <c r="R1" s="6" t="s">
+      <c r="R1" s="5" t="s">
         <v>192</v>
       </c>
       <c r="S1" t="s">
         <v>47</v>
       </c>
-      <c r="T1" s="6" t="s">
+      <c r="T1" s="5" t="s">
         <v>131</v>
       </c>
       <c r="U1" t="s">
@@ -3038,7 +5634,7 @@
       <c r="AE1" t="s">
         <v>56</v>
       </c>
-      <c r="AF1" s="9" t="s">
+      <c r="AF1" s="7" t="s">
         <v>57</v>
       </c>
       <c r="AG1" t="s">
@@ -3056,10 +5652,10 @@
       <c r="AK1" t="s">
         <v>62</v>
       </c>
-      <c r="AL1" s="6" t="s">
+      <c r="AL1" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="AM1" s="6" t="s">
+      <c r="AM1" s="5" t="s">
         <v>111</v>
       </c>
       <c r="AN1" t="s">
@@ -3112,7 +5708,7 @@
       <c r="D2" t="s">
         <v>203</v>
       </c>
-      <c r="F2" s="8">
+      <c r="F2" s="6">
         <v>50</v>
       </c>
       <c r="K2">
@@ -3125,16 +5721,16 @@
         <v>187</v>
       </c>
       <c r="S2" s="1"/>
-      <c r="AF2" s="9">
+      <c r="AF2" s="7">
         <v>20</v>
       </c>
       <c r="AG2">
         <v>3</v>
       </c>
-      <c r="AL2" s="3">
-        <v>1</v>
-      </c>
-      <c r="AM2" s="3">
+      <c r="AL2" s="1">
+        <v>1</v>
+      </c>
+      <c r="AM2" s="1">
         <v>0</v>
       </c>
       <c r="AN2">
@@ -3151,7 +5747,7 @@
       <c r="B3" t="s">
         <v>204</v>
       </c>
-      <c r="F3" s="8">
+      <c r="F3" s="6">
         <v>50</v>
       </c>
       <c r="K3">
@@ -3163,7 +5759,7 @@
       <c r="O3" t="s">
         <v>187</v>
       </c>
-      <c r="AF3" s="9">
+      <c r="AF3" s="7">
         <v>21</v>
       </c>
       <c r="AG3">
@@ -3172,7 +5768,7 @@
       <c r="AL3">
         <v>0</v>
       </c>
-      <c r="AM3" s="3">
+      <c r="AM3" s="1">
         <v>0</v>
       </c>
       <c r="AN3">
@@ -3201,7 +5797,7 @@
       <c r="O4" t="s">
         <v>187</v>
       </c>
-      <c r="AF4" s="9">
+      <c r="AF4" s="7">
         <v>28.8</v>
       </c>
       <c r="AG4">
@@ -3210,7 +5806,7 @@
       <c r="AL4">
         <v>1</v>
       </c>
-      <c r="AM4" s="3">
+      <c r="AM4" s="1">
         <v>0</v>
       </c>
       <c r="AN4">
@@ -3236,7 +5832,7 @@
       <c r="O5" t="s">
         <v>187</v>
       </c>
-      <c r="AF5" s="9">
+      <c r="AF5" s="7">
         <v>29</v>
       </c>
       <c r="AG5">
@@ -3245,7 +5841,7 @@
       <c r="AL5">
         <v>0</v>
       </c>
-      <c r="AM5" s="3">
+      <c r="AM5" s="1">
         <v>0</v>
       </c>
       <c r="AN5">
@@ -3274,7 +5870,7 @@
       <c r="O6" t="s">
         <v>187</v>
       </c>
-      <c r="AF6" s="9">
+      <c r="AF6" s="7">
         <v>29.5</v>
       </c>
       <c r="AG6">
@@ -3283,7 +5879,7 @@
       <c r="AL6">
         <v>1</v>
       </c>
-      <c r="AM6" s="3">
+      <c r="AM6" s="1">
         <v>0</v>
       </c>
       <c r="AN6">
@@ -3312,7 +5908,7 @@
       <c r="O7" t="s">
         <v>187</v>
       </c>
-      <c r="AF7" s="9">
+      <c r="AF7" s="7">
         <v>25.9</v>
       </c>
       <c r="AG7">
@@ -3321,7 +5917,7 @@
       <c r="AL7">
         <v>1</v>
       </c>
-      <c r="AM7" s="3">
+      <c r="AM7" s="1">
         <v>0</v>
       </c>
       <c r="AN7">
@@ -3350,7 +5946,7 @@
       <c r="O8" t="s">
         <v>187</v>
       </c>
-      <c r="AF8" s="9">
+      <c r="AF8" s="7">
         <v>22.6</v>
       </c>
       <c r="AG8">
@@ -3359,7 +5955,7 @@
       <c r="AL8">
         <v>1</v>
       </c>
-      <c r="AM8" s="3">
+      <c r="AM8" s="1">
         <v>0</v>
       </c>
       <c r="AN8">
@@ -3385,7 +5981,7 @@
       <c r="O9" t="s">
         <v>187</v>
       </c>
-      <c r="AF9" s="9">
+      <c r="AF9" s="7">
         <v>27.7</v>
       </c>
       <c r="AG9">
@@ -3394,7 +5990,7 @@
       <c r="AL9">
         <v>0</v>
       </c>
-      <c r="AM9" s="3">
+      <c r="AM9" s="1">
         <v>0</v>
       </c>
       <c r="AN9">
@@ -3414,13 +6010,13 @@
       <c r="D10" t="s">
         <v>208</v>
       </c>
-      <c r="F10" s="8">
+      <c r="F10" s="6">
         <v>100</v>
       </c>
       <c r="O10" t="s">
         <v>187</v>
       </c>
-      <c r="AM10" s="3"/>
+      <c r="AM10" s="1"/>
     </row>
     <row r="11" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
@@ -3429,7 +6025,7 @@
       <c r="O11" t="s">
         <v>187</v>
       </c>
-      <c r="AM11" s="3"/>
+      <c r="AM11" s="1"/>
     </row>
     <row r="12" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
@@ -3438,7 +6034,7 @@
       <c r="O12" t="s">
         <v>187</v>
       </c>
-      <c r="AM12" s="3"/>
+      <c r="AM12" s="1"/>
     </row>
     <row r="13" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
@@ -3447,7 +6043,7 @@
       <c r="O13" t="s">
         <v>187</v>
       </c>
-      <c r="AM13" s="3"/>
+      <c r="AM13" s="1"/>
     </row>
     <row r="14" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
@@ -3456,7 +6052,7 @@
       <c r="O14" t="s">
         <v>187</v>
       </c>
-      <c r="AM14" s="3"/>
+      <c r="AM14" s="1"/>
     </row>
     <row r="15" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
@@ -3465,7 +6061,7 @@
       <c r="O15" t="s">
         <v>187</v>
       </c>
-      <c r="AM15" s="3"/>
+      <c r="AM15" s="1"/>
     </row>
     <row r="16" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
@@ -3474,7 +6070,7 @@
       <c r="O16" t="s">
         <v>187</v>
       </c>
-      <c r="AM16" s="3"/>
+      <c r="AM16" s="1"/>
     </row>
     <row r="17" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
@@ -3483,7 +6079,7 @@
       <c r="O17" t="s">
         <v>187</v>
       </c>
-      <c r="AM17" s="3"/>
+      <c r="AM17" s="1"/>
     </row>
     <row r="18" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
@@ -3492,589 +6088,589 @@
       <c r="O18" t="s">
         <v>187</v>
       </c>
-      <c r="AM18" s="3"/>
+      <c r="AM18" s="1"/>
     </row>
     <row r="19" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>186</v>
       </c>
-      <c r="AM19" s="3"/>
+      <c r="AM19" s="1"/>
     </row>
     <row r="20" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>186</v>
       </c>
-      <c r="AM20" s="3"/>
+      <c r="AM20" s="1"/>
     </row>
     <row r="21" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>186</v>
       </c>
-      <c r="AM21" s="3"/>
+      <c r="AM21" s="1"/>
     </row>
     <row r="22" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>186</v>
       </c>
-      <c r="AM22" s="3"/>
+      <c r="AM22" s="1"/>
     </row>
     <row r="23" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>186</v>
       </c>
-      <c r="AM23" s="3"/>
+      <c r="AM23" s="1"/>
     </row>
     <row r="24" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>186</v>
       </c>
-      <c r="AM24" s="3"/>
+      <c r="AM24" s="1"/>
     </row>
     <row r="25" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>186</v>
       </c>
-      <c r="AM25" s="3"/>
+      <c r="AM25" s="1"/>
     </row>
     <row r="26" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>186</v>
       </c>
-      <c r="AM26" s="3"/>
+      <c r="AM26" s="1"/>
     </row>
     <row r="27" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>186</v>
       </c>
-      <c r="AM27" s="3"/>
+      <c r="AM27" s="1"/>
     </row>
     <row r="28" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>186</v>
       </c>
-      <c r="AM28" s="3"/>
+      <c r="AM28" s="1"/>
     </row>
     <row r="29" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>186</v>
       </c>
-      <c r="AM29" s="3"/>
+      <c r="AM29" s="1"/>
     </row>
     <row r="30" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>186</v>
       </c>
-      <c r="AM30" s="3"/>
+      <c r="AM30" s="1"/>
     </row>
     <row r="31" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>186</v>
       </c>
-      <c r="AM31" s="3"/>
+      <c r="AM31" s="1"/>
     </row>
     <row r="32" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>186</v>
       </c>
-      <c r="AM32" s="3"/>
+      <c r="AM32" s="1"/>
     </row>
     <row r="33" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>186</v>
       </c>
-      <c r="AM33" s="3"/>
+      <c r="AM33" s="1"/>
     </row>
     <row r="34" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>186</v>
       </c>
-      <c r="AM34" s="3"/>
+      <c r="AM34" s="1"/>
     </row>
     <row r="35" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>186</v>
       </c>
-      <c r="AM35" s="3"/>
+      <c r="AM35" s="1"/>
     </row>
     <row r="36" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>186</v>
       </c>
-      <c r="AM36" s="3"/>
+      <c r="AM36" s="1"/>
     </row>
     <row r="37" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>186</v>
       </c>
-      <c r="AM37" s="3"/>
+      <c r="AM37" s="1"/>
     </row>
     <row r="38" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>186</v>
       </c>
-      <c r="AM38" s="3"/>
+      <c r="AM38" s="1"/>
     </row>
     <row r="39" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>186</v>
       </c>
-      <c r="AM39" s="3"/>
+      <c r="AM39" s="1"/>
     </row>
     <row r="40" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>186</v>
       </c>
-      <c r="AM40" s="3"/>
+      <c r="AM40" s="1"/>
     </row>
     <row r="41" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>186</v>
       </c>
-      <c r="AM41" s="3"/>
+      <c r="AM41" s="1"/>
     </row>
     <row r="42" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>186</v>
       </c>
-      <c r="AM42" s="3"/>
+      <c r="AM42" s="1"/>
     </row>
     <row r="43" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>186</v>
       </c>
-      <c r="AM43" s="3"/>
+      <c r="AM43" s="1"/>
     </row>
     <row r="44" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>186</v>
       </c>
-      <c r="AM44" s="3"/>
+      <c r="AM44" s="1"/>
     </row>
     <row r="45" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>186</v>
       </c>
-      <c r="AM45" s="3"/>
+      <c r="AM45" s="1"/>
     </row>
     <row r="46" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>186</v>
       </c>
-      <c r="AM46" s="3"/>
+      <c r="AM46" s="1"/>
     </row>
     <row r="47" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>186</v>
       </c>
-      <c r="AM47" s="3"/>
+      <c r="AM47" s="1"/>
     </row>
     <row r="48" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>186</v>
       </c>
-      <c r="AM48" s="3"/>
+      <c r="AM48" s="1"/>
     </row>
     <row r="49" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>186</v>
       </c>
-      <c r="AM49" s="3"/>
+      <c r="AM49" s="1"/>
     </row>
     <row r="50" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>186</v>
       </c>
-      <c r="AM50" s="3"/>
+      <c r="AM50" s="1"/>
     </row>
     <row r="51" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>186</v>
       </c>
-      <c r="AM51" s="3"/>
+      <c r="AM51" s="1"/>
     </row>
     <row r="52" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>186</v>
       </c>
-      <c r="AM52" s="3"/>
+      <c r="AM52" s="1"/>
     </row>
     <row r="53" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>186</v>
       </c>
-      <c r="AM53" s="3"/>
+      <c r="AM53" s="1"/>
     </row>
     <row r="54" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>186</v>
       </c>
-      <c r="AM54" s="3"/>
+      <c r="AM54" s="1"/>
     </row>
     <row r="55" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>186</v>
       </c>
-      <c r="AM55" s="3"/>
+      <c r="AM55" s="1"/>
     </row>
     <row r="56" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>186</v>
       </c>
-      <c r="AM56" s="3"/>
+      <c r="AM56" s="1"/>
     </row>
     <row r="57" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>186</v>
       </c>
-      <c r="AM57" s="3"/>
+      <c r="AM57" s="1"/>
     </row>
     <row r="58" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>186</v>
       </c>
-      <c r="AM58" s="3"/>
+      <c r="AM58" s="1"/>
     </row>
     <row r="59" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>186</v>
       </c>
-      <c r="AM59" s="3"/>
+      <c r="AM59" s="1"/>
     </row>
     <row r="60" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>186</v>
       </c>
-      <c r="AM60" s="3"/>
+      <c r="AM60" s="1"/>
     </row>
     <row r="61" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="AM61" s="3"/>
+      <c r="AM61" s="1"/>
     </row>
     <row r="62" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="AM62" s="3"/>
+      <c r="AM62" s="1"/>
     </row>
     <row r="63" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="AM63" s="3"/>
+      <c r="AM63" s="1"/>
     </row>
     <row r="64" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="AM64" s="3"/>
+      <c r="AM64" s="1"/>
     </row>
     <row r="65" spans="39:39" x14ac:dyDescent="0.25">
-      <c r="AM65" s="3"/>
+      <c r="AM65" s="1"/>
     </row>
     <row r="66" spans="39:39" x14ac:dyDescent="0.25">
-      <c r="AM66" s="3"/>
+      <c r="AM66" s="1"/>
     </row>
     <row r="67" spans="39:39" x14ac:dyDescent="0.25">
-      <c r="AM67" s="3"/>
+      <c r="AM67" s="1"/>
     </row>
     <row r="68" spans="39:39" x14ac:dyDescent="0.25">
-      <c r="AM68" s="3"/>
+      <c r="AM68" s="1"/>
     </row>
     <row r="69" spans="39:39" x14ac:dyDescent="0.25">
-      <c r="AM69" s="3"/>
+      <c r="AM69" s="1"/>
     </row>
     <row r="70" spans="39:39" x14ac:dyDescent="0.25">
-      <c r="AM70" s="3"/>
+      <c r="AM70" s="1"/>
     </row>
     <row r="71" spans="39:39" x14ac:dyDescent="0.25">
-      <c r="AM71" s="3"/>
+      <c r="AM71" s="1"/>
     </row>
     <row r="72" spans="39:39" x14ac:dyDescent="0.25">
-      <c r="AM72" s="3"/>
+      <c r="AM72" s="1"/>
     </row>
     <row r="73" spans="39:39" x14ac:dyDescent="0.25">
-      <c r="AM73" s="3"/>
+      <c r="AM73" s="1"/>
     </row>
     <row r="74" spans="39:39" x14ac:dyDescent="0.25">
-      <c r="AM74" s="3"/>
+      <c r="AM74" s="1"/>
     </row>
     <row r="75" spans="39:39" x14ac:dyDescent="0.25">
-      <c r="AM75" s="3"/>
+      <c r="AM75" s="1"/>
     </row>
     <row r="76" spans="39:39" x14ac:dyDescent="0.25">
-      <c r="AM76" s="3"/>
+      <c r="AM76" s="1"/>
     </row>
     <row r="77" spans="39:39" x14ac:dyDescent="0.25">
-      <c r="AM77" s="3"/>
+      <c r="AM77" s="1"/>
     </row>
     <row r="78" spans="39:39" x14ac:dyDescent="0.25">
-      <c r="AM78" s="3"/>
+      <c r="AM78" s="1"/>
     </row>
     <row r="79" spans="39:39" x14ac:dyDescent="0.25">
-      <c r="AM79" s="3"/>
+      <c r="AM79" s="1"/>
     </row>
     <row r="80" spans="39:39" x14ac:dyDescent="0.25">
-      <c r="AM80" s="3"/>
+      <c r="AM80" s="1"/>
     </row>
     <row r="81" spans="39:39" x14ac:dyDescent="0.25">
-      <c r="AM81" s="3"/>
+      <c r="AM81" s="1"/>
     </row>
     <row r="82" spans="39:39" x14ac:dyDescent="0.25">
-      <c r="AM82" s="3"/>
+      <c r="AM82" s="1"/>
     </row>
     <row r="83" spans="39:39" x14ac:dyDescent="0.25">
-      <c r="AM83" s="3"/>
+      <c r="AM83" s="1"/>
     </row>
     <row r="84" spans="39:39" x14ac:dyDescent="0.25">
-      <c r="AM84" s="3"/>
+      <c r="AM84" s="1"/>
     </row>
     <row r="85" spans="39:39" x14ac:dyDescent="0.25">
-      <c r="AM85" s="3"/>
+      <c r="AM85" s="1"/>
     </row>
     <row r="86" spans="39:39" x14ac:dyDescent="0.25">
-      <c r="AM86" s="3"/>
+      <c r="AM86" s="1"/>
     </row>
     <row r="87" spans="39:39" x14ac:dyDescent="0.25">
-      <c r="AM87" s="3"/>
+      <c r="AM87" s="1"/>
     </row>
     <row r="88" spans="39:39" x14ac:dyDescent="0.25">
-      <c r="AM88" s="3"/>
+      <c r="AM88" s="1"/>
     </row>
     <row r="89" spans="39:39" x14ac:dyDescent="0.25">
-      <c r="AM89" s="3"/>
+      <c r="AM89" s="1"/>
     </row>
     <row r="90" spans="39:39" x14ac:dyDescent="0.25">
-      <c r="AM90" s="3"/>
+      <c r="AM90" s="1"/>
     </row>
     <row r="91" spans="39:39" x14ac:dyDescent="0.25">
-      <c r="AM91" s="3"/>
+      <c r="AM91" s="1"/>
     </row>
     <row r="92" spans="39:39" x14ac:dyDescent="0.25">
-      <c r="AM92" s="3"/>
+      <c r="AM92" s="1"/>
     </row>
     <row r="93" spans="39:39" x14ac:dyDescent="0.25">
-      <c r="AM93" s="3"/>
+      <c r="AM93" s="1"/>
     </row>
     <row r="94" spans="39:39" x14ac:dyDescent="0.25">
-      <c r="AM94" s="3"/>
+      <c r="AM94" s="1"/>
     </row>
     <row r="95" spans="39:39" x14ac:dyDescent="0.25">
-      <c r="AM95" s="3"/>
+      <c r="AM95" s="1"/>
     </row>
     <row r="96" spans="39:39" x14ac:dyDescent="0.25">
-      <c r="AM96" s="3"/>
+      <c r="AM96" s="1"/>
     </row>
     <row r="97" spans="39:39" x14ac:dyDescent="0.25">
-      <c r="AM97" s="3"/>
+      <c r="AM97" s="1"/>
     </row>
     <row r="98" spans="39:39" x14ac:dyDescent="0.25">
-      <c r="AM98" s="3"/>
+      <c r="AM98" s="1"/>
     </row>
     <row r="99" spans="39:39" x14ac:dyDescent="0.25">
-      <c r="AM99" s="3"/>
+      <c r="AM99" s="1"/>
     </row>
     <row r="100" spans="39:39" x14ac:dyDescent="0.25">
-      <c r="AM100" s="3"/>
+      <c r="AM100" s="1"/>
     </row>
     <row r="101" spans="39:39" x14ac:dyDescent="0.25">
-      <c r="AM101" s="3"/>
+      <c r="AM101" s="1"/>
     </row>
     <row r="102" spans="39:39" x14ac:dyDescent="0.25">
-      <c r="AM102" s="3"/>
+      <c r="AM102" s="1"/>
     </row>
     <row r="103" spans="39:39" x14ac:dyDescent="0.25">
-      <c r="AM103" s="3"/>
+      <c r="AM103" s="1"/>
     </row>
     <row r="104" spans="39:39" x14ac:dyDescent="0.25">
-      <c r="AM104" s="3"/>
+      <c r="AM104" s="1"/>
     </row>
     <row r="105" spans="39:39" x14ac:dyDescent="0.25">
-      <c r="AM105" s="3"/>
+      <c r="AM105" s="1"/>
     </row>
     <row r="106" spans="39:39" x14ac:dyDescent="0.25">
-      <c r="AM106" s="3"/>
+      <c r="AM106" s="1"/>
     </row>
     <row r="107" spans="39:39" x14ac:dyDescent="0.25">
-      <c r="AM107" s="3"/>
+      <c r="AM107" s="1"/>
     </row>
     <row r="108" spans="39:39" x14ac:dyDescent="0.25">
-      <c r="AM108" s="3"/>
+      <c r="AM108" s="1"/>
     </row>
     <row r="109" spans="39:39" x14ac:dyDescent="0.25">
-      <c r="AM109" s="3"/>
+      <c r="AM109" s="1"/>
     </row>
     <row r="110" spans="39:39" x14ac:dyDescent="0.25">
-      <c r="AM110" s="3"/>
+      <c r="AM110" s="1"/>
     </row>
     <row r="111" spans="39:39" x14ac:dyDescent="0.25">
-      <c r="AM111" s="3"/>
+      <c r="AM111" s="1"/>
     </row>
     <row r="112" spans="39:39" x14ac:dyDescent="0.25">
-      <c r="AM112" s="3"/>
+      <c r="AM112" s="1"/>
     </row>
     <row r="113" spans="39:39" x14ac:dyDescent="0.25">
-      <c r="AM113" s="3"/>
+      <c r="AM113" s="1"/>
     </row>
     <row r="114" spans="39:39" x14ac:dyDescent="0.25">
-      <c r="AM114" s="3"/>
+      <c r="AM114" s="1"/>
     </row>
     <row r="115" spans="39:39" x14ac:dyDescent="0.25">
-      <c r="AM115" s="3"/>
+      <c r="AM115" s="1"/>
     </row>
     <row r="116" spans="39:39" x14ac:dyDescent="0.25">
-      <c r="AM116" s="3"/>
+      <c r="AM116" s="1"/>
     </row>
     <row r="117" spans="39:39" x14ac:dyDescent="0.25">
-      <c r="AM117" s="3"/>
+      <c r="AM117" s="1"/>
     </row>
     <row r="118" spans="39:39" x14ac:dyDescent="0.25">
-      <c r="AM118" s="3"/>
+      <c r="AM118" s="1"/>
     </row>
     <row r="119" spans="39:39" x14ac:dyDescent="0.25">
-      <c r="AM119" s="3"/>
+      <c r="AM119" s="1"/>
     </row>
     <row r="120" spans="39:39" x14ac:dyDescent="0.25">
-      <c r="AM120" s="3"/>
+      <c r="AM120" s="1"/>
     </row>
     <row r="121" spans="39:39" x14ac:dyDescent="0.25">
-      <c r="AM121" s="3"/>
+      <c r="AM121" s="1"/>
     </row>
     <row r="122" spans="39:39" x14ac:dyDescent="0.25">
-      <c r="AM122" s="3"/>
+      <c r="AM122" s="1"/>
     </row>
     <row r="123" spans="39:39" x14ac:dyDescent="0.25">
-      <c r="AM123" s="3"/>
+      <c r="AM123" s="1"/>
     </row>
     <row r="124" spans="39:39" x14ac:dyDescent="0.25">
-      <c r="AM124" s="3"/>
+      <c r="AM124" s="1"/>
     </row>
     <row r="125" spans="39:39" x14ac:dyDescent="0.25">
-      <c r="AM125" s="3"/>
+      <c r="AM125" s="1"/>
     </row>
     <row r="126" spans="39:39" x14ac:dyDescent="0.25">
-      <c r="AM126" s="3"/>
+      <c r="AM126" s="1"/>
     </row>
     <row r="127" spans="39:39" x14ac:dyDescent="0.25">
-      <c r="AM127" s="3"/>
+      <c r="AM127" s="1"/>
     </row>
     <row r="128" spans="39:39" x14ac:dyDescent="0.25">
-      <c r="AM128" s="3"/>
+      <c r="AM128" s="1"/>
     </row>
     <row r="129" spans="39:39" x14ac:dyDescent="0.25">
-      <c r="AM129" s="3"/>
+      <c r="AM129" s="1"/>
     </row>
     <row r="130" spans="39:39" x14ac:dyDescent="0.25">
-      <c r="AM130" s="3"/>
+      <c r="AM130" s="1"/>
     </row>
     <row r="131" spans="39:39" x14ac:dyDescent="0.25">
-      <c r="AM131" s="3"/>
+      <c r="AM131" s="1"/>
     </row>
     <row r="132" spans="39:39" x14ac:dyDescent="0.25">
-      <c r="AM132" s="3"/>
+      <c r="AM132" s="1"/>
     </row>
     <row r="133" spans="39:39" x14ac:dyDescent="0.25">
-      <c r="AM133" s="3"/>
+      <c r="AM133" s="1"/>
     </row>
     <row r="134" spans="39:39" x14ac:dyDescent="0.25">
-      <c r="AM134" s="3"/>
+      <c r="AM134" s="1"/>
     </row>
     <row r="135" spans="39:39" x14ac:dyDescent="0.25">
-      <c r="AM135" s="3"/>
+      <c r="AM135" s="1"/>
     </row>
     <row r="136" spans="39:39" x14ac:dyDescent="0.25">
-      <c r="AM136" s="3"/>
+      <c r="AM136" s="1"/>
     </row>
     <row r="137" spans="39:39" x14ac:dyDescent="0.25">
-      <c r="AM137" s="3"/>
+      <c r="AM137" s="1"/>
     </row>
     <row r="138" spans="39:39" x14ac:dyDescent="0.25">
-      <c r="AM138" s="3"/>
+      <c r="AM138" s="1"/>
     </row>
     <row r="139" spans="39:39" x14ac:dyDescent="0.25">
-      <c r="AM139" s="3"/>
+      <c r="AM139" s="1"/>
     </row>
     <row r="140" spans="39:39" x14ac:dyDescent="0.25">
-      <c r="AM140" s="3"/>
+      <c r="AM140" s="1"/>
     </row>
     <row r="141" spans="39:39" x14ac:dyDescent="0.25">
-      <c r="AM141" s="3"/>
+      <c r="AM141" s="1"/>
     </row>
     <row r="142" spans="39:39" x14ac:dyDescent="0.25">
-      <c r="AM142" s="3"/>
+      <c r="AM142" s="1"/>
     </row>
     <row r="143" spans="39:39" x14ac:dyDescent="0.25">
-      <c r="AM143" s="3"/>
+      <c r="AM143" s="1"/>
     </row>
     <row r="144" spans="39:39" x14ac:dyDescent="0.25">
-      <c r="AM144" s="3"/>
+      <c r="AM144" s="1"/>
     </row>
     <row r="145" spans="39:39" x14ac:dyDescent="0.25">
-      <c r="AM145" s="3"/>
+      <c r="AM145" s="1"/>
     </row>
     <row r="146" spans="39:39" x14ac:dyDescent="0.25">
-      <c r="AM146" s="3"/>
+      <c r="AM146" s="1"/>
     </row>
     <row r="147" spans="39:39" x14ac:dyDescent="0.25">
-      <c r="AM147" s="3"/>
+      <c r="AM147" s="1"/>
     </row>
     <row r="148" spans="39:39" x14ac:dyDescent="0.25">
-      <c r="AM148" s="3"/>
+      <c r="AM148" s="1"/>
     </row>
     <row r="149" spans="39:39" x14ac:dyDescent="0.25">
-      <c r="AM149" s="3"/>
+      <c r="AM149" s="1"/>
     </row>
     <row r="150" spans="39:39" x14ac:dyDescent="0.25">
-      <c r="AM150" s="3"/>
+      <c r="AM150" s="1"/>
     </row>
     <row r="151" spans="39:39" x14ac:dyDescent="0.25">
-      <c r="AM151" s="3"/>
+      <c r="AM151" s="1"/>
     </row>
     <row r="152" spans="39:39" x14ac:dyDescent="0.25">
-      <c r="AM152" s="3"/>
+      <c r="AM152" s="1"/>
     </row>
     <row r="153" spans="39:39" x14ac:dyDescent="0.25">
-      <c r="AM153" s="3"/>
+      <c r="AM153" s="1"/>
     </row>
     <row r="154" spans="39:39" x14ac:dyDescent="0.25">
-      <c r="AM154" s="3"/>
+      <c r="AM154" s="1"/>
     </row>
     <row r="155" spans="39:39" x14ac:dyDescent="0.25">
-      <c r="AM155" s="3"/>
+      <c r="AM155" s="1"/>
     </row>
     <row r="156" spans="39:39" x14ac:dyDescent="0.25">
-      <c r="AM156" s="3"/>
+      <c r="AM156" s="1"/>
     </row>
     <row r="157" spans="39:39" x14ac:dyDescent="0.25">
-      <c r="AM157" s="3"/>
+      <c r="AM157" s="1"/>
     </row>
     <row r="158" spans="39:39" x14ac:dyDescent="0.25">
-      <c r="AM158" s="3"/>
+      <c r="AM158" s="1"/>
     </row>
     <row r="159" spans="39:39" x14ac:dyDescent="0.25">
-      <c r="AM159" s="3"/>
+      <c r="AM159" s="1"/>
     </row>
     <row r="160" spans="39:39" x14ac:dyDescent="0.25">
-      <c r="AM160" s="3"/>
+      <c r="AM160" s="1"/>
     </row>
     <row r="161" spans="39:39" x14ac:dyDescent="0.25">
-      <c r="AM161" s="3"/>
+      <c r="AM161" s="1"/>
     </row>
     <row r="162" spans="39:39" x14ac:dyDescent="0.25">
-      <c r="AM162" s="3"/>
+      <c r="AM162" s="1"/>
     </row>
     <row r="163" spans="39:39" x14ac:dyDescent="0.25">
-      <c r="AM163" s="3"/>
+      <c r="AM163" s="1"/>
     </row>
     <row r="164" spans="39:39" x14ac:dyDescent="0.25">
-      <c r="AM164" s="3"/>
+      <c r="AM164" s="1"/>
     </row>
     <row r="165" spans="39:39" x14ac:dyDescent="0.25">
-      <c r="AM165" s="3"/>
+      <c r="AM165" s="1"/>
     </row>
     <row r="166" spans="39:39" x14ac:dyDescent="0.25">
-      <c r="AM166" s="3"/>
+      <c r="AM166" s="1"/>
     </row>
     <row r="167" spans="39:39" x14ac:dyDescent="0.25">
-      <c r="AM167" s="3"/>
+      <c r="AM167" s="1"/>
     </row>
     <row r="168" spans="39:39" x14ac:dyDescent="0.25">
-      <c r="AM168" s="3"/>
+      <c r="AM168" s="1"/>
     </row>
     <row r="169" spans="39:39" x14ac:dyDescent="0.25">
-      <c r="AM169" s="3"/>
+      <c r="AM169" s="1"/>
     </row>
     <row r="170" spans="39:39" x14ac:dyDescent="0.25">
-      <c r="AM170" s="3"/>
+      <c r="AM170" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Documentation/Danske Personvogne.xlsx
+++ b/Documentation/Danske Personvogne.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\1993m\Documents\GitHub\Pak128.Nordic\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DFD8D23-BDCF-49C4-A78C-EE1D54EDF9AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C73FB5B8-2100-42CD-9FBF-BA7321BCDB3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -229,7 +229,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="804" uniqueCount="292">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1084" uniqueCount="336">
   <si>
     <t>name=BR-390FrontCab</t>
   </si>
@@ -1130,6 +1130,138 @@
   <si>
     <t>FF</t>
   </si>
+  <si>
+    <t>Kun FF-vogne og andre lette vogne</t>
+  </si>
+  <si>
+    <t>CRS</t>
+  </si>
+  <si>
+    <t>trykluft</t>
+  </si>
+  <si>
+    <t>CP (IV)</t>
+  </si>
+  <si>
+    <t>CPE</t>
+  </si>
+  <si>
+    <t>AU</t>
+  </si>
+  <si>
+    <t>CR</t>
+  </si>
+  <si>
+    <t>CAR</t>
+  </si>
+  <si>
+    <t>AC</t>
+  </si>
+  <si>
+    <t>AV</t>
+  </si>
+  <si>
+    <t>AUL</t>
+  </si>
+  <si>
+    <t>AUM</t>
+  </si>
+  <si>
+    <t>CRL</t>
+  </si>
+  <si>
+    <t>CLE</t>
+  </si>
+  <si>
+    <t>CC</t>
+  </si>
+  <si>
+    <t>DC</t>
+  </si>
+  <si>
+    <t>AD/AY</t>
+  </si>
+  <si>
+    <t>CLS</t>
+  </si>
+  <si>
+    <t>BL</t>
+  </si>
+  <si>
+    <t>AL</t>
+  </si>
+  <si>
+    <t>Bhs</t>
+  </si>
+  <si>
+    <t>Bhl</t>
+  </si>
+  <si>
+    <t>Bgc</t>
+  </si>
+  <si>
+    <t>B (I)</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>AB</t>
+  </si>
+  <si>
+    <t>BD</t>
+  </si>
+  <si>
+    <t>Bk</t>
+  </si>
+  <si>
+    <t>Bn</t>
+  </si>
+  <si>
+    <t>Bns</t>
+  </si>
+  <si>
+    <t>An</t>
+  </si>
+  <si>
+    <t>ADns</t>
+  </si>
+  <si>
+    <t>ABns</t>
+  </si>
+  <si>
+    <t>BDn</t>
+  </si>
+  <si>
+    <t>APO:</t>
+  </si>
+  <si>
+    <t>Bfs</t>
+  </si>
+  <si>
+    <t>Afm</t>
+  </si>
+  <si>
+    <t>Cfm</t>
+  </si>
+  <si>
+    <t>Bfm</t>
+  </si>
+  <si>
+    <t>Bk (III)</t>
+  </si>
+  <si>
+    <t>B (II)</t>
+  </si>
+  <si>
+    <t>2200mm?</t>
+  </si>
+  <si>
+    <t>ABs (I)</t>
+  </si>
+  <si>
+    <t>ABs (II)</t>
+  </si>
 </sst>
 </file>
 
@@ -1142,7 +1274,7 @@
     <numFmt numFmtId="168" formatCode="0&quot; pax&quot;"/>
     <numFmt numFmtId="169" formatCode="0&quot; mm&quot;"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1192,6 +1324,13 @@
       <name val="Tahoma"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1214,7 +1353,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -1233,6 +1372,15 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="167" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="168" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="169" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Link" xfId="1" builtinId="8"/>
@@ -1517,7 +1665,7 @@
   <dimension ref="A1:R80"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="R17" sqref="R17"/>
+      <selection activeCell="O17" sqref="O17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2254,13 +2402,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AX170"/>
+  <dimension ref="A1:AX171"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C39" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C82" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="O67" sqref="O67"/>
+      <selection pane="bottomRight" activeCell="A109" sqref="A109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5079,7 +5227,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="65" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>186</v>
       </c>
@@ -5117,230 +5265,1989 @@
       <c r="AO65" t="s">
         <v>232</v>
       </c>
-    </row>
-    <row r="66" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="AV65" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="66" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>186</v>
       </c>
+      <c r="B66" t="s">
+        <v>293</v>
+      </c>
+      <c r="F66">
+        <v>1951</v>
+      </c>
       <c r="J66" t="s">
         <v>187</v>
       </c>
+      <c r="M66" t="s">
+        <v>291</v>
+      </c>
       <c r="N66" t="s">
-        <v>195</v>
+        <v>273</v>
+      </c>
+      <c r="P66" s="8">
+        <v>500</v>
+      </c>
+      <c r="R66" s="9">
+        <v>52</v>
+      </c>
+      <c r="Y66" t="s">
+        <v>294</v>
+      </c>
+      <c r="AB66" s="7">
+        <v>33.4</v>
+      </c>
+      <c r="AC66">
+        <v>4</v>
+      </c>
+      <c r="AG66">
+        <v>1</v>
       </c>
       <c r="AH66" s="1"/>
       <c r="AI66">
         <v>1</v>
       </c>
-    </row>
-    <row r="67" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="AN66" s="11" t="s">
+        <v>258</v>
+      </c>
+      <c r="AO66" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="67" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>186</v>
       </c>
+      <c r="B67" t="s">
+        <v>295</v>
+      </c>
+      <c r="F67">
+        <v>1942</v>
+      </c>
       <c r="J67" t="s">
         <v>187</v>
       </c>
       <c r="N67" t="s">
         <v>195</v>
+      </c>
+      <c r="R67" s="9">
+        <v>74</v>
+      </c>
+      <c r="Y67" t="s">
+        <v>294</v>
+      </c>
+      <c r="AB67" s="7">
+        <v>30.8</v>
+      </c>
+      <c r="AC67">
+        <v>4</v>
       </c>
       <c r="AH67" s="1"/>
       <c r="AI67">
         <v>1</v>
       </c>
-    </row>
-    <row r="68" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="AN67" s="11" t="s">
+        <v>258</v>
+      </c>
+      <c r="AO67" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="68" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>186</v>
       </c>
+      <c r="B68" t="s">
+        <v>296</v>
+      </c>
+      <c r="F68">
+        <v>1939</v>
+      </c>
       <c r="J68" t="s">
         <v>187</v>
       </c>
       <c r="N68" t="s">
-        <v>195</v>
+        <v>273</v>
+      </c>
+      <c r="P68" s="8">
+        <v>500</v>
+      </c>
+      <c r="R68" s="9">
+        <v>52</v>
+      </c>
+      <c r="Y68" t="s">
+        <v>294</v>
+      </c>
+      <c r="AB68" s="7">
+        <v>33.6</v>
+      </c>
+      <c r="AC68">
+        <v>4</v>
       </c>
       <c r="AH68" s="1"/>
       <c r="AI68">
         <v>1</v>
       </c>
-    </row>
-    <row r="69" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="AN68" s="11" t="s">
+        <v>258</v>
+      </c>
+      <c r="AO68" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="69" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>186</v>
       </c>
+      <c r="B69" t="s">
+        <v>297</v>
+      </c>
+      <c r="F69">
+        <v>1932</v>
+      </c>
       <c r="J69" t="s">
         <v>187</v>
       </c>
       <c r="N69" t="s">
         <v>195</v>
+      </c>
+      <c r="R69" s="9">
+        <v>40</v>
+      </c>
+      <c r="S69" s="9">
+        <v>12</v>
+      </c>
+      <c r="T69" s="9">
+        <v>4</v>
+      </c>
+      <c r="Y69" t="s">
+        <v>247</v>
+      </c>
+      <c r="AB69" s="7">
+        <v>43.9</v>
+      </c>
+      <c r="AC69">
+        <v>4</v>
       </c>
       <c r="AH69" s="1"/>
       <c r="AI69">
         <v>1</v>
       </c>
-    </row>
-    <row r="70" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="AN69" s="11">
+        <v>1820</v>
+      </c>
+      <c r="AO69" t="s">
+        <v>232</v>
+      </c>
+      <c r="AP69" s="11">
+        <v>2300</v>
+      </c>
+      <c r="AQ69" t="s">
+        <v>232</v>
+      </c>
+      <c r="AR69" s="11">
+        <v>2300</v>
+      </c>
+      <c r="AS69" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="70" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>186</v>
       </c>
+      <c r="B70" t="s">
+        <v>298</v>
+      </c>
+      <c r="F70">
+        <v>1932</v>
+      </c>
       <c r="J70" t="s">
         <v>187</v>
       </c>
       <c r="N70" t="s">
         <v>195</v>
+      </c>
+      <c r="R70" s="9">
+        <v>68</v>
+      </c>
+      <c r="Y70" t="s">
+        <v>247</v>
+      </c>
+      <c r="AB70" s="7">
+        <v>42.5</v>
+      </c>
+      <c r="AC70">
+        <v>4</v>
       </c>
       <c r="AH70" s="1"/>
       <c r="AI70">
         <v>1</v>
       </c>
-    </row>
-    <row r="71" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="AN70" s="11">
+        <v>1848</v>
+      </c>
+      <c r="AO70" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="71" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>186</v>
       </c>
+      <c r="B71" t="s">
+        <v>299</v>
+      </c>
+      <c r="F71">
+        <v>1951</v>
+      </c>
       <c r="J71" t="s">
         <v>187</v>
       </c>
+      <c r="M71" t="s">
+        <v>298</v>
+      </c>
       <c r="N71" t="s">
         <v>195</v>
+      </c>
+      <c r="R71" s="9">
+        <v>24</v>
+      </c>
+      <c r="W71">
+        <v>4</v>
+      </c>
+      <c r="Y71" t="s">
+        <v>294</v>
+      </c>
+      <c r="AB71" s="7">
+        <v>44.3</v>
+      </c>
+      <c r="AC71">
+        <v>4</v>
       </c>
       <c r="AH71" s="1"/>
       <c r="AI71">
         <v>1</v>
       </c>
-    </row>
-    <row r="72" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="AN71" s="11">
+        <v>1848</v>
+      </c>
+      <c r="AO71" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="72" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>186</v>
       </c>
+      <c r="B72" t="s">
+        <v>300</v>
+      </c>
+      <c r="D72" s="6">
+        <v>120</v>
+      </c>
+      <c r="F72">
+        <v>1937</v>
+      </c>
+      <c r="H72">
+        <v>1952</v>
+      </c>
       <c r="J72" t="s">
         <v>187</v>
       </c>
       <c r="N72" t="s">
         <v>195</v>
+      </c>
+      <c r="S72" s="9">
+        <v>42</v>
+      </c>
+      <c r="Y72" t="s">
+        <v>247</v>
+      </c>
+      <c r="AB72" s="7">
+        <v>37</v>
+      </c>
+      <c r="AC72">
+        <v>4</v>
       </c>
       <c r="AH72" s="1"/>
       <c r="AI72">
         <v>1</v>
       </c>
-    </row>
-    <row r="73" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="AP72" s="11">
+        <v>2300</v>
+      </c>
+      <c r="AQ72" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="73" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>186</v>
+      </c>
+      <c r="B73" t="s">
+        <v>301</v>
+      </c>
+      <c r="D73" s="6">
+        <v>120</v>
+      </c>
+      <c r="F73">
+        <v>1938</v>
+      </c>
+      <c r="H73">
+        <v>1964</v>
+      </c>
+      <c r="J73" t="s">
+        <v>187</v>
+      </c>
+      <c r="N73" t="s">
+        <v>195</v>
+      </c>
+      <c r="R73" s="9">
+        <v>48</v>
+      </c>
+      <c r="S73" s="9">
+        <v>12</v>
+      </c>
+      <c r="Y73" t="s">
+        <v>247</v>
+      </c>
+      <c r="AB73" s="7">
+        <v>35.299999999999997</v>
+      </c>
+      <c r="AC73">
+        <v>4</v>
+      </c>
       <c r="AH73" s="1"/>
-    </row>
-    <row r="74" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="AI73">
+        <v>1</v>
+      </c>
+      <c r="AN73" s="11">
+        <v>1825</v>
+      </c>
+      <c r="AO73" t="s">
+        <v>232</v>
+      </c>
+      <c r="AP73" s="11">
+        <v>2300</v>
+      </c>
+      <c r="AQ73" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="74" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>186</v>
+      </c>
+      <c r="B74" t="s">
+        <v>302</v>
+      </c>
+      <c r="F74">
+        <v>1939</v>
+      </c>
+      <c r="J74" t="s">
+        <v>187</v>
+      </c>
+      <c r="N74" t="s">
+        <v>195</v>
+      </c>
+      <c r="R74" s="9">
+        <v>40</v>
+      </c>
+      <c r="S74" s="9">
+        <v>18</v>
+      </c>
+      <c r="Y74" t="s">
+        <v>247</v>
+      </c>
+      <c r="AB74" s="7">
+        <v>31</v>
+      </c>
+      <c r="AC74">
+        <v>4</v>
+      </c>
       <c r="AH74" s="1"/>
-    </row>
-    <row r="75" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="AI74">
+        <v>1</v>
+      </c>
+      <c r="AN74" s="11">
+        <v>1842</v>
+      </c>
+      <c r="AO74" t="s">
+        <v>232</v>
+      </c>
+      <c r="AP74" s="11">
+        <v>2300</v>
+      </c>
+      <c r="AQ74" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="75" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>186</v>
+      </c>
+      <c r="B75" t="s">
+        <v>303</v>
+      </c>
+      <c r="F75">
+        <v>1939</v>
+      </c>
+      <c r="J75" t="s">
+        <v>187</v>
+      </c>
+      <c r="N75" t="s">
+        <v>195</v>
+      </c>
+      <c r="R75" s="9">
+        <v>32</v>
+      </c>
+      <c r="S75" s="9">
+        <v>18</v>
+      </c>
+      <c r="W75">
+        <v>2</v>
+      </c>
+      <c r="Y75" t="s">
+        <v>247</v>
+      </c>
+      <c r="AB75" s="7">
+        <v>30</v>
+      </c>
+      <c r="AC75">
+        <v>4</v>
+      </c>
       <c r="AH75" s="1"/>
-    </row>
-    <row r="76" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="AI75">
+        <v>1</v>
+      </c>
+      <c r="AN75" s="11">
+        <v>1772</v>
+      </c>
+      <c r="AO75" t="s">
+        <v>232</v>
+      </c>
+      <c r="AP75" s="11">
+        <v>2180</v>
+      </c>
+      <c r="AQ75" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="76" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>186</v>
+      </c>
+      <c r="B76" t="s">
+        <v>304</v>
+      </c>
+      <c r="D76" s="6">
+        <v>120</v>
+      </c>
+      <c r="F76">
+        <v>1939</v>
+      </c>
+      <c r="J76" t="s">
+        <v>187</v>
+      </c>
+      <c r="N76" t="s">
+        <v>195</v>
+      </c>
+      <c r="R76" s="9">
+        <v>72</v>
+      </c>
+      <c r="Y76" t="s">
+        <v>247</v>
+      </c>
+      <c r="AB76" s="7">
+        <v>35.200000000000003</v>
+      </c>
+      <c r="AC76">
+        <v>4</v>
+      </c>
       <c r="AH76" s="1"/>
-    </row>
-    <row r="77" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="AI76">
+        <v>1</v>
+      </c>
+      <c r="AN76" s="11">
+        <v>1788</v>
+      </c>
+      <c r="AO76" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="77" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>186</v>
+      </c>
+      <c r="B77" t="s">
+        <v>257</v>
+      </c>
+      <c r="D77" s="6">
+        <v>110</v>
+      </c>
+      <c r="F77">
+        <v>1943</v>
+      </c>
+      <c r="H77">
+        <v>1963</v>
+      </c>
+      <c r="J77" t="s">
+        <v>187</v>
+      </c>
+      <c r="N77" t="s">
+        <v>195</v>
+      </c>
+      <c r="R77" s="9">
+        <v>87</v>
+      </c>
+      <c r="Y77" t="s">
+        <v>294</v>
+      </c>
+      <c r="AB77" s="7">
+        <v>28.7</v>
+      </c>
+      <c r="AC77">
+        <v>4</v>
+      </c>
       <c r="AH77" s="1"/>
-    </row>
-    <row r="78" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="AI77">
+        <v>1</v>
+      </c>
+      <c r="AN77" s="11" t="s">
+        <v>258</v>
+      </c>
+      <c r="AO77" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="78" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>186</v>
+      </c>
+      <c r="B78" t="s">
+        <v>305</v>
+      </c>
+      <c r="D78" s="6">
+        <v>100</v>
+      </c>
+      <c r="F78">
+        <v>1943</v>
+      </c>
+      <c r="H78">
+        <v>1963</v>
+      </c>
+      <c r="J78" t="s">
+        <v>187</v>
+      </c>
+      <c r="N78" t="s">
+        <v>195</v>
+      </c>
+      <c r="P78" s="8">
+        <v>500</v>
+      </c>
+      <c r="R78" s="9">
+        <v>61</v>
+      </c>
+      <c r="Y78" t="s">
+        <v>294</v>
+      </c>
+      <c r="AB78" s="7">
+        <v>28.4</v>
+      </c>
+      <c r="AC78">
+        <v>4</v>
+      </c>
       <c r="AH78" s="1"/>
-    </row>
-    <row r="79" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="AI78">
+        <v>1</v>
+      </c>
+      <c r="AN78" s="11" t="s">
+        <v>258</v>
+      </c>
+      <c r="AO78" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="79" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>186</v>
+      </c>
+      <c r="B79" t="s">
+        <v>306</v>
+      </c>
+      <c r="D79" s="6">
+        <v>140</v>
+      </c>
+      <c r="F79">
+        <v>1950</v>
+      </c>
+      <c r="H79">
+        <v>1964</v>
+      </c>
+      <c r="J79" t="s">
+        <v>187</v>
+      </c>
+      <c r="N79" t="s">
+        <v>195</v>
+      </c>
+      <c r="R79" s="9">
+        <v>72</v>
+      </c>
+      <c r="Y79" t="s">
+        <v>294</v>
+      </c>
+      <c r="AB79" s="7">
+        <v>34</v>
+      </c>
+      <c r="AC79">
+        <v>4</v>
+      </c>
       <c r="AH79" s="1"/>
-    </row>
-    <row r="80" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="AI79">
+        <v>1</v>
+      </c>
+      <c r="AN79" s="11">
+        <v>1790</v>
+      </c>
+      <c r="AO79" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="80" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>186</v>
+      </c>
+      <c r="B80" t="s">
+        <v>307</v>
+      </c>
+      <c r="F80">
+        <v>1950</v>
+      </c>
+      <c r="J80" t="s">
+        <v>187</v>
+      </c>
+      <c r="N80" t="s">
+        <v>198</v>
+      </c>
+      <c r="P80" s="8">
+        <v>12500</v>
+      </c>
+      <c r="Y80" t="s">
+        <v>294</v>
+      </c>
+      <c r="AB80" s="7">
+        <v>30.7</v>
+      </c>
+      <c r="AC80">
+        <v>4</v>
+      </c>
       <c r="AH80" s="1"/>
-    </row>
-    <row r="81" spans="34:34" x14ac:dyDescent="0.25">
+      <c r="AI80">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>186</v>
+      </c>
+      <c r="B81" t="s">
+        <v>308</v>
+      </c>
+      <c r="D81" s="6">
+        <v>140</v>
+      </c>
+      <c r="F81">
+        <v>1951</v>
+      </c>
+      <c r="J81" t="s">
+        <v>187</v>
+      </c>
+      <c r="N81" t="s">
+        <v>195</v>
+      </c>
+      <c r="R81" s="9">
+        <v>40</v>
+      </c>
+      <c r="S81" s="9">
+        <v>60</v>
+      </c>
+      <c r="Y81" t="s">
+        <v>294</v>
+      </c>
+      <c r="AB81" s="7">
+        <v>67</v>
+      </c>
+      <c r="AC81">
+        <v>6</v>
+      </c>
       <c r="AH81" s="1"/>
-    </row>
-    <row r="82" spans="34:34" x14ac:dyDescent="0.25">
+      <c r="AI81">
+        <v>1</v>
+      </c>
+      <c r="AN81" s="11">
+        <v>1900</v>
+      </c>
+      <c r="AO81" t="s">
+        <v>232</v>
+      </c>
+      <c r="AP81" s="11">
+        <v>1944</v>
+      </c>
+      <c r="AQ81" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="82" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>186</v>
+      </c>
+      <c r="B82" t="s">
+        <v>309</v>
+      </c>
+      <c r="D82" s="6">
+        <v>120</v>
+      </c>
+      <c r="F82">
+        <v>1960</v>
+      </c>
+      <c r="J82" t="s">
+        <v>187</v>
+      </c>
+      <c r="N82" t="s">
+        <v>195</v>
+      </c>
+      <c r="R82" s="9">
+        <v>87</v>
+      </c>
+      <c r="Y82" t="s">
+        <v>294</v>
+      </c>
+      <c r="AB82" s="7">
+        <v>37</v>
+      </c>
+      <c r="AC82">
+        <v>4</v>
+      </c>
+      <c r="AG82">
+        <v>1</v>
+      </c>
       <c r="AH82" s="1"/>
-    </row>
-    <row r="83" spans="34:34" x14ac:dyDescent="0.25">
+      <c r="AI82">
+        <v>1</v>
+      </c>
+      <c r="AN82" s="11" t="s">
+        <v>258</v>
+      </c>
+      <c r="AO82" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="83" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>186</v>
+      </c>
+      <c r="B83" t="s">
+        <v>310</v>
+      </c>
+      <c r="D83" s="6">
+        <v>140</v>
+      </c>
+      <c r="F83">
+        <v>1959</v>
+      </c>
+      <c r="J83" t="s">
+        <v>187</v>
+      </c>
+      <c r="N83" t="s">
+        <v>195</v>
+      </c>
+      <c r="R83" s="9">
+        <v>60</v>
+      </c>
+      <c r="Y83" t="s">
+        <v>294</v>
+      </c>
+      <c r="AB83" s="7">
+        <v>34</v>
+      </c>
+      <c r="AC83">
+        <v>4</v>
+      </c>
       <c r="AH83" s="1"/>
-    </row>
-    <row r="84" spans="34:34" x14ac:dyDescent="0.25">
+      <c r="AI83">
+        <v>1</v>
+      </c>
+      <c r="AN83" s="11" t="s">
+        <v>258</v>
+      </c>
+      <c r="AO83" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="84" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>186</v>
+      </c>
+      <c r="B84" t="s">
+        <v>311</v>
+      </c>
+      <c r="D84" s="6">
+        <v>140</v>
+      </c>
+      <c r="F84">
+        <v>1959</v>
+      </c>
+      <c r="J84" t="s">
+        <v>187</v>
+      </c>
+      <c r="N84" t="s">
+        <v>195</v>
+      </c>
+      <c r="S84" s="9">
+        <v>56</v>
+      </c>
+      <c r="Y84" t="s">
+        <v>294</v>
+      </c>
+      <c r="AB84" s="7">
+        <v>34.5</v>
+      </c>
+      <c r="AC84">
+        <v>4</v>
+      </c>
       <c r="AH84" s="1"/>
-    </row>
-    <row r="85" spans="34:34" x14ac:dyDescent="0.25">
+      <c r="AI84">
+        <v>1</v>
+      </c>
+      <c r="AN84" s="11" t="s">
+        <v>258</v>
+      </c>
+      <c r="AO84" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="85" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>186</v>
+      </c>
+      <c r="B85" t="s">
+        <v>312</v>
+      </c>
+      <c r="D85" s="6">
+        <v>100</v>
+      </c>
+      <c r="F85">
+        <v>1968</v>
+      </c>
+      <c r="J85" t="s">
+        <v>187</v>
+      </c>
+      <c r="N85" t="s">
+        <v>195</v>
+      </c>
+      <c r="R85" s="9">
+        <v>72</v>
+      </c>
+      <c r="Y85" t="s">
+        <v>294</v>
+      </c>
+      <c r="AB85" s="7">
+        <v>37</v>
+      </c>
+      <c r="AC85">
+        <v>4</v>
+      </c>
+      <c r="AG85">
+        <v>1</v>
+      </c>
       <c r="AH85" s="1"/>
-    </row>
-    <row r="86" spans="34:34" x14ac:dyDescent="0.25">
+      <c r="AI85">
+        <v>1</v>
+      </c>
+      <c r="AN85" s="11" t="s">
+        <v>258</v>
+      </c>
+      <c r="AO85" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="86" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>186</v>
+      </c>
+      <c r="B86" t="s">
+        <v>313</v>
+      </c>
+      <c r="D86" s="6">
+        <v>100</v>
+      </c>
+      <c r="F86">
+        <v>1968</v>
+      </c>
+      <c r="J86" t="s">
+        <v>187</v>
+      </c>
+      <c r="N86" t="s">
+        <v>195</v>
+      </c>
+      <c r="R86" s="9">
+        <v>70</v>
+      </c>
+      <c r="Y86" t="s">
+        <v>294</v>
+      </c>
+      <c r="AB86" s="7">
+        <v>37</v>
+      </c>
+      <c r="AC86">
+        <v>4</v>
+      </c>
       <c r="AH86" s="1"/>
-    </row>
-    <row r="87" spans="34:34" x14ac:dyDescent="0.25">
+      <c r="AI86">
+        <v>1</v>
+      </c>
+      <c r="AN86" s="11" t="s">
+        <v>258</v>
+      </c>
+      <c r="AO86" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="87" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>186</v>
+      </c>
+      <c r="B87" t="s">
+        <v>314</v>
+      </c>
+      <c r="D87" s="6">
+        <v>140</v>
+      </c>
+      <c r="F87">
+        <v>1969</v>
+      </c>
+      <c r="J87" t="s">
+        <v>187</v>
+      </c>
+      <c r="N87" t="s">
+        <v>195</v>
+      </c>
+      <c r="R87" s="9">
+        <v>45</v>
+      </c>
+      <c r="Y87" t="s">
+        <v>294</v>
+      </c>
+      <c r="AB87" s="7">
+        <v>37</v>
+      </c>
+      <c r="AC87">
+        <v>4</v>
+      </c>
       <c r="AH87" s="1"/>
-    </row>
-    <row r="88" spans="34:34" x14ac:dyDescent="0.25">
+      <c r="AI87">
+        <v>1</v>
+      </c>
+      <c r="AN87" s="11">
+        <v>2048</v>
+      </c>
+      <c r="AO87" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="88" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>186</v>
+      </c>
+      <c r="B88" t="s">
+        <v>315</v>
+      </c>
+      <c r="D88" s="6">
+        <v>160</v>
+      </c>
+      <c r="F88">
+        <v>1964</v>
+      </c>
+      <c r="J88" t="s">
+        <v>187</v>
+      </c>
+      <c r="M88" t="s">
+        <v>315</v>
+      </c>
+      <c r="N88" t="s">
+        <v>195</v>
+      </c>
+      <c r="R88" s="9">
+        <v>80</v>
+      </c>
+      <c r="Y88" t="s">
+        <v>294</v>
+      </c>
+      <c r="AB88" s="7">
+        <v>37</v>
+      </c>
+      <c r="AC88">
+        <v>4</v>
+      </c>
       <c r="AH88" s="1"/>
-    </row>
-    <row r="89" spans="34:34" x14ac:dyDescent="0.25">
+      <c r="AI88">
+        <v>1</v>
+      </c>
+      <c r="AN88" s="11">
+        <v>1901</v>
+      </c>
+      <c r="AO88" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="89" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>186</v>
+      </c>
+      <c r="B89" t="s">
+        <v>315</v>
+      </c>
+      <c r="D89" s="6">
+        <v>160</v>
+      </c>
+      <c r="F89">
+        <v>1974</v>
+      </c>
+      <c r="H89">
+        <v>1983</v>
+      </c>
+      <c r="J89" t="s">
+        <v>187</v>
+      </c>
+      <c r="M89" t="s">
+        <v>315</v>
+      </c>
+      <c r="N89" t="s">
+        <v>195</v>
+      </c>
+      <c r="R89" s="9">
+        <v>60</v>
+      </c>
+      <c r="Y89" t="s">
+        <v>294</v>
+      </c>
+      <c r="AB89" s="7">
+        <v>37</v>
+      </c>
+      <c r="AC89">
+        <v>4</v>
+      </c>
       <c r="AH89" s="1"/>
-    </row>
-    <row r="90" spans="34:34" x14ac:dyDescent="0.25">
+      <c r="AI89">
+        <v>1</v>
+      </c>
+      <c r="AN89" s="11">
+        <v>1901</v>
+      </c>
+      <c r="AO89" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="90" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>186</v>
+      </c>
+      <c r="B90" t="s">
+        <v>316</v>
+      </c>
+      <c r="D90" s="6">
+        <v>160</v>
+      </c>
+      <c r="F90">
+        <v>1966</v>
+      </c>
+      <c r="H90">
+        <v>1974</v>
+      </c>
+      <c r="J90" t="s">
+        <v>187</v>
+      </c>
+      <c r="N90" t="s">
+        <v>195</v>
+      </c>
+      <c r="S90" s="9">
+        <v>48</v>
+      </c>
+      <c r="Y90" t="s">
+        <v>294</v>
+      </c>
+      <c r="AB90" s="7">
+        <v>40</v>
+      </c>
+      <c r="AC90">
+        <v>4</v>
+      </c>
       <c r="AH90" s="1"/>
-    </row>
-    <row r="91" spans="34:34" x14ac:dyDescent="0.25">
+      <c r="AI90">
+        <v>1</v>
+      </c>
+      <c r="AP90" s="11">
+        <v>2300</v>
+      </c>
+      <c r="AQ90" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="91" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>186</v>
+      </c>
+      <c r="B91" t="s">
+        <v>317</v>
+      </c>
+      <c r="D91" s="6">
+        <v>160</v>
+      </c>
+      <c r="F91">
+        <v>1969</v>
+      </c>
+      <c r="H91">
+        <v>1970</v>
+      </c>
+      <c r="J91" t="s">
+        <v>187</v>
+      </c>
+      <c r="N91" t="s">
+        <v>195</v>
+      </c>
+      <c r="R91" s="9">
+        <v>40</v>
+      </c>
+      <c r="S91" s="9">
+        <v>24</v>
+      </c>
+      <c r="Y91" t="s">
+        <v>294</v>
+      </c>
+      <c r="AB91" s="7">
+        <v>37</v>
+      </c>
+      <c r="AC91">
+        <v>4</v>
+      </c>
       <c r="AH91" s="1"/>
-    </row>
-    <row r="92" spans="34:34" x14ac:dyDescent="0.25">
+      <c r="AI91">
+        <v>1</v>
+      </c>
+      <c r="AN91" s="11">
+        <v>1901</v>
+      </c>
+      <c r="AO91" t="s">
+        <v>232</v>
+      </c>
+      <c r="AP91" s="11">
+        <v>2300</v>
+      </c>
+      <c r="AQ91" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="92" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>186</v>
+      </c>
+      <c r="B92" t="s">
+        <v>318</v>
+      </c>
+      <c r="D92" s="6">
+        <v>160</v>
+      </c>
+      <c r="F92">
+        <v>1968</v>
+      </c>
+      <c r="H92">
+        <v>1970</v>
+      </c>
+      <c r="J92" t="s">
+        <v>187</v>
+      </c>
+      <c r="N92" t="s">
+        <v>195</v>
+      </c>
+      <c r="R92" s="9">
+        <v>48</v>
+      </c>
+      <c r="Y92" t="s">
+        <v>294</v>
+      </c>
+      <c r="AB92" s="7">
+        <v>36.5</v>
+      </c>
+      <c r="AC92">
+        <v>4</v>
+      </c>
       <c r="AH92" s="1"/>
-    </row>
-    <row r="93" spans="34:34" x14ac:dyDescent="0.25">
+      <c r="AI92">
+        <v>1</v>
+      </c>
+      <c r="AN92" s="11">
+        <v>1901</v>
+      </c>
+      <c r="AO92" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="93" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>186</v>
+      </c>
+      <c r="B93" t="s">
+        <v>319</v>
+      </c>
+      <c r="D93" s="6">
+        <v>160</v>
+      </c>
+      <c r="F93">
+        <v>1973</v>
+      </c>
+      <c r="J93" t="s">
+        <v>187</v>
+      </c>
+      <c r="M93" t="s">
+        <v>315</v>
+      </c>
+      <c r="N93" t="s">
+        <v>195</v>
+      </c>
+      <c r="R93" s="9">
+        <v>48</v>
+      </c>
+      <c r="W93">
+        <v>2</v>
+      </c>
+      <c r="Y93" t="s">
+        <v>294</v>
+      </c>
+      <c r="AB93" s="7">
+        <v>40</v>
+      </c>
+      <c r="AC93">
+        <v>4</v>
+      </c>
       <c r="AH93" s="1"/>
-    </row>
-    <row r="94" spans="34:34" x14ac:dyDescent="0.25">
+      <c r="AI93">
+        <v>1</v>
+      </c>
+      <c r="AN93" s="11">
+        <v>1901</v>
+      </c>
+      <c r="AO93" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="94" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>186</v>
+      </c>
+      <c r="B94" t="s">
+        <v>320</v>
+      </c>
+      <c r="D94" s="6">
+        <v>160</v>
+      </c>
+      <c r="F94">
+        <v>1971</v>
+      </c>
+      <c r="H94">
+        <v>1983</v>
+      </c>
+      <c r="J94" t="s">
+        <v>187</v>
+      </c>
+      <c r="N94" t="s">
+        <v>195</v>
+      </c>
+      <c r="R94" s="9">
+        <v>80</v>
+      </c>
+      <c r="Y94" t="s">
+        <v>294</v>
+      </c>
+      <c r="AB94" s="7">
+        <v>40</v>
+      </c>
+      <c r="AC94">
+        <v>4</v>
+      </c>
       <c r="AH94" s="1"/>
-    </row>
-    <row r="95" spans="34:34" x14ac:dyDescent="0.25">
+      <c r="AI94">
+        <v>1</v>
+      </c>
+      <c r="AN94" s="11" t="s">
+        <v>258</v>
+      </c>
+      <c r="AO94" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="95" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>186</v>
+      </c>
+      <c r="B95" t="s">
+        <v>321</v>
+      </c>
+      <c r="D95" s="6">
+        <v>160</v>
+      </c>
+      <c r="F95">
+        <v>1972</v>
+      </c>
+      <c r="H95">
+        <v>1983</v>
+      </c>
+      <c r="J95" t="s">
+        <v>187</v>
+      </c>
+      <c r="N95" t="s">
+        <v>195</v>
+      </c>
+      <c r="R95" s="9">
+        <v>72</v>
+      </c>
+      <c r="Y95" t="s">
+        <v>294</v>
+      </c>
+      <c r="AB95" s="7">
+        <v>40</v>
+      </c>
+      <c r="AC95">
+        <v>4</v>
+      </c>
       <c r="AH95" s="1"/>
-    </row>
-    <row r="96" spans="34:34" x14ac:dyDescent="0.25">
+      <c r="AI95">
+        <v>1</v>
+      </c>
+      <c r="AN95" s="11" t="s">
+        <v>258</v>
+      </c>
+      <c r="AO95" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="96" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>186</v>
+      </c>
+      <c r="B96" t="s">
+        <v>322</v>
+      </c>
+      <c r="D96" s="6">
+        <v>160</v>
+      </c>
+      <c r="F96">
+        <v>1972</v>
+      </c>
+      <c r="J96" t="s">
+        <v>187</v>
+      </c>
+      <c r="N96" t="s">
+        <v>195</v>
+      </c>
+      <c r="S96" s="9">
+        <v>64</v>
+      </c>
+      <c r="Y96" t="s">
+        <v>294</v>
+      </c>
+      <c r="AB96" s="7">
+        <v>40</v>
+      </c>
+      <c r="AC96">
+        <v>4</v>
+      </c>
       <c r="AH96" s="1"/>
-    </row>
-    <row r="97" spans="34:34" x14ac:dyDescent="0.25">
+      <c r="AI96">
+        <v>1</v>
+      </c>
+      <c r="AP96" s="11" t="s">
+        <v>258</v>
+      </c>
+      <c r="AQ96" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="97" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>186</v>
+      </c>
+      <c r="B97" t="s">
+        <v>323</v>
+      </c>
+      <c r="D97" s="6">
+        <v>160</v>
+      </c>
+      <c r="F97">
+        <v>1989</v>
+      </c>
+      <c r="J97" t="s">
+        <v>187</v>
+      </c>
+      <c r="M97" t="s">
+        <v>321</v>
+      </c>
+      <c r="N97" t="s">
+        <v>195</v>
+      </c>
+      <c r="S97" s="9">
+        <v>30</v>
+      </c>
+      <c r="Y97" t="s">
+        <v>294</v>
+      </c>
+      <c r="AB97" s="7">
+        <v>37.5</v>
+      </c>
+      <c r="AC97">
+        <v>4</v>
+      </c>
+      <c r="AG97">
+        <v>1</v>
+      </c>
       <c r="AH97" s="1"/>
-    </row>
-    <row r="98" spans="34:34" x14ac:dyDescent="0.25">
+      <c r="AI97">
+        <v>1</v>
+      </c>
+      <c r="AP97" s="11" t="s">
+        <v>258</v>
+      </c>
+      <c r="AQ97" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="98" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>186</v>
+      </c>
+      <c r="B98" t="s">
+        <v>324</v>
+      </c>
+      <c r="D98" s="6">
+        <v>160</v>
+      </c>
+      <c r="F98">
+        <v>1989</v>
+      </c>
+      <c r="J98" t="s">
+        <v>187</v>
+      </c>
+      <c r="M98" t="s">
+        <v>321</v>
+      </c>
+      <c r="N98" t="s">
+        <v>195</v>
+      </c>
+      <c r="R98" s="9">
+        <v>12</v>
+      </c>
+      <c r="S98" s="9">
+        <v>18</v>
+      </c>
+      <c r="Y98" t="s">
+        <v>294</v>
+      </c>
+      <c r="AB98" s="7">
+        <v>37.5</v>
+      </c>
+      <c r="AC98">
+        <v>4</v>
+      </c>
+      <c r="AG98">
+        <v>1</v>
+      </c>
       <c r="AH98" s="1"/>
-    </row>
-    <row r="99" spans="34:34" x14ac:dyDescent="0.25">
+      <c r="AI98">
+        <v>1</v>
+      </c>
+      <c r="AN98" s="11" t="s">
+        <v>258</v>
+      </c>
+      <c r="AO98" t="s">
+        <v>232</v>
+      </c>
+      <c r="AP98" s="11" t="s">
+        <v>258</v>
+      </c>
+      <c r="AQ98" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="99" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>186</v>
+      </c>
+      <c r="B99" t="s">
+        <v>325</v>
+      </c>
+      <c r="D99" s="6">
+        <v>160</v>
+      </c>
+      <c r="F99">
+        <v>1993</v>
+      </c>
+      <c r="J99" t="s">
+        <v>187</v>
+      </c>
+      <c r="N99" t="s">
+        <v>195</v>
+      </c>
+      <c r="R99" s="9">
+        <v>48</v>
+      </c>
+      <c r="Y99" t="s">
+        <v>294</v>
+      </c>
+      <c r="AB99" s="7">
+        <v>36</v>
+      </c>
+      <c r="AC99">
+        <v>4</v>
+      </c>
       <c r="AH99" s="1"/>
-    </row>
-    <row r="100" spans="34:34" x14ac:dyDescent="0.25">
-      <c r="AH100" s="1"/>
-    </row>
-    <row r="101" spans="34:34" x14ac:dyDescent="0.25">
+      <c r="AI99">
+        <v>1</v>
+      </c>
+      <c r="AN99" s="11" t="s">
+        <v>258</v>
+      </c>
+      <c r="AO99" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="100" spans="1:46" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A100" s="12" t="s">
+        <v>186</v>
+      </c>
+      <c r="B100" s="12" t="s">
+        <v>326</v>
+      </c>
+      <c r="D100" s="13">
+        <v>160</v>
+      </c>
+      <c r="F100" s="12">
+        <v>1982</v>
+      </c>
+      <c r="J100" s="12" t="s">
+        <v>187</v>
+      </c>
+      <c r="N100" s="12" t="s">
+        <v>195</v>
+      </c>
+      <c r="P100" s="14"/>
+      <c r="Q100" s="15"/>
+      <c r="R100" s="15">
+        <v>230</v>
+      </c>
+      <c r="S100" s="15">
+        <v>60</v>
+      </c>
+      <c r="T100" s="15"/>
+      <c r="U100" s="15"/>
+      <c r="V100" s="15"/>
+      <c r="Y100" s="12" t="s">
+        <v>294</v>
+      </c>
+      <c r="AB100" s="16">
+        <v>54</v>
+      </c>
+      <c r="AC100" s="12">
+        <v>4</v>
+      </c>
+      <c r="AH100" s="17"/>
+      <c r="AI100" s="12">
+        <v>1</v>
+      </c>
+      <c r="AL100" s="18"/>
+      <c r="AN100" s="18"/>
+      <c r="AP100" s="18"/>
+      <c r="AR100" s="18"/>
+      <c r="AT100" s="18"/>
+    </row>
+    <row r="101" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>186</v>
+      </c>
+      <c r="B101" t="s">
+        <v>327</v>
+      </c>
+      <c r="D101" s="6">
+        <v>160</v>
+      </c>
+      <c r="F101">
+        <v>1982</v>
+      </c>
+      <c r="J101" t="s">
+        <v>187</v>
+      </c>
+      <c r="N101" t="s">
+        <v>195</v>
+      </c>
+      <c r="R101" s="9">
+        <v>74</v>
+      </c>
+      <c r="Y101" t="s">
+        <v>294</v>
+      </c>
+      <c r="AB101" s="7">
+        <v>54</v>
+      </c>
+      <c r="AC101">
+        <v>4</v>
+      </c>
+      <c r="AG101">
+        <v>1</v>
+      </c>
       <c r="AH101" s="1"/>
-    </row>
-    <row r="102" spans="34:34" x14ac:dyDescent="0.25">
+      <c r="AI101">
+        <v>1</v>
+      </c>
+      <c r="AN101" s="11" t="s">
+        <v>258</v>
+      </c>
+      <c r="AO101" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="102" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>186</v>
+      </c>
+      <c r="B102" t="s">
+        <v>328</v>
+      </c>
+      <c r="D102" s="6">
+        <v>160</v>
+      </c>
+      <c r="F102">
+        <v>1982</v>
+      </c>
+      <c r="J102" t="s">
+        <v>187</v>
+      </c>
+      <c r="N102" t="s">
+        <v>195</v>
+      </c>
+      <c r="S102" s="9">
+        <v>60</v>
+      </c>
+      <c r="Y102" t="s">
+        <v>294</v>
+      </c>
+      <c r="AB102" s="7">
+        <v>54</v>
+      </c>
+      <c r="AC102">
+        <v>4</v>
+      </c>
       <c r="AH102" s="1"/>
-    </row>
-    <row r="103" spans="34:34" x14ac:dyDescent="0.25">
+      <c r="AI102">
+        <v>1</v>
+      </c>
+      <c r="AP102" s="11" t="s">
+        <v>333</v>
+      </c>
+      <c r="AQ102" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="103" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>186</v>
+      </c>
+      <c r="B103" t="s">
+        <v>329</v>
+      </c>
+      <c r="D103" s="6">
+        <v>160</v>
+      </c>
+      <c r="F103">
+        <v>1982</v>
+      </c>
+      <c r="J103" t="s">
+        <v>187</v>
+      </c>
+      <c r="N103" t="s">
+        <v>195</v>
+      </c>
+      <c r="R103" s="9">
+        <v>10</v>
+      </c>
+      <c r="W103">
+        <v>3</v>
+      </c>
+      <c r="Y103" t="s">
+        <v>294</v>
+      </c>
+      <c r="AB103" s="7">
+        <v>54</v>
+      </c>
+      <c r="AC103">
+        <v>4</v>
+      </c>
       <c r="AH103" s="1"/>
-    </row>
-    <row r="104" spans="34:34" x14ac:dyDescent="0.25">
+      <c r="AI103">
+        <v>1</v>
+      </c>
+      <c r="AN103" s="11" t="s">
+        <v>333</v>
+      </c>
+      <c r="AO103" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="104" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>186</v>
+      </c>
+      <c r="B104" t="s">
+        <v>330</v>
+      </c>
+      <c r="D104" s="6">
+        <v>160</v>
+      </c>
+      <c r="F104">
+        <v>1982</v>
+      </c>
+      <c r="J104" t="s">
+        <v>187</v>
+      </c>
+      <c r="N104" t="s">
+        <v>195</v>
+      </c>
+      <c r="R104" s="9">
+        <v>72</v>
+      </c>
+      <c r="Y104" t="s">
+        <v>294</v>
+      </c>
+      <c r="AB104" s="7">
+        <v>54</v>
+      </c>
+      <c r="AC104">
+        <v>4</v>
+      </c>
       <c r="AH104" s="1"/>
-    </row>
-    <row r="105" spans="34:34" x14ac:dyDescent="0.25">
+      <c r="AI104">
+        <v>1</v>
+      </c>
+      <c r="AN104" s="11" t="s">
+        <v>258</v>
+      </c>
+      <c r="AO104" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="105" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>186</v>
+      </c>
+      <c r="B105" t="s">
+        <v>334</v>
+      </c>
+      <c r="D105" s="6">
+        <v>160</v>
+      </c>
+      <c r="F105">
+        <v>2002</v>
+      </c>
+      <c r="J105" t="s">
+        <v>187</v>
+      </c>
+      <c r="N105" t="s">
+        <v>195</v>
+      </c>
+      <c r="R105" s="9">
+        <v>14</v>
+      </c>
+      <c r="S105" s="9">
+        <v>33</v>
+      </c>
+      <c r="Y105" t="s">
+        <v>294</v>
+      </c>
+      <c r="AB105" s="7">
+        <v>52</v>
+      </c>
+      <c r="AC105">
+        <v>4</v>
+      </c>
+      <c r="AG105">
+        <v>1</v>
+      </c>
       <c r="AH105" s="1"/>
-    </row>
-    <row r="106" spans="34:34" x14ac:dyDescent="0.25">
+      <c r="AI105">
+        <v>1</v>
+      </c>
+      <c r="AN105" s="11" t="s">
+        <v>258</v>
+      </c>
+      <c r="AO105" t="s">
+        <v>232</v>
+      </c>
+      <c r="AP105" s="11" t="s">
+        <v>258</v>
+      </c>
+      <c r="AQ105" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="106" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>186</v>
+      </c>
+      <c r="B106" t="s">
+        <v>331</v>
+      </c>
+      <c r="D106" s="6">
+        <v>160</v>
+      </c>
+      <c r="F106">
+        <v>2002</v>
+      </c>
+      <c r="J106" t="s">
+        <v>187</v>
+      </c>
+      <c r="N106" t="s">
+        <v>195</v>
+      </c>
+      <c r="R106" s="9">
+        <v>102</v>
+      </c>
+      <c r="W106">
+        <v>1</v>
+      </c>
+      <c r="Y106" t="s">
+        <v>294</v>
+      </c>
+      <c r="AB106" s="7">
+        <v>50</v>
+      </c>
+      <c r="AC106">
+        <v>4</v>
+      </c>
       <c r="AH106" s="1"/>
-    </row>
-    <row r="107" spans="34:34" x14ac:dyDescent="0.25">
+      <c r="AI106">
+        <v>1</v>
+      </c>
+      <c r="AN106" s="11" t="s">
+        <v>258</v>
+      </c>
+      <c r="AO106" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="107" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>186</v>
+      </c>
+      <c r="B107" t="s">
+        <v>332</v>
+      </c>
+      <c r="D107" s="6">
+        <v>160</v>
+      </c>
+      <c r="F107">
+        <v>2002</v>
+      </c>
+      <c r="J107" t="s">
+        <v>187</v>
+      </c>
+      <c r="N107" t="s">
+        <v>195</v>
+      </c>
+      <c r="R107" s="9">
+        <v>110</v>
+      </c>
+      <c r="Y107" t="s">
+        <v>294</v>
+      </c>
+      <c r="AB107" s="7">
+        <v>50</v>
+      </c>
+      <c r="AC107">
+        <v>4</v>
+      </c>
       <c r="AH107" s="1"/>
-    </row>
-    <row r="108" spans="34:34" x14ac:dyDescent="0.25">
+      <c r="AI107">
+        <v>1</v>
+      </c>
+      <c r="AN107" s="11" t="s">
+        <v>258</v>
+      </c>
+      <c r="AO107" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="108" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>186</v>
+      </c>
+      <c r="B108" t="s">
+        <v>335</v>
+      </c>
+      <c r="D108" s="6">
+        <v>160</v>
+      </c>
+      <c r="F108">
+        <v>2009</v>
+      </c>
+      <c r="J108" t="s">
+        <v>187</v>
+      </c>
+      <c r="N108" t="s">
+        <v>195</v>
+      </c>
+      <c r="R108" s="9">
+        <v>19</v>
+      </c>
+      <c r="S108" s="9">
+        <v>33</v>
+      </c>
+      <c r="Y108" t="s">
+        <v>294</v>
+      </c>
+      <c r="AB108" s="7">
+        <v>50</v>
+      </c>
+      <c r="AC108">
+        <v>4</v>
+      </c>
       <c r="AH108" s="1"/>
-    </row>
-    <row r="109" spans="34:34" x14ac:dyDescent="0.25">
+      <c r="AI108">
+        <v>1</v>
+      </c>
+      <c r="AN108" s="11" t="s">
+        <v>258</v>
+      </c>
+      <c r="AO108" t="s">
+        <v>232</v>
+      </c>
+      <c r="AP108" s="11" t="s">
+        <v>258</v>
+      </c>
+      <c r="AQ108" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="109" spans="1:46" x14ac:dyDescent="0.25">
       <c r="AH109" s="1"/>
     </row>
-    <row r="110" spans="34:34" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:46" x14ac:dyDescent="0.25">
       <c r="AH110" s="1"/>
     </row>
-    <row r="111" spans="34:34" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:46" x14ac:dyDescent="0.25">
       <c r="AH111" s="1"/>
     </row>
-    <row r="112" spans="34:34" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:46" x14ac:dyDescent="0.25">
       <c r="AH112" s="1"/>
     </row>
     <row r="113" spans="34:34" x14ac:dyDescent="0.25">
@@ -5516,6 +7423,9 @@
     </row>
     <row r="170" spans="34:34" x14ac:dyDescent="0.25">
       <c r="AH170" s="1"/>
+    </row>
+    <row r="171" spans="34:34" x14ac:dyDescent="0.25">
+      <c r="AH171" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Documentation/Danske Personvogne.xlsx
+++ b/Documentation/Danske Personvogne.xlsx
@@ -1,26 +1,39 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27126"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\1993m\Documents\GitHub\Pak128.Nordic\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C73FB5B8-2100-42CD-9FBF-BA7321BCDB3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBD74371-73DE-4A77-BA07-517C15FE9B03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Forklaring" sheetId="2" r:id="rId1"/>
-    <sheet name="Danske personvogne" sheetId="1" r:id="rId2"/>
-    <sheet name="Danske damplokomotiver" sheetId="3" r:id="rId3"/>
+    <sheet name="Danske Togsæt" sheetId="4" r:id="rId2"/>
+    <sheet name="Danske personvogne" sheetId="1" r:id="rId3"/>
+    <sheet name="Danske damplokomotiver" sheetId="3" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -229,7 +242,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1084" uniqueCount="336">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1084" uniqueCount="337">
   <si>
     <t>name=BR-390FrontCab</t>
   </si>
@@ -1262,6 +1275,9 @@
   <si>
     <t>ABs (II)</t>
   </si>
+  <si>
+    <t>CL (I)</t>
+  </si>
 </sst>
 </file>
 
@@ -1270,11 +1286,11 @@
   <numFmts count="5">
     <numFmt numFmtId="164" formatCode="0&quot; km/t&quot;"/>
     <numFmt numFmtId="165" formatCode="0.0&quot; t&quot;"/>
-    <numFmt numFmtId="167" formatCode="0&quot; kg&quot;"/>
-    <numFmt numFmtId="168" formatCode="0&quot; pax&quot;"/>
-    <numFmt numFmtId="169" formatCode="0&quot; mm&quot;"/>
+    <numFmt numFmtId="166" formatCode="0&quot; kg&quot;"/>
+    <numFmt numFmtId="167" formatCode="0&quot; pax&quot;"/>
+    <numFmt numFmtId="168" formatCode="0&quot; mm&quot;"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1331,6 +1347,22 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1353,7 +1385,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -1366,21 +1398,23 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="167" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="168" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="169" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="168" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Link" xfId="1" builtinId="8"/>
@@ -1664,7 +1698,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDAB390C-EB3C-47C0-B1C9-8DBD38503A44}">
   <dimension ref="A1:R80"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A34" workbookViewId="0">
       <selection activeCell="O17" sqref="O17"/>
     </sheetView>
   </sheetViews>
@@ -2401,14 +2435,26 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F02E6EF2-8F4D-4C5F-830D-74BD3A2238F8}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AX171"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C82" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C31" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A109" sqref="A109"/>
+      <selection pane="bottomRight" activeCell="B36" sqref="B36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2419,8 +2465,8 @@
     <col min="28" max="28" width="9.140625" style="7"/>
     <col min="35" max="35" width="3.5703125" customWidth="1"/>
     <col min="38" max="38" width="9.140625" style="11"/>
-    <col min="40" max="40" width="9.140625" style="11"/>
-    <col min="42" max="42" width="9.140625" style="11"/>
+    <col min="40" max="40" width="9.7109375" style="11" customWidth="1"/>
+    <col min="42" max="42" width="10.28515625" style="11" customWidth="1"/>
     <col min="44" max="44" width="9.85546875" style="11" bestFit="1" customWidth="1"/>
     <col min="46" max="46" width="9.140625" style="11"/>
   </cols>
@@ -3998,7 +4044,7 @@
       <c r="A36" t="s">
         <v>186</v>
       </c>
-      <c r="B36" t="s">
+      <c r="B36" s="19" t="s">
         <v>256</v>
       </c>
       <c r="F36">
@@ -4040,8 +4086,8 @@
       <c r="A37" t="s">
         <v>186</v>
       </c>
-      <c r="B37" t="s">
-        <v>257</v>
+      <c r="B37" s="19" t="s">
+        <v>336</v>
       </c>
       <c r="F37">
         <v>1894</v>
@@ -4079,7 +4125,7 @@
       <c r="A38" t="s">
         <v>186</v>
       </c>
-      <c r="B38" t="s">
+      <c r="B38" s="19" t="s">
         <v>260</v>
       </c>
       <c r="F38">
@@ -4118,7 +4164,7 @@
       <c r="A39" t="s">
         <v>186</v>
       </c>
-      <c r="B39" t="s">
+      <c r="B39" s="19" t="s">
         <v>259</v>
       </c>
       <c r="F39">
@@ -4157,7 +4203,7 @@
       <c r="A40" t="s">
         <v>186</v>
       </c>
-      <c r="B40" t="s">
+      <c r="B40" s="19" t="s">
         <v>261</v>
       </c>
       <c r="F40">
@@ -4196,7 +4242,7 @@
       <c r="A41" t="s">
         <v>186</v>
       </c>
-      <c r="B41" t="s">
+      <c r="B41" s="19" t="s">
         <v>262</v>
       </c>
       <c r="F41">
@@ -4244,7 +4290,7 @@
       <c r="A42" t="s">
         <v>186</v>
       </c>
-      <c r="B42" t="s">
+      <c r="B42" s="19" t="s">
         <v>263</v>
       </c>
       <c r="F42">
@@ -4283,7 +4329,7 @@
       <c r="A43" t="s">
         <v>186</v>
       </c>
-      <c r="B43" t="s">
+      <c r="B43" s="19" t="s">
         <v>264</v>
       </c>
       <c r="F43">
@@ -4331,7 +4377,7 @@
       <c r="A44" t="s">
         <v>186</v>
       </c>
-      <c r="B44" t="s">
+      <c r="B44" s="19" t="s">
         <v>265</v>
       </c>
       <c r="F44">
@@ -4370,7 +4416,7 @@
       <c r="A45" t="s">
         <v>186</v>
       </c>
-      <c r="B45" t="s">
+      <c r="B45" s="19" t="s">
         <v>266</v>
       </c>
       <c r="F45">
@@ -4418,7 +4464,7 @@
       <c r="A46" t="s">
         <v>186</v>
       </c>
-      <c r="B46" t="s">
+      <c r="B46" s="19" t="s">
         <v>267</v>
       </c>
       <c r="F46">
@@ -4457,7 +4503,7 @@
       <c r="A47" t="s">
         <v>186</v>
       </c>
-      <c r="B47" t="s">
+      <c r="B47" s="19" t="s">
         <v>268</v>
       </c>
       <c r="F47">
@@ -4496,7 +4542,7 @@
       <c r="A48" t="s">
         <v>186</v>
       </c>
-      <c r="B48" t="s">
+      <c r="B48" s="19" t="s">
         <v>269</v>
       </c>
       <c r="F48">
@@ -4544,7 +4590,7 @@
       <c r="A49" t="s">
         <v>186</v>
       </c>
-      <c r="B49" t="s">
+      <c r="B49" s="19" t="s">
         <v>270</v>
       </c>
       <c r="F49">
@@ -4583,7 +4629,7 @@
       <c r="A50" t="s">
         <v>186</v>
       </c>
-      <c r="B50" t="s">
+      <c r="B50" s="19" t="s">
         <v>271</v>
       </c>
       <c r="F50">
@@ -4640,7 +4686,7 @@
       <c r="A51" t="s">
         <v>186</v>
       </c>
-      <c r="B51" t="s">
+      <c r="B51" s="19" t="s">
         <v>272</v>
       </c>
       <c r="F51">
@@ -4679,7 +4725,7 @@
       <c r="A52" t="s">
         <v>186</v>
       </c>
-      <c r="B52" t="s">
+      <c r="B52" s="19" t="s">
         <v>274</v>
       </c>
       <c r="F52">
@@ -4718,7 +4764,7 @@
       <c r="A53" t="s">
         <v>186</v>
       </c>
-      <c r="B53" t="s">
+      <c r="B53" s="19" t="s">
         <v>275</v>
       </c>
       <c r="F53">
@@ -4766,7 +4812,7 @@
       <c r="A54" t="s">
         <v>186</v>
       </c>
-      <c r="B54" t="s">
+      <c r="B54" s="19" t="s">
         <v>276</v>
       </c>
       <c r="F54">
@@ -5027,7 +5073,7 @@
       <c r="A60" t="s">
         <v>186</v>
       </c>
-      <c r="B60" t="s">
+      <c r="B60" s="19" t="s">
         <v>283</v>
       </c>
       <c r="F60">
@@ -5066,7 +5112,7 @@
       <c r="A61" t="s">
         <v>186</v>
       </c>
-      <c r="B61" t="s">
+      <c r="B61" s="19" t="s">
         <v>285</v>
       </c>
       <c r="F61">
@@ -5105,7 +5151,7 @@
       <c r="A62" t="s">
         <v>186</v>
       </c>
-      <c r="B62" t="s">
+      <c r="B62" s="19" t="s">
         <v>287</v>
       </c>
       <c r="F62">
@@ -5147,7 +5193,7 @@
       <c r="A63" t="s">
         <v>186</v>
       </c>
-      <c r="B63" t="s">
+      <c r="B63" s="19" t="s">
         <v>289</v>
       </c>
       <c r="F63">
@@ -5186,7 +5232,7 @@
       <c r="A64" t="s">
         <v>186</v>
       </c>
-      <c r="B64" t="s">
+      <c r="B64" s="19" t="s">
         <v>290</v>
       </c>
       <c r="F64">
@@ -5231,7 +5277,7 @@
       <c r="A65" t="s">
         <v>186</v>
       </c>
-      <c r="B65" t="s">
+      <c r="B65" s="19" t="s">
         <v>291</v>
       </c>
       <c r="F65">
@@ -5273,7 +5319,7 @@
       <c r="A66" t="s">
         <v>186</v>
       </c>
-      <c r="B66" t="s">
+      <c r="B66" s="19" t="s">
         <v>293</v>
       </c>
       <c r="F66">
@@ -5321,7 +5367,7 @@
       <c r="A67" t="s">
         <v>186</v>
       </c>
-      <c r="B67" t="s">
+      <c r="B67" s="19" t="s">
         <v>295</v>
       </c>
       <c r="F67">
@@ -5402,7 +5448,7 @@
       <c r="A69" t="s">
         <v>186</v>
       </c>
-      <c r="B69" t="s">
+      <c r="B69" s="19" t="s">
         <v>297</v>
       </c>
       <c r="F69">
@@ -5459,7 +5505,7 @@
       <c r="A70" t="s">
         <v>186</v>
       </c>
-      <c r="B70" t="s">
+      <c r="B70" s="19" t="s">
         <v>298</v>
       </c>
       <c r="F70">
@@ -5498,7 +5544,7 @@
       <c r="A71" t="s">
         <v>186</v>
       </c>
-      <c r="B71" t="s">
+      <c r="B71" s="19" t="s">
         <v>299</v>
       </c>
       <c r="F71">
@@ -5543,7 +5589,7 @@
       <c r="A72" t="s">
         <v>186</v>
       </c>
-      <c r="B72" t="s">
+      <c r="B72" s="19" t="s">
         <v>300</v>
       </c>
       <c r="D72" s="6">
@@ -5588,7 +5634,7 @@
       <c r="A73" t="s">
         <v>186</v>
       </c>
-      <c r="B73" t="s">
+      <c r="B73" s="19" t="s">
         <v>301</v>
       </c>
       <c r="D73" s="6">
@@ -5642,7 +5688,7 @@
       <c r="A74" t="s">
         <v>186</v>
       </c>
-      <c r="B74" t="s">
+      <c r="B74" s="19" t="s">
         <v>302</v>
       </c>
       <c r="F74">
@@ -5690,7 +5736,7 @@
       <c r="A75" t="s">
         <v>186</v>
       </c>
-      <c r="B75" t="s">
+      <c r="B75" s="19" t="s">
         <v>303</v>
       </c>
       <c r="F75">
@@ -5741,7 +5787,7 @@
       <c r="A76" t="s">
         <v>186</v>
       </c>
-      <c r="B76" t="s">
+      <c r="B76" s="19" t="s">
         <v>304</v>
       </c>
       <c r="D76" s="6">
@@ -5783,7 +5829,7 @@
       <c r="A77" t="s">
         <v>186</v>
       </c>
-      <c r="B77" t="s">
+      <c r="B77" s="19" t="s">
         <v>257</v>
       </c>
       <c r="D77" s="6">
@@ -5876,7 +5922,7 @@
       <c r="A79" t="s">
         <v>186</v>
       </c>
-      <c r="B79" t="s">
+      <c r="B79" s="19" t="s">
         <v>306</v>
       </c>
       <c r="D79" s="6">
@@ -5921,7 +5967,7 @@
       <c r="A80" t="s">
         <v>186</v>
       </c>
-      <c r="B80" t="s">
+      <c r="B80" s="19" t="s">
         <v>307</v>
       </c>
       <c r="F80">
@@ -5954,7 +6000,7 @@
       <c r="A81" t="s">
         <v>186</v>
       </c>
-      <c r="B81" t="s">
+      <c r="B81" s="19" t="s">
         <v>308</v>
       </c>
       <c r="D81" s="6">
@@ -6005,7 +6051,7 @@
       <c r="A82" t="s">
         <v>186</v>
       </c>
-      <c r="B82" t="s">
+      <c r="B82" s="19" t="s">
         <v>309</v>
       </c>
       <c r="D82" s="6">
@@ -6050,7 +6096,7 @@
       <c r="A83" t="s">
         <v>186</v>
       </c>
-      <c r="B83" t="s">
+      <c r="B83" s="19" t="s">
         <v>310</v>
       </c>
       <c r="D83" s="6">
@@ -6092,7 +6138,7 @@
       <c r="A84" t="s">
         <v>186</v>
       </c>
-      <c r="B84" t="s">
+      <c r="B84" s="19" t="s">
         <v>311</v>
       </c>
       <c r="D84" s="6">
@@ -6134,7 +6180,7 @@
       <c r="A85" t="s">
         <v>186</v>
       </c>
-      <c r="B85" t="s">
+      <c r="B85" s="19" t="s">
         <v>312</v>
       </c>
       <c r="D85" s="6">
@@ -6179,7 +6225,7 @@
       <c r="A86" t="s">
         <v>186</v>
       </c>
-      <c r="B86" t="s">
+      <c r="B86" s="19" t="s">
         <v>313</v>
       </c>
       <c r="D86" s="6">
@@ -6221,7 +6267,7 @@
       <c r="A87" t="s">
         <v>186</v>
       </c>
-      <c r="B87" t="s">
+      <c r="B87" s="19" t="s">
         <v>314</v>
       </c>
       <c r="D87" s="6">
@@ -6263,7 +6309,7 @@
       <c r="A88" t="s">
         <v>186</v>
       </c>
-      <c r="B88" t="s">
+      <c r="B88" s="19" t="s">
         <v>315</v>
       </c>
       <c r="D88" s="6">
@@ -6308,7 +6354,7 @@
       <c r="A89" t="s">
         <v>186</v>
       </c>
-      <c r="B89" t="s">
+      <c r="B89" s="19" t="s">
         <v>315</v>
       </c>
       <c r="D89" s="6">
@@ -6356,7 +6402,7 @@
       <c r="A90" t="s">
         <v>186</v>
       </c>
-      <c r="B90" t="s">
+      <c r="B90" s="19" t="s">
         <v>316</v>
       </c>
       <c r="D90" s="6">
@@ -6401,7 +6447,7 @@
       <c r="A91" t="s">
         <v>186</v>
       </c>
-      <c r="B91" t="s">
+      <c r="B91" s="19" t="s">
         <v>317</v>
       </c>
       <c r="D91" s="6">
@@ -6455,7 +6501,7 @@
       <c r="A92" t="s">
         <v>186</v>
       </c>
-      <c r="B92" t="s">
+      <c r="B92" s="19" t="s">
         <v>318</v>
       </c>
       <c r="D92" s="6">
@@ -6500,7 +6546,7 @@
       <c r="A93" t="s">
         <v>186</v>
       </c>
-      <c r="B93" t="s">
+      <c r="B93" s="19" t="s">
         <v>319</v>
       </c>
       <c r="D93" s="6">
@@ -6548,7 +6594,7 @@
       <c r="A94" t="s">
         <v>186</v>
       </c>
-      <c r="B94" t="s">
+      <c r="B94" s="19" t="s">
         <v>320</v>
       </c>
       <c r="D94" s="6">
@@ -6593,7 +6639,7 @@
       <c r="A95" t="s">
         <v>186</v>
       </c>
-      <c r="B95" t="s">
+      <c r="B95" s="19" t="s">
         <v>321</v>
       </c>
       <c r="D95" s="6">
@@ -6638,7 +6684,7 @@
       <c r="A96" t="s">
         <v>186</v>
       </c>
-      <c r="B96" t="s">
+      <c r="B96" s="19" t="s">
         <v>322</v>
       </c>
       <c r="D96" s="6">
@@ -6680,7 +6726,7 @@
       <c r="A97" t="s">
         <v>186</v>
       </c>
-      <c r="B97" t="s">
+      <c r="B97" s="19" t="s">
         <v>323</v>
       </c>
       <c r="D97" s="6">
@@ -6728,7 +6774,7 @@
       <c r="A98" t="s">
         <v>186</v>
       </c>
-      <c r="B98" t="s">
+      <c r="B98" s="19" t="s">
         <v>324</v>
       </c>
       <c r="D98" s="6">
@@ -6785,7 +6831,7 @@
       <c r="A99" t="s">
         <v>186</v>
       </c>
-      <c r="B99" t="s">
+      <c r="B99" s="19" t="s">
         <v>325</v>
       </c>
       <c r="D99" s="6">
@@ -6827,7 +6873,7 @@
       <c r="A100" s="12" t="s">
         <v>186</v>
       </c>
-      <c r="B100" s="12" t="s">
+      <c r="B100" s="20" t="s">
         <v>326</v>
       </c>
       <c r="D100" s="13">
@@ -6876,7 +6922,7 @@
       <c r="A101" t="s">
         <v>186</v>
       </c>
-      <c r="B101" t="s">
+      <c r="B101" s="19" t="s">
         <v>327</v>
       </c>
       <c r="D101" s="6">
@@ -6921,7 +6967,7 @@
       <c r="A102" t="s">
         <v>186</v>
       </c>
-      <c r="B102" t="s">
+      <c r="B102" s="19" t="s">
         <v>328</v>
       </c>
       <c r="D102" s="6">
@@ -6963,7 +7009,7 @@
       <c r="A103" t="s">
         <v>186</v>
       </c>
-      <c r="B103" t="s">
+      <c r="B103" s="19" t="s">
         <v>329</v>
       </c>
       <c r="D103" s="6">
@@ -7008,7 +7054,7 @@
       <c r="A104" t="s">
         <v>186</v>
       </c>
-      <c r="B104" t="s">
+      <c r="B104" s="19" t="s">
         <v>330</v>
       </c>
       <c r="D104" s="6">
@@ -7050,7 +7096,7 @@
       <c r="A105" t="s">
         <v>186</v>
       </c>
-      <c r="B105" t="s">
+      <c r="B105" s="19" t="s">
         <v>334</v>
       </c>
       <c r="D105" s="6">
@@ -7104,7 +7150,7 @@
       <c r="A106" t="s">
         <v>186</v>
       </c>
-      <c r="B106" t="s">
+      <c r="B106" s="19" t="s">
         <v>331</v>
       </c>
       <c r="D106" s="6">
@@ -7149,7 +7195,7 @@
       <c r="A107" t="s">
         <v>186</v>
       </c>
-      <c r="B107" t="s">
+      <c r="B107" s="19" t="s">
         <v>332</v>
       </c>
       <c r="D107" s="6">
@@ -7191,7 +7237,7 @@
       <c r="A108" t="s">
         <v>186</v>
       </c>
-      <c r="B108" t="s">
+      <c r="B108" s="19" t="s">
         <v>335</v>
       </c>
       <c r="D108" s="6">
@@ -7429,11 +7475,12 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1588DABD-649C-440E-B3E7-F4DCE1430BE3}">
   <dimension ref="A1:AZ170"/>
   <sheetViews>
